--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>377</v>
       </c>
       <c r="C28" t="n">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="D28" t="n">
-        <v>-202</v>
+        <v>-173</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         <v>38</v>
       </c>
       <c r="C93" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D93" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2465,14 +2465,14 @@
         <v>51</v>
       </c>
       <c r="C97" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D97" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2507,10 +2507,10 @@
         <v>3702</v>
       </c>
       <c r="C99" t="n">
-        <v>1769</v>
+        <v>2235</v>
       </c>
       <c r="D99" t="n">
-        <v>-1933</v>
+        <v>-1467</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4989</v>
       </c>
       <c r="C100" t="n">
-        <v>2399</v>
+        <v>3036</v>
       </c>
       <c r="D100" t="n">
-        <v>-2590</v>
+        <v>-1953</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1109</v>
       </c>
       <c r="C101" t="n">
-        <v>722</v>
+        <v>799</v>
       </c>
       <c r="D101" t="n">
-        <v>-387</v>
+        <v>-310</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3347,14 +3347,14 @@
         <v>197</v>
       </c>
       <c r="C139" t="n">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="D139" t="n">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>-61</v>
+        <v>-67</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,14 +512,14 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4121</v>
+        <v>4117</v>
       </c>
       <c r="C6" t="n">
-        <v>4938</v>
+        <v>4879</v>
       </c>
       <c r="D6" t="n">
-        <v>816</v>
+        <v>762</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -575,14 +575,14 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -614,17 +614,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D9" t="n">
-        <v>-4</v>
+        <v>31</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -680,14 +680,14 @@
         <v>124</v>
       </c>
       <c r="C12" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -743,10 +743,10 @@
         <v>89</v>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-14</v>
+        <v>-89</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -764,14 +764,14 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -785,14 +785,14 @@
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -908,17 +908,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C23" t="n">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="D23" t="n">
-        <v>70</v>
+        <v>-16</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>777</v>
+        <v>859</v>
       </c>
       <c r="C24" t="n">
-        <v>1065</v>
+        <v>1079</v>
       </c>
       <c r="D24" t="n">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="C28" t="n">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>-173</v>
+        <v>-393</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1079,10 +1079,10 @@
         <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1160,17 +1160,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8252</v>
+        <v>9088</v>
       </c>
       <c r="C35" t="n">
-        <v>20612</v>
+        <v>1743</v>
       </c>
       <c r="D35" t="n">
-        <v>12359</v>
+        <v>-7345</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
         <v>36</v>
       </c>
-      <c r="C36" t="n">
-        <v>40</v>
-      </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1205,14 +1205,14 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1268,10 +1268,10 @@
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D40" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1457,14 +1457,14 @@
         <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D49" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1475,17 +1475,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C50" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C53" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-4</v>
+        <v>-53</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1583,14 +1583,14 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1604,14 +1604,14 @@
         <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1625,14 +1625,14 @@
         <v>953</v>
       </c>
       <c r="C57" t="n">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D57" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1643,17 +1643,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C58" t="n">
-        <v>28</v>
+        <v>356</v>
       </c>
       <c r="D58" t="n">
-        <v>-247</v>
+        <v>106</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1664,17 +1664,17 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C59" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D59" t="n">
-        <v>39</v>
+        <v>-9</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1709,14 +1709,14 @@
         <v>6</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1727,17 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C62" t="n">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="D62" t="n">
-        <v>47</v>
+        <v>-10</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1748,17 +1748,17 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C65" t="n">
-        <v>300</v>
+        <v>116</v>
       </c>
       <c r="D65" t="n">
-        <v>-41</v>
+        <v>-222</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1814,14 +1814,14 @@
         <v>159</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="D66" t="n">
-        <v>-159</v>
+        <v>267</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2000,17 +2000,17 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="C75" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>-21</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2108,14 +2108,14 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2192,10 +2192,10 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2213,14 +2213,14 @@
         <v>44</v>
       </c>
       <c r="C85" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C86" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-21</v>
+        <v>-36</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2252,17 +2252,17 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D87" t="n">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2315,17 +2315,17 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3950</v>
+        <v>3658</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3814</v>
       </c>
       <c r="D90" t="n">
-        <v>-3948</v>
+        <v>155</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         <v>38</v>
       </c>
       <c r="C93" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-8</v>
+        <v>-81</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2462,17 +2462,17 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C97" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3702</v>
+        <v>3724</v>
       </c>
       <c r="C99" t="n">
-        <v>2235</v>
+        <v>636</v>
       </c>
       <c r="D99" t="n">
-        <v>-1467</v>
+        <v>-3088</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4989</v>
+        <v>5035</v>
       </c>
       <c r="C100" t="n">
-        <v>3036</v>
+        <v>1038</v>
       </c>
       <c r="D100" t="n">
-        <v>-1953</v>
+        <v>-3997</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="C101" t="n">
-        <v>799</v>
+        <v>431</v>
       </c>
       <c r="D101" t="n">
-        <v>-310</v>
+        <v>-682</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2588,17 +2588,17 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>767</v>
+        <v>726</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5150</v>
+        <v>5123</v>
       </c>
       <c r="C106" t="n">
-        <v>5039</v>
+        <v>3014</v>
       </c>
       <c r="D106" t="n">
-        <v>-111</v>
+        <v>-2109</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2735,17 +2735,17 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C110" t="n">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="D110" t="n">
-        <v>53</v>
+        <v>-47</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2759,14 +2759,14 @@
         <v>16</v>
       </c>
       <c r="C111" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2819,13 +2819,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C114" t="n">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2504</v>
+        <v>2501</v>
       </c>
       <c r="C115" t="n">
         <v>2430</v>
       </c>
       <c r="D115" t="n">
-        <v>-74</v>
+        <v>-71</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2864,14 +2864,14 @@
         <v>8</v>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2903,17 +2903,17 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C118" t="n">
-        <v>329</v>
+        <v>239</v>
       </c>
       <c r="D118" t="n">
-        <v>93</v>
+        <v>-4</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2966,13 +2966,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C121" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-18</v>
+        <v>-74</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2990,14 +2990,14 @@
         <v>306</v>
       </c>
       <c r="C122" t="n">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D122" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3071,13 +3071,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C126" t="n">
-        <v>2208</v>
+        <v>2173</v>
       </c>
       <c r="D126" t="n">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C130" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>-25</v>
+        <v>-85</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3179,14 +3179,14 @@
         <v>6</v>
       </c>
       <c r="C131" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3260,17 +3260,17 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C135" t="n">
-        <v>2136</v>
+        <v>5</v>
       </c>
       <c r="D135" t="n">
-        <v>67</v>
+        <v>-2062</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3302,17 +3302,17 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3490</v>
+        <v>3266</v>
       </c>
       <c r="C137" t="n">
-        <v>4087</v>
+        <v>1026</v>
       </c>
       <c r="D137" t="n">
-        <v>596</v>
+        <v>-2240</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3323,13 +3323,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C138" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D138" t="n">
-        <v>-5</v>
+        <v>-19</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3347,14 +3347,14 @@
         <v>197</v>
       </c>
       <c r="C139" t="n">
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>-136</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3365,13 +3365,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C140" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3428,17 +3428,17 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D143" t="n">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3449,17 +3449,17 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C144" t="n">
-        <v>878</v>
+        <v>150</v>
       </c>
       <c r="D144" t="n">
-        <v>77</v>
+        <v>-656</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3512,13 +3512,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C147" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D147" t="n">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D148" t="n">
-        <v>-4</v>
+        <v>-35</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3554,10 +3554,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C149" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D149" t="n">
         <v>-14</v>
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C150" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D150" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>32</v>
       </c>
       <c r="C151" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D151" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3620,14 +3620,14 @@
         <v>50</v>
       </c>
       <c r="C152" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D152" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3641,14 +3641,14 @@
         <v>1460</v>
       </c>
       <c r="C153" t="n">
-        <v>1465</v>
+        <v>980</v>
       </c>
       <c r="D153" t="n">
-        <v>4</v>
+        <v>-480</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3683,14 +3683,14 @@
         <v>41</v>
       </c>
       <c r="C155" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>-41</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>404</v>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>-393</v>
+        <v>-385</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9088</v>
       </c>
       <c r="C35" t="n">
-        <v>1743</v>
+        <v>7655</v>
       </c>
       <c r="D35" t="n">
-        <v>-7345</v>
+        <v>-1433</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1730,10 +1730,10 @@
         <v>371</v>
       </c>
       <c r="C62" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D62" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
+        <v>11</v>
+      </c>
+      <c r="D76" t="n">
         <v>8</v>
-      </c>
-      <c r="D76" t="n">
-        <v>5</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5123</v>
       </c>
       <c r="C106" t="n">
-        <v>3014</v>
+        <v>3264</v>
       </c>
       <c r="D106" t="n">
-        <v>-2109</v>
+        <v>-1859</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>806</v>
       </c>
       <c r="C144" t="n">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="D144" t="n">
-        <v>-656</v>
+        <v>-602</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D148" t="n">
-        <v>-35</v>
+        <v>-1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3620,10 +3620,10 @@
         <v>50</v>
       </c>
       <c r="C152" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -743,14 +743,14 @@
         <v>89</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="D15" t="n">
-        <v>-89</v>
+        <v>112</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>404</v>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>-385</v>
+        <v>-345</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9088</v>
       </c>
       <c r="C35" t="n">
-        <v>7655</v>
+        <v>8331</v>
       </c>
       <c r="D35" t="n">
-        <v>-1433</v>
+        <v>-757</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1583,14 +1583,14 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1667,14 +1667,14 @@
         <v>48</v>
       </c>
       <c r="C59" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D59" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1793,10 +1793,10 @@
         <v>338</v>
       </c>
       <c r="C65" t="n">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="D65" t="n">
-        <v>-222</v>
+        <v>-54</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D76" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>36</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D86" t="n">
-        <v>-36</v>
+        <v>-12</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2318,10 +2318,10 @@
         <v>3658</v>
       </c>
       <c r="C90" t="n">
-        <v>3814</v>
+        <v>4863</v>
       </c>
       <c r="D90" t="n">
-        <v>155</v>
+        <v>1204</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>81</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D95" t="n">
-        <v>-81</v>
+        <v>-18</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>52</v>
       </c>
       <c r="C97" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D97" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3724</v>
       </c>
       <c r="C99" t="n">
-        <v>636</v>
+        <v>1063</v>
       </c>
       <c r="D99" t="n">
-        <v>-3088</v>
+        <v>-2661</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>5035</v>
       </c>
       <c r="C100" t="n">
-        <v>1038</v>
+        <v>1579</v>
       </c>
       <c r="D100" t="n">
-        <v>-3997</v>
+        <v>-3456</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1113</v>
       </c>
       <c r="C101" t="n">
-        <v>431</v>
+        <v>524</v>
       </c>
       <c r="D101" t="n">
-        <v>-682</v>
+        <v>-589</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="D103" t="n">
-        <v>-41</v>
+        <v>-30</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5123</v>
       </c>
       <c r="C106" t="n">
-        <v>3264</v>
+        <v>3915</v>
       </c>
       <c r="D106" t="n">
-        <v>-1859</v>
+        <v>-1208</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>74</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
-        <v>-74</v>
+        <v>-62</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3158,14 +3158,14 @@
         <v>85</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D130" t="n">
-        <v>-85</v>
+        <v>18</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3263,14 +3263,14 @@
         <v>2067</v>
       </c>
       <c r="C135" t="n">
-        <v>5</v>
+        <v>2099</v>
       </c>
       <c r="D135" t="n">
-        <v>-2062</v>
+        <v>31</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3305,10 +3305,10 @@
         <v>3266</v>
       </c>
       <c r="C137" t="n">
-        <v>1026</v>
+        <v>1202</v>
       </c>
       <c r="D137" t="n">
-        <v>-2240</v>
+        <v>-2064</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>197</v>
       </c>
       <c r="C139" t="n">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="D139" t="n">
-        <v>-136</v>
+        <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>806</v>
       </c>
       <c r="C144" t="n">
-        <v>204</v>
+        <v>386</v>
       </c>
       <c r="D144" t="n">
-        <v>-602</v>
+        <v>-420</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3683,10 +3683,10 @@
         <v>41</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D155" t="n">
-        <v>-41</v>
+        <v>-8</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -764,10 +764,10 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -932,10 +932,10 @@
         <v>859</v>
       </c>
       <c r="C24" t="n">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D24" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>404</v>
       </c>
       <c r="C28" t="n">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="D28" t="n">
-        <v>-345</v>
+        <v>-246</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         <v>123</v>
       </c>
       <c r="C41" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1541,14 +1541,14 @@
         <v>53</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D53" t="n">
-        <v>-53</v>
+        <v>53</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1793,10 +1793,10 @@
         <v>338</v>
       </c>
       <c r="C65" t="n">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D65" t="n">
-        <v>-54</v>
+        <v>-41</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>322</v>
       </c>
       <c r="C75" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D75" t="n">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>36</v>
       </c>
       <c r="C86" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D86" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2318,10 +2318,10 @@
         <v>3658</v>
       </c>
       <c r="C90" t="n">
-        <v>4863</v>
+        <v>7970</v>
       </c>
       <c r="D90" t="n">
-        <v>1204</v>
+        <v>4311</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>52</v>
       </c>
       <c r="C97" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D97" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3724</v>
       </c>
       <c r="C99" t="n">
-        <v>1063</v>
+        <v>1883</v>
       </c>
       <c r="D99" t="n">
-        <v>-2661</v>
+        <v>-1841</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>5035</v>
       </c>
       <c r="C100" t="n">
-        <v>1579</v>
+        <v>2070</v>
       </c>
       <c r="D100" t="n">
-        <v>-3456</v>
+        <v>-2965</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1113</v>
       </c>
       <c r="C101" t="n">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="D101" t="n">
-        <v>-589</v>
+        <v>-527</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="D103" t="n">
-        <v>-30</v>
+        <v>-2</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5123</v>
       </c>
       <c r="C106" t="n">
-        <v>3915</v>
+        <v>5037</v>
       </c>
       <c r="D106" t="n">
-        <v>-1208</v>
+        <v>-86</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>243</v>
       </c>
       <c r="C118" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D118" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>74</v>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D121" t="n">
-        <v>-62</v>
+        <v>-20</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>2067</v>
       </c>
       <c r="C135" t="n">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D135" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3266</v>
       </c>
       <c r="C137" t="n">
-        <v>1202</v>
+        <v>2502</v>
       </c>
       <c r="D137" t="n">
-        <v>-2064</v>
+        <v>-764</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>806</v>
       </c>
       <c r="C144" t="n">
-        <v>386</v>
+        <v>668</v>
       </c>
       <c r="D144" t="n">
-        <v>-420</v>
+        <v>-138</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>32</v>
       </c>
       <c r="C151" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1460</v>
       </c>
       <c r="C153" t="n">
-        <v>980</v>
+        <v>1393</v>
       </c>
       <c r="D153" t="n">
-        <v>-480</v>
+        <v>-67</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
         <v>41</v>
       </c>
       <c r="C155" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D155" t="n">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4117</v>
       </c>
       <c r="C6" t="n">
-        <v>4879</v>
+        <v>4881</v>
       </c>
       <c r="D6" t="n">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -680,14 +680,14 @@
         <v>124</v>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -764,10 +764,10 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>404</v>
       </c>
       <c r="C28" t="n">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="D28" t="n">
-        <v>-246</v>
+        <v>-175</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1289,14 +1289,14 @@
         <v>123</v>
       </c>
       <c r="C41" t="n">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="D41" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1688,14 +1688,14 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D76" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2465,14 +2465,14 @@
         <v>52</v>
       </c>
       <c r="C97" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D97" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2507,10 +2507,10 @@
         <v>3724</v>
       </c>
       <c r="C99" t="n">
-        <v>1883</v>
+        <v>2375</v>
       </c>
       <c r="D99" t="n">
-        <v>-1841</v>
+        <v>-1349</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>5035</v>
       </c>
       <c r="C100" t="n">
-        <v>2070</v>
+        <v>3196</v>
       </c>
       <c r="D100" t="n">
-        <v>-2965</v>
+        <v>-1839</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1113</v>
       </c>
       <c r="C101" t="n">
-        <v>586</v>
+        <v>802</v>
       </c>
       <c r="D101" t="n">
-        <v>-527</v>
+        <v>-311</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>2501</v>
       </c>
       <c r="C115" t="n">
-        <v>2430</v>
+        <v>2492</v>
       </c>
       <c r="D115" t="n">
-        <v>-71</v>
+        <v>-9</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,14 +2906,14 @@
         <v>243</v>
       </c>
       <c r="C118" t="n">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="D118" t="n">
-        <v>-3</v>
+        <v>35</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3074,10 +3074,10 @@
         <v>2060</v>
       </c>
       <c r="C126" t="n">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="D126" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3305,14 +3305,14 @@
         <v>3266</v>
       </c>
       <c r="C137" t="n">
-        <v>2502</v>
+        <v>3557</v>
       </c>
       <c r="D137" t="n">
-        <v>-764</v>
+        <v>290</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>806</v>
       </c>
       <c r="C144" t="n">
-        <v>668</v>
+        <v>787</v>
       </c>
       <c r="D144" t="n">
-        <v>-138</v>
+        <v>-19</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>243</v>
       </c>
       <c r="C150" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D150" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>32</v>
       </c>
       <c r="C151" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D151" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,14 +3641,14 @@
         <v>1460</v>
       </c>
       <c r="C153" t="n">
-        <v>1393</v>
+        <v>1473</v>
       </c>
       <c r="D153" t="n">
-        <v>-67</v>
+        <v>12</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -491,10 +491,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-67</v>
+        <v>-66</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,10 +512,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4117</v>
+        <v>4291</v>
       </c>
       <c r="C6" t="n">
-        <v>4881</v>
+        <v>4897</v>
       </c>
       <c r="D6" t="n">
-        <v>764</v>
+        <v>605</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -572,17 +572,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" t="n">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -638,14 +638,14 @@
         <v>61</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="D10" t="n">
-        <v>-29</v>
+        <v>318</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -677,17 +677,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>-8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -740,17 +740,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C15" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>112</v>
+        <v>-101</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>-61</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -785,10 +785,10 @@
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -803,17 +803,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>-4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C23" t="n">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D23" t="n">
-        <v>-16</v>
+        <v>-33</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -929,17 +929,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="C24" t="n">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>220</v>
+        <v>-850</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
         <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C28" t="n">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-175</v>
+        <v>-397</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
         <v>9</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9088</v>
+        <v>9092</v>
       </c>
       <c r="C35" t="n">
-        <v>8331</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-757</v>
+        <v>-9092</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1268,10 +1268,10 @@
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1286,17 +1286,17 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C41" t="n">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D41" t="n">
-        <v>29</v>
+        <v>-4</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1331,14 +1331,14 @@
         <v>24</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1457,14 +1457,14 @@
         <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1475,17 +1475,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C50" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D50" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D53" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54" t="n">
         <v>22</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1583,14 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1604,10 +1604,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C58" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="D58" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1664,17 +1664,17 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1688,14 +1688,14 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C62" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D62" t="n">
-        <v>-9</v>
+        <v>-20</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C65" t="n">
-        <v>297</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>-41</v>
+        <v>-339</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,17 +1811,17 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="C66" t="n">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>267</v>
+        <v>-192</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C74" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2000,17 +2000,17 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C75" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D75" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2021,17 +2021,17 @@
         </is>
       </c>
       <c r="B76" t="n">
+        <v>4</v>
+      </c>
+      <c r="C76" t="n">
         <v>2</v>
       </c>
-      <c r="C76" t="n">
-        <v>24</v>
-      </c>
       <c r="D76" t="n">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2108,14 +2108,14 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2129,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2210,13 +2210,13 @@
         </is>
       </c>
       <c r="B85" t="n">
+        <v>47</v>
+      </c>
+      <c r="C85" t="n">
         <v>44</v>
       </c>
-      <c r="C85" t="n">
-        <v>40</v>
-      </c>
       <c r="D85" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C86" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-6</v>
+        <v>-31</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2315,17 +2315,17 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3658</v>
+        <v>3834</v>
       </c>
       <c r="C90" t="n">
-        <v>7970</v>
+        <v>3816</v>
       </c>
       <c r="D90" t="n">
-        <v>4311</v>
+        <v>-18</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         <v>38</v>
       </c>
       <c r="C93" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D93" t="n">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>81</v>
       </c>
       <c r="C95" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-18</v>
+        <v>-81</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2462,17 +2462,17 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C97" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3724</v>
+        <v>3762</v>
       </c>
       <c r="C99" t="n">
-        <v>2375</v>
+        <v>416</v>
       </c>
       <c r="D99" t="n">
-        <v>-1349</v>
+        <v>-3346</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5035</v>
+        <v>5027</v>
       </c>
       <c r="C100" t="n">
-        <v>3196</v>
+        <v>609</v>
       </c>
       <c r="D100" t="n">
-        <v>-1839</v>
+        <v>-4418</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C101" t="n">
-        <v>802</v>
+        <v>365</v>
       </c>
       <c r="D101" t="n">
-        <v>-311</v>
+        <v>-751</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2588,13 +2588,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C103" t="n">
-        <v>765</v>
+        <v>578</v>
       </c>
       <c r="D103" t="n">
-        <v>-2</v>
+        <v>-188</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2633,10 +2633,10 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5123</v>
+        <v>5110</v>
       </c>
       <c r="C106" t="n">
-        <v>5037</v>
+        <v>2672</v>
       </c>
       <c r="D106" t="n">
-        <v>-86</v>
+        <v>-2438</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2693,17 +2693,17 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2735,13 +2735,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C110" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D110" t="n">
-        <v>-47</v>
+        <v>-65</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2759,10 +2759,10 @@
         <v>16</v>
       </c>
       <c r="C111" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2801,14 +2801,14 @@
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2822,14 +2822,14 @@
         <v>332</v>
       </c>
       <c r="C114" t="n">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D114" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="C115" t="n">
-        <v>2492</v>
+        <v>178</v>
       </c>
       <c r="D115" t="n">
-        <v>-9</v>
+        <v>-2319</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2864,14 +2864,14 @@
         <v>8</v>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2903,17 +2903,17 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C118" t="n">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="D118" t="n">
-        <v>35</v>
+        <v>-230</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2966,13 +2966,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C121" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-20</v>
+        <v>-73</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C122" t="n">
         <v>316</v>
       </c>
       <c r="D122" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3071,13 +3071,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2060</v>
+        <v>2125</v>
       </c>
       <c r="C126" t="n">
-        <v>2174</v>
+        <v>2141</v>
       </c>
       <c r="D126" t="n">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3155,17 +3155,17 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C130" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>18</v>
+        <v>-96</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3179,14 @@
         <v>6</v>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3260,17 +3260,17 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2067</v>
+        <v>2106</v>
       </c>
       <c r="C135" t="n">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>32</v>
+        <v>-2106</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3302,13 +3302,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="C137" t="n">
-        <v>3557</v>
+        <v>4932</v>
       </c>
       <c r="D137" t="n">
-        <v>290</v>
+        <v>1661</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>56</v>
       </c>
       <c r="C138" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-19</v>
+        <v>-56</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C139" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>-196</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3365,13 +3365,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C140" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D140" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3428,13 +3428,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C143" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D143" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C144" t="n">
-        <v>787</v>
+        <v>12</v>
       </c>
       <c r="D144" t="n">
-        <v>-19</v>
+        <v>-795</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3512,13 +3512,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C147" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D147" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>-1</v>
+        <v>-50</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3554,13 +3554,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C149" t="n">
         <v>42</v>
       </c>
       <c r="D149" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C150" t="n">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D150" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>32</v>
       </c>
       <c r="C151" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D151" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C152" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3638,17 +3638,17 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1473</v>
+        <v>1009</v>
       </c>
       <c r="D153" t="n">
-        <v>12</v>
+        <v>-453</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3680,17 +3680,17 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C155" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>-42</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D12" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -743,14 +743,14 @@
         <v>101</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="D15" t="n">
-        <v>-101</v>
+        <v>94</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -932,14 +932,14 @@
         <v>850</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1383</v>
       </c>
       <c r="D24" t="n">
-        <v>-850</v>
+        <v>532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>397</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
-        <v>-397</v>
+        <v>-366</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9092</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>-9092</v>
+        <v>-9077</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1331,14 +1331,14 @@
         <v>24</v>
       </c>
       <c r="C43" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1583,14 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1730,10 +1730,10 @@
         <v>378</v>
       </c>
       <c r="C62" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D62" t="n">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>340</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D65" t="n">
-        <v>-339</v>
+        <v>-290</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>192</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D66" t="n">
-        <v>-192</v>
+        <v>-17</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2234,14 +2234,14 @@
         <v>31</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D86" t="n">
-        <v>-31</v>
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2465,10 +2465,10 @@
         <v>53</v>
       </c>
       <c r="C97" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3762</v>
       </c>
       <c r="C99" t="n">
-        <v>416</v>
+        <v>1062</v>
       </c>
       <c r="D99" t="n">
-        <v>-3346</v>
+        <v>-2700</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>5027</v>
       </c>
       <c r="C100" t="n">
-        <v>609</v>
+        <v>1376</v>
       </c>
       <c r="D100" t="n">
-        <v>-4418</v>
+        <v>-3651</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1116</v>
       </c>
       <c r="C101" t="n">
-        <v>365</v>
+        <v>482</v>
       </c>
       <c r="D101" t="n">
-        <v>-751</v>
+        <v>-634</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,14 +2570,14 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
+        <v>5</v>
+      </c>
+      <c r="D102" t="n">
         <v>1</v>
       </c>
-      <c r="D102" t="n">
-        <v>-2</v>
-      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2591,10 +2591,10 @@
         <v>766</v>
       </c>
       <c r="C103" t="n">
-        <v>578</v>
+        <v>763</v>
       </c>
       <c r="D103" t="n">
-        <v>-188</v>
+        <v>-3</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2633,10 +2633,10 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5110</v>
       </c>
       <c r="C106" t="n">
-        <v>2672</v>
+        <v>3974</v>
       </c>
       <c r="D106" t="n">
-        <v>-2438</v>
+        <v>-1136</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2843,10 +2843,10 @@
         <v>2497</v>
       </c>
       <c r="C115" t="n">
-        <v>178</v>
+        <v>450</v>
       </c>
       <c r="D115" t="n">
-        <v>-2319</v>
+        <v>-2047</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>252</v>
       </c>
       <c r="C118" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D118" t="n">
-        <v>-230</v>
+        <v>-215</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>73</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D121" t="n">
-        <v>-73</v>
+        <v>-26</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3158,14 +3158,14 @@
         <v>96</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D130" t="n">
-        <v>-96</v>
+        <v>19</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3263,10 +3263,10 @@
         <v>2106</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1585</v>
       </c>
       <c r="D135" t="n">
-        <v>-2106</v>
+        <v>-521</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>56</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D138" t="n">
-        <v>-56</v>
+        <v>-16</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3347,14 +3347,14 @@
         <v>196</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D139" t="n">
-        <v>-196</v>
+        <v>6</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>807</v>
       </c>
       <c r="C144" t="n">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="D144" t="n">
-        <v>-795</v>
+        <v>-414</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3536,14 +3536,14 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D148" t="n">
-        <v>-50</v>
+        <v>3</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1009</v>
+        <v>1461</v>
       </c>
       <c r="D153" t="n">
-        <v>-453</v>
+        <v>-1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
         <v>42</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D155" t="n">
-        <v>-42</v>
+        <v>1</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4291</v>
       </c>
       <c r="C6" t="n">
-        <v>4897</v>
+        <v>4898</v>
       </c>
       <c r="D6" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>397</v>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D28" t="n">
-        <v>-366</v>
+        <v>-294</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9092</v>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="D35" t="n">
-        <v>-9077</v>
+        <v>-8987</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1625,10 +1625,10 @@
         <v>953</v>
       </c>
       <c r="C57" t="n">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>340</v>
       </c>
       <c r="C65" t="n">
-        <v>50</v>
+        <v>313</v>
       </c>
       <c r="D65" t="n">
-        <v>-290</v>
+        <v>-27</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>300</v>
       </c>
       <c r="C75" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>31</v>
       </c>
       <c r="C86" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>81</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D95" t="n">
-        <v>-81</v>
+        <v>-23</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>53</v>
       </c>
       <c r="C97" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3762</v>
       </c>
       <c r="C99" t="n">
-        <v>1062</v>
+        <v>1473</v>
       </c>
       <c r="D99" t="n">
-        <v>-2700</v>
+        <v>-2289</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>5027</v>
       </c>
       <c r="C100" t="n">
-        <v>1376</v>
+        <v>1898</v>
       </c>
       <c r="D100" t="n">
-        <v>-3651</v>
+        <v>-3129</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1116</v>
       </c>
       <c r="C101" t="n">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="D101" t="n">
-        <v>-634</v>
+        <v>-576</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5110</v>
       </c>
       <c r="C106" t="n">
-        <v>3974</v>
+        <v>5039</v>
       </c>
       <c r="D106" t="n">
-        <v>-1136</v>
+        <v>-71</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>252</v>
       </c>
       <c r="C118" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D118" t="n">
-        <v>-215</v>
+        <v>-214</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>73</v>
       </c>
       <c r="C121" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D121" t="n">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3074,10 +3074,10 @@
         <v>2125</v>
       </c>
       <c r="C126" t="n">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="D126" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>807</v>
       </c>
       <c r="C144" t="n">
-        <v>393</v>
+        <v>767</v>
       </c>
       <c r="D144" t="n">
-        <v>-414</v>
+        <v>-40</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>32</v>
       </c>
       <c r="C151" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D151" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -785,14 +785,14 @@
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>397</v>
       </c>
       <c r="C28" t="n">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D28" t="n">
-        <v>-294</v>
+        <v>-268</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>378</v>
       </c>
       <c r="C62" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D62" t="n">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>81</v>
       </c>
       <c r="C95" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D95" t="n">
-        <v>-23</v>
+        <v>-21</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>53</v>
       </c>
       <c r="C97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3762</v>
       </c>
       <c r="C99" t="n">
-        <v>1473</v>
+        <v>1935</v>
       </c>
       <c r="D99" t="n">
-        <v>-2289</v>
+        <v>-1827</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>5027</v>
       </c>
       <c r="C100" t="n">
-        <v>1898</v>
+        <v>2410</v>
       </c>
       <c r="D100" t="n">
-        <v>-3129</v>
+        <v>-2617</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1116</v>
       </c>
       <c r="C101" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="D101" t="n">
-        <v>-576</v>
+        <v>-456</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>252</v>
       </c>
       <c r="C118" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D118" t="n">
-        <v>-214</v>
+        <v>-196</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>73</v>
       </c>
       <c r="C121" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D121" t="n">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3452,14 +3452,14 @@
         <v>807</v>
       </c>
       <c r="C144" t="n">
-        <v>767</v>
+        <v>829</v>
       </c>
       <c r="D144" t="n">
-        <v>-40</v>
+        <v>21</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3599,10 +3599,10 @@
         <v>32</v>
       </c>
       <c r="C151" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D151" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>397</v>
       </c>
       <c r="C28" t="n">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D28" t="n">
-        <v>-268</v>
+        <v>-244</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9092</v>
       </c>
       <c r="C35" t="n">
-        <v>105</v>
+        <v>5300</v>
       </c>
       <c r="D35" t="n">
-        <v>-8987</v>
+        <v>-3792</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3074,10 +3074,10 @@
         <v>2125</v>
       </c>
       <c r="C126" t="n">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="D126" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>807</v>
       </c>
       <c r="C144" t="n">
-        <v>829</v>
+        <v>905</v>
       </c>
       <c r="D144" t="n">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>239</v>
       </c>
       <c r="C150" t="n">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="D150" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -491,10 +491,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-66</v>
+        <v>-64</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,10 +512,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,17 +551,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4291</v>
+        <v>4350</v>
       </c>
       <c r="C6" t="n">
-        <v>4898</v>
+        <v>884</v>
       </c>
       <c r="D6" t="n">
-        <v>606</v>
+        <v>-3466</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -575,14 +575,14 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -614,17 +614,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" t="n">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -635,17 +635,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C10" t="n">
-        <v>380</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>318</v>
+        <v>-55</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -740,17 +740,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C15" t="n">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="D15" t="n">
-        <v>94</v>
+        <v>-33</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -785,14 +785,14 @@
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -911,10 +911,10 @@
         <v>179</v>
       </c>
       <c r="C23" t="n">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D23" t="n">
-        <v>-33</v>
+        <v>-11</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -929,17 +929,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>850</v>
+        <v>956</v>
       </c>
       <c r="C24" t="n">
-        <v>1383</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>532</v>
+        <v>-956</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -971,17 +971,17 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="C28" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-244</v>
+        <v>-358</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1079,14 +1079,14 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9092</v>
+        <v>9106</v>
       </c>
       <c r="C35" t="n">
-        <v>5300</v>
+        <v>8297</v>
       </c>
       <c r="D35" t="n">
-        <v>-3792</v>
+        <v>-809</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1181,17 +1181,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1202,13 +1202,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1268,10 +1268,10 @@
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1331,14 +1331,14 @@
         <v>24</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1475,17 +1475,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C50" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1538,17 +1538,17 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1562,10 +1562,10 @@
         <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1583,14 +1583,14 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1604,14 +1604,14 @@
         <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1625,10 +1625,10 @@
         <v>953</v>
       </c>
       <c r="C57" t="n">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1643,17 +1643,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="C58" t="n">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>105</v>
+        <v>-303</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1664,13 +1664,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C59" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="C62" t="n">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="D62" t="n">
-        <v>-17</v>
+        <v>-110</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1790,17 +1790,17 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C65" t="n">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="D65" t="n">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C66" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-17</v>
+        <v>-206</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1877,14 +1877,14 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1979,17 +1979,17 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D74" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2000,17 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="C75" t="n">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>-120</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2210,17 +2210,17 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C85" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D85" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2231,17 +2231,17 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C86" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>-38</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2255,14 +2255,14 @@
         <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3834</v>
+        <v>3710</v>
       </c>
       <c r="C90" t="n">
-        <v>3816</v>
+        <v>2174</v>
       </c>
       <c r="D90" t="n">
-        <v>-18</v>
+        <v>-1536</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         <v>38</v>
       </c>
       <c r="C93" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D93" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C95" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D95" t="n">
-        <v>-21</v>
+        <v>-10</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D97" t="n">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3762</v>
+        <v>3844</v>
       </c>
       <c r="C99" t="n">
-        <v>1935</v>
+        <v>372</v>
       </c>
       <c r="D99" t="n">
-        <v>-1827</v>
+        <v>-3472</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5027</v>
+        <v>4864</v>
       </c>
       <c r="C100" t="n">
-        <v>2410</v>
+        <v>595</v>
       </c>
       <c r="D100" t="n">
-        <v>-2617</v>
+        <v>-4269</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1116</v>
       </c>
       <c r="C101" t="n">
-        <v>660</v>
+        <v>412</v>
       </c>
       <c r="D101" t="n">
-        <v>-456</v>
+        <v>-704</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,14 +2570,14 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2591,10 +2591,10 @@
         <v>766</v>
       </c>
       <c r="C103" t="n">
-        <v>763</v>
+        <v>417</v>
       </c>
       <c r="D103" t="n">
-        <v>-3</v>
+        <v>-349</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2633,10 +2633,10 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5110</v>
+        <v>5081</v>
       </c>
       <c r="C106" t="n">
-        <v>5039</v>
+        <v>3613</v>
       </c>
       <c r="D106" t="n">
-        <v>-71</v>
+        <v>-1468</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2735,13 +2735,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C110" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D110" t="n">
-        <v>-65</v>
+        <v>-44</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2756,17 +2756,17 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C111" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2801,14 +2801,14 @@
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2819,13 +2819,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C114" t="n">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2497</v>
+        <v>2430</v>
       </c>
       <c r="C115" t="n">
-        <v>450</v>
+        <v>1667</v>
       </c>
       <c r="D115" t="n">
-        <v>-2047</v>
+        <v>-763</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2861,17 +2861,17 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2903,17 +2903,17 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C118" t="n">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="D118" t="n">
-        <v>-196</v>
+        <v>13</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2966,13 +2966,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C121" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
-        <v>-19</v>
+        <v>-69</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C122" t="n">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D122" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3050,17 +3050,17 @@
         </is>
       </c>
       <c r="B125" t="n">
+        <v>102</v>
+      </c>
+      <c r="C125" t="n">
         <v>103</v>
       </c>
-      <c r="C125" t="n">
-        <v>102</v>
-      </c>
       <c r="D125" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3071,17 +3071,17 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2125</v>
+        <v>2131</v>
       </c>
       <c r="C126" t="n">
-        <v>2144</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>18</v>
+        <v>-2131</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3155,17 +3155,17 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C130" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>19</v>
+        <v>-105</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3176,13 +3176,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3260,13 +3260,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2106</v>
+        <v>1796</v>
       </c>
       <c r="C135" t="n">
-        <v>1585</v>
+        <v>1772</v>
       </c>
       <c r="D135" t="n">
-        <v>-521</v>
+        <v>-24</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3302,17 +3302,17 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3270</v>
+        <v>3649</v>
       </c>
       <c r="C137" t="n">
-        <v>4932</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>1661</v>
+        <v>-3649</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3323,13 +3323,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C138" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D138" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3344,17 +3344,17 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C139" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>6</v>
+        <v>-197</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3365,17 +3365,17 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C140" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3428,13 +3428,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D143" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3449,17 +3449,17 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>905</v>
+        <v>357</v>
       </c>
       <c r="D144" t="n">
-        <v>97</v>
+        <v>-461</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3515,10 +3515,10 @@
         <v>58</v>
       </c>
       <c r="C147" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D147" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3554,13 +3554,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C149" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D149" t="n">
-        <v>-15</v>
+        <v>-57</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3575,17 +3575,17 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C150" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>98</v>
+        <v>-264</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3596,13 +3596,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C151" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D151" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3620,10 +3620,10 @@
         <v>49</v>
       </c>
       <c r="C152" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3641,14 +3641,14 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="D153" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3680,17 +3680,17 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C155" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>-44</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -491,10 +491,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>-64</v>
+        <v>-68</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,10 +512,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4350</v>
+        <v>4026</v>
       </c>
       <c r="C6" t="n">
-        <v>884</v>
+        <v>452</v>
       </c>
       <c r="D6" t="n">
-        <v>-3466</v>
+        <v>-3574</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>-3</v>
+        <v>-113</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-33</v>
+        <v>-107</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -764,14 +764,14 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>-61</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
         <v>-2</v>
@@ -806,10 +806,10 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C23" t="n">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D23" t="n">
-        <v>-11</v>
+        <v>-72</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956</v>
+        <v>854</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-956</v>
+        <v>-854</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D28" t="n">
-        <v>-358</v>
+        <v>-158</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1079,14 +1079,14 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9106</v>
+        <v>9104</v>
       </c>
       <c r="C35" t="n">
-        <v>8297</v>
+        <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>-809</v>
+        <v>-9014</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D36" t="n">
-        <v>-3</v>
+        <v>-16</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1202,17 +1202,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1268,10 +1268,10 @@
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>24</v>
       </c>
       <c r="C43" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-62</v>
+        <v>-49</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1541,10 +1541,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D53" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1562,10 +1562,10 @@
         <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D54" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C57" t="n">
         <v>954</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="D58" t="n">
-        <v>-303</v>
+        <v>-102</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1664,13 +1664,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-51</v>
+        <v>-46</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="C62" t="n">
-        <v>325</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>-110</v>
+        <v>-385</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1790,17 +1790,17 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C65" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>-278</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-206</v>
+        <v>-151</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1877,14 +1877,14 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D74" t="n">
-        <v>-2</v>
+        <v>-30</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2000,17 +2000,17 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="C75" t="n">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="D75" t="n">
-        <v>-120</v>
+        <v>31</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2192,10 +2192,10 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2210,17 +2210,17 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C85" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>-16</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>-38</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3710</v>
+        <v>3585</v>
       </c>
       <c r="C90" t="n">
         <v>2174</v>
       </c>
       <c r="D90" t="n">
-        <v>-1536</v>
+        <v>-1411</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         <v>38</v>
       </c>
       <c r="C93" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D93" t="n">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C95" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-10</v>
+        <v>-77</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D97" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3844</v>
+        <v>3893</v>
       </c>
       <c r="C99" t="n">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="D99" t="n">
-        <v>-3472</v>
+        <v>-3706</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4864</v>
+        <v>4838</v>
       </c>
       <c r="C100" t="n">
-        <v>595</v>
+        <v>389</v>
       </c>
       <c r="D100" t="n">
-        <v>-4269</v>
+        <v>-4449</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="C101" t="n">
-        <v>412</v>
+        <v>333</v>
       </c>
       <c r="D101" t="n">
-        <v>-704</v>
+        <v>-768</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,14 +2570,14 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2591,10 +2591,10 @@
         <v>766</v>
       </c>
       <c r="C103" t="n">
-        <v>417</v>
+        <v>177</v>
       </c>
       <c r="D103" t="n">
-        <v>-349</v>
+        <v>-589</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5081</v>
+        <v>5067</v>
       </c>
       <c r="C106" t="n">
-        <v>3613</v>
+        <v>2028</v>
       </c>
       <c r="D106" t="n">
-        <v>-1468</v>
+        <v>-3039</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2735,13 +2735,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C110" t="n">
         <v>110</v>
       </c>
       <c r="D110" t="n">
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2756,17 +2756,17 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C111" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2801,14 +2801,14 @@
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2819,17 +2819,17 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C114" t="n">
-        <v>273</v>
+        <v>348</v>
       </c>
       <c r="D114" t="n">
-        <v>-61</v>
+        <v>19</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2430</v>
+        <v>2624</v>
       </c>
       <c r="C115" t="n">
-        <v>1667</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-763</v>
+        <v>-2624</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2864,10 +2864,10 @@
         <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2903,13 +2903,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C118" t="n">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D118" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2966,13 +2966,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D121" t="n">
-        <v>-69</v>
+        <v>-72</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C122" t="n">
         <v>310</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3053,14 +3053,14 @@
         <v>102</v>
       </c>
       <c r="C125" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3071,13 +3071,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2131</v>
+        <v>2146</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1509</v>
       </c>
       <c r="D126" t="n">
-        <v>-2131</v>
+        <v>-637</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>-105</v>
+        <v>-86</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3179,10 +3179,10 @@
         <v>7</v>
       </c>
       <c r="C131" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3260,13 +3260,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1796</v>
+        <v>1772</v>
       </c>
       <c r="C135" t="n">
-        <v>1772</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>-24</v>
+        <v>-1772</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3302,13 +3302,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3649</v>
+        <v>3285</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1095</v>
       </c>
       <c r="D137" t="n">
-        <v>-3649</v>
+        <v>-2190</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>55</v>
       </c>
       <c r="C138" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-17</v>
+        <v>-55</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D139" t="n">
-        <v>-197</v>
+        <v>-184</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3365,13 +3365,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C140" t="n">
         <v>71</v>
       </c>
       <c r="D140" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D143" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>-461</v>
+        <v>-818</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3512,13 +3512,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C147" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D147" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,14 +3536,14 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>-50</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3554,13 +3554,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D149" t="n">
-        <v>-57</v>
+        <v>-15</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3575,17 +3575,17 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="D150" t="n">
-        <v>-264</v>
+        <v>75</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3599,10 +3599,10 @@
         <v>33</v>
       </c>
       <c r="C151" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D151" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3617,17 +3617,17 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C152" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3638,17 +3638,17 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C153" t="n">
-        <v>1467</v>
+        <v>812</v>
       </c>
       <c r="D153" t="n">
-        <v>4</v>
+        <v>-651</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3680,13 +3680,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -659,14 +659,14 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D12" t="n">
-        <v>-113</v>
+        <v>-66</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -932,14 +932,14 @@
         <v>854</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1338</v>
       </c>
       <c r="D24" t="n">
-        <v>-854</v>
+        <v>483</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>338</v>
       </c>
       <c r="C28" t="n">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D28" t="n">
-        <v>-158</v>
+        <v>-131</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9104</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>3283</v>
       </c>
       <c r="D35" t="n">
-        <v>-9014</v>
+        <v>-5821</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>24</v>
       </c>
       <c r="C43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D43" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1478,14 +1478,14 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D50" t="n">
-        <v>-49</v>
+        <v>145</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1520,10 +1520,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1604,14 +1604,14 @@
         <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1730,10 +1730,10 @@
         <v>386</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="D62" t="n">
-        <v>-385</v>
+        <v>-64</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>328</v>
       </c>
       <c r="C65" t="n">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="D65" t="n">
-        <v>-278</v>
+        <v>-64</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D74" t="n">
-        <v>-30</v>
+        <v>-7</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2129,14 +2129,14 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D81" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         <v>38</v>
       </c>
       <c r="C93" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D97" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3893</v>
       </c>
       <c r="C99" t="n">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="D99" t="n">
-        <v>-3706</v>
+        <v>-3655</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4838</v>
       </c>
       <c r="C100" t="n">
-        <v>389</v>
+        <v>712</v>
       </c>
       <c r="D100" t="n">
-        <v>-4449</v>
+        <v>-4126</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1101</v>
       </c>
       <c r="C101" t="n">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="D101" t="n">
-        <v>-768</v>
+        <v>-734</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>766</v>
       </c>
       <c r="C103" t="n">
-        <v>177</v>
+        <v>765</v>
       </c>
       <c r="D103" t="n">
-        <v>-589</v>
+        <v>-1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5067</v>
       </c>
       <c r="C106" t="n">
-        <v>2028</v>
+        <v>2925</v>
       </c>
       <c r="D106" t="n">
-        <v>-3039</v>
+        <v>-2142</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,10 +2696,10 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>2624</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="D115" t="n">
-        <v>-2624</v>
+        <v>-2113</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>250</v>
       </c>
       <c r="C118" t="n">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="D118" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3158,10 +3158,10 @@
         <v>86</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D130" t="n">
-        <v>-86</v>
+        <v>-7</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1772</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>972</v>
       </c>
       <c r="D135" t="n">
-        <v>-1772</v>
+        <v>-800</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3285</v>
       </c>
       <c r="C137" t="n">
-        <v>1095</v>
+        <v>1921</v>
       </c>
       <c r="D137" t="n">
-        <v>-2190</v>
+        <v>-1364</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>55</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D138" t="n">
-        <v>-55</v>
+        <v>-19</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>196</v>
       </c>
       <c r="C139" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D139" t="n">
-        <v>-184</v>
+        <v>-153</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D144" t="n">
-        <v>-818</v>
+        <v>-739</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>33</v>
       </c>
       <c r="C151" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1463</v>
       </c>
       <c r="C153" t="n">
-        <v>812</v>
+        <v>1450</v>
       </c>
       <c r="D153" t="n">
-        <v>-651</v>
+        <v>-13</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -659,10 +659,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="D12" t="n">
-        <v>-66</v>
+        <v>-8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
-        <v>-61</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>338</v>
       </c>
       <c r="C28" t="n">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D28" t="n">
-        <v>-131</v>
+        <v>-118</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9104</v>
       </c>
       <c r="C35" t="n">
-        <v>3283</v>
+        <v>8300</v>
       </c>
       <c r="D35" t="n">
-        <v>-5821</v>
+        <v>-804</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>38</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
-        <v>-38</v>
+        <v>-23</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>77</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
-        <v>-77</v>
+        <v>-65</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2633,14 +2633,14 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2654,10 +2654,10 @@
         <v>5067</v>
       </c>
       <c r="C106" t="n">
-        <v>2925</v>
+        <v>3384</v>
       </c>
       <c r="D106" t="n">
-        <v>-2142</v>
+        <v>-1683</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>250</v>
       </c>
       <c r="C118" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D118" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3158,14 +3158,14 @@
         <v>86</v>
       </c>
       <c r="C130" t="n">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="D130" t="n">
-        <v>-7</v>
+        <v>114</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3263,10 +3263,10 @@
         <v>1772</v>
       </c>
       <c r="C135" t="n">
-        <v>972</v>
+        <v>1579</v>
       </c>
       <c r="D135" t="n">
-        <v>-800</v>
+        <v>-193</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="D144" t="n">
-        <v>-739</v>
+        <v>-583</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D148" t="n">
-        <v>-50</v>
+        <v>-1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4026</v>
       </c>
       <c r="C6" t="n">
-        <v>452</v>
+        <v>1101</v>
       </c>
       <c r="D6" t="n">
-        <v>-3574</v>
+        <v>-2925</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D12" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -743,10 +743,10 @@
         <v>107</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D15" t="n">
-        <v>-107</v>
+        <v>-18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>338</v>
       </c>
       <c r="C28" t="n">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="D28" t="n">
-        <v>-118</v>
+        <v>-97</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9104</v>
       </c>
       <c r="C35" t="n">
-        <v>8300</v>
+        <v>8302</v>
       </c>
       <c r="D35" t="n">
-        <v>-804</v>
+        <v>-802</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1583,14 +1583,14 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1667,10 +1667,10 @@
         <v>46</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>151</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>-151</v>
+        <v>-148</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>270</v>
       </c>
       <c r="C75" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D75" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>77</v>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D95" t="n">
-        <v>-65</v>
+        <v>-24</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D97" t="n">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3893</v>
       </c>
       <c r="C99" t="n">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="D99" t="n">
-        <v>-3655</v>
+        <v>-3635</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4838</v>
       </c>
       <c r="C100" t="n">
-        <v>712</v>
+        <v>1291</v>
       </c>
       <c r="D100" t="n">
-        <v>-4126</v>
+        <v>-3547</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1101</v>
       </c>
       <c r="C101" t="n">
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="D101" t="n">
-        <v>-734</v>
+        <v>-658</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>766</v>
       </c>
       <c r="C103" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5067</v>
       </c>
       <c r="C106" t="n">
-        <v>3384</v>
+        <v>3772</v>
       </c>
       <c r="D106" t="n">
-        <v>-1683</v>
+        <v>-1295</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2864,10 +2864,10 @@
         <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>250</v>
       </c>
       <c r="C118" t="n">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="D118" t="n">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>74</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D121" t="n">
-        <v>-72</v>
+        <v>-70</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3285</v>
       </c>
       <c r="C137" t="n">
-        <v>1921</v>
+        <v>2919</v>
       </c>
       <c r="D137" t="n">
-        <v>-1364</v>
+        <v>-366</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>196</v>
       </c>
       <c r="C139" t="n">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="D139" t="n">
-        <v>-153</v>
+        <v>-88</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>235</v>
+        <v>357</v>
       </c>
       <c r="D144" t="n">
-        <v>-583</v>
+        <v>-461</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4026</v>
       </c>
       <c r="C6" t="n">
-        <v>1101</v>
+        <v>3271</v>
       </c>
       <c r="D6" t="n">
-        <v>-2925</v>
+        <v>-755</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>338</v>
       </c>
       <c r="C28" t="n">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="D28" t="n">
-        <v>-97</v>
+        <v>-47</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>151</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="D66" t="n">
-        <v>-148</v>
+        <v>-6</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D97" t="n">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3893</v>
       </c>
       <c r="C99" t="n">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="D99" t="n">
-        <v>-3635</v>
+        <v>-3618</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4838</v>
       </c>
       <c r="C100" t="n">
-        <v>1291</v>
+        <v>1741</v>
       </c>
       <c r="D100" t="n">
-        <v>-3547</v>
+        <v>-3097</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2591,14 +2591,14 @@
         <v>766</v>
       </c>
       <c r="C103" t="n">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2654,10 +2654,10 @@
         <v>5067</v>
       </c>
       <c r="C106" t="n">
-        <v>3772</v>
+        <v>4623</v>
       </c>
       <c r="D106" t="n">
-        <v>-1295</v>
+        <v>-444</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>250</v>
       </c>
       <c r="C118" t="n">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="D118" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>74</v>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
-        <v>-70</v>
+        <v>-59</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3305,14 +3305,14 @@
         <v>3285</v>
       </c>
       <c r="C137" t="n">
-        <v>2919</v>
+        <v>3645</v>
       </c>
       <c r="D137" t="n">
-        <v>-366</v>
+        <v>359</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3347,14 +3347,14 @@
         <v>196</v>
       </c>
       <c r="C139" t="n">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="D139" t="n">
-        <v>-88</v>
+        <v>8</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>357</v>
+        <v>567</v>
       </c>
       <c r="D144" t="n">
-        <v>-461</v>
+        <v>-251</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>33</v>
       </c>
       <c r="C151" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D151" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3683,10 +3683,10 @@
         <v>43</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D155" t="n">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -932,10 +932,10 @@
         <v>854</v>
       </c>
       <c r="C24" t="n">
-        <v>1338</v>
+        <v>1411</v>
       </c>
       <c r="D24" t="n">
-        <v>483</v>
+        <v>556</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>338</v>
       </c>
       <c r="C28" t="n">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="D28" t="n">
-        <v>-47</v>
+        <v>-18</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1814,14 +1814,14 @@
         <v>151</v>
       </c>
       <c r="C66" t="n">
-        <v>145</v>
+        <v>320</v>
       </c>
       <c r="D66" t="n">
-        <v>-6</v>
+        <v>168</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2171,14 +2171,14 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2528,10 +2528,10 @@
         <v>4838</v>
       </c>
       <c r="C100" t="n">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="D100" t="n">
-        <v>-3097</v>
+        <v>-3095</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5067</v>
       </c>
       <c r="C106" t="n">
-        <v>4623</v>
+        <v>5035</v>
       </c>
       <c r="D106" t="n">
-        <v>-444</v>
+        <v>-32</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3074,10 +3074,10 @@
         <v>2146</v>
       </c>
       <c r="C126" t="n">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="D126" t="n">
-        <v>-637</v>
+        <v>-632</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>567</v>
+        <v>628</v>
       </c>
       <c r="D144" t="n">
-        <v>-251</v>
+        <v>-190</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>33</v>
       </c>
       <c r="C151" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D151" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -491,10 +491,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>-68</v>
+        <v>-67</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,17 +551,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4026</v>
+        <v>4210</v>
       </c>
       <c r="C6" t="n">
-        <v>3271</v>
+        <v>5098</v>
       </c>
       <c r="D6" t="n">
-        <v>-755</v>
+        <v>887</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -656,17 +656,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D12" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C15" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-18</v>
+        <v>-113</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>-61</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -785,10 +785,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -806,10 +806,10 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C23" t="n">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="D23" t="n">
-        <v>-72</v>
+        <v>-22</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -929,17 +929,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="C24" t="n">
-        <v>1411</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>556</v>
+        <v>-878</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -974,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C28" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-18</v>
+        <v>-344</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1079,10 +1079,10 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9104</v>
+        <v>9110</v>
       </c>
       <c r="C35" t="n">
-        <v>8302</v>
+        <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>-802</v>
+        <v>-9020</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1181,17 +1181,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D36" t="n">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1205,10 +1205,10 @@
         <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1268,10 +1268,10 @@
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         <v>125</v>
       </c>
       <c r="C41" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-4</v>
+        <v>-125</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1328,13 +1328,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>-3</v>
+        <v>-48</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1475,17 +1475,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C50" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>145</v>
+        <v>-59</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1520,10 +1520,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D53" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1562,10 +1562,10 @@
         <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1583,14 +1583,14 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1604,14 +1604,14 @@
         <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1643,17 +1643,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C58" t="n">
-        <v>184</v>
+        <v>372</v>
       </c>
       <c r="D58" t="n">
-        <v>-102</v>
+        <v>100</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1664,13 +1664,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-45</v>
+        <v>-42</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C62" t="n">
-        <v>322</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>-64</v>
+        <v>-360</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C65" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-64</v>
+        <v>-325</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,17 +1811,17 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C66" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>168</v>
+        <v>-164</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D74" t="n">
-        <v>-7</v>
+        <v>-36</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>270</v>
       </c>
       <c r="C75" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D75" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2108,14 +2108,14 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2129,14 +2129,14 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2150,14 +2150,14 @@
         <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2192,10 +2192,10 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2210,13 +2210,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-23</v>
+        <v>-32</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2255,14 +2255,14 @@
         <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D87" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3585</v>
+        <v>3459</v>
       </c>
       <c r="C90" t="n">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="D90" t="n">
-        <v>-1411</v>
+        <v>-1283</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" t="n">
         <v>31</v>
       </c>
       <c r="D93" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C95" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-24</v>
+        <v>-70</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C97" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3893</v>
+        <v>3818</v>
       </c>
       <c r="C99" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="D99" t="n">
-        <v>-3618</v>
+        <v>-3578</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4838</v>
+        <v>4683</v>
       </c>
       <c r="C100" t="n">
-        <v>1743</v>
+        <v>629</v>
       </c>
       <c r="D100" t="n">
-        <v>-3095</v>
+        <v>-4054</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1101</v>
+        <v>1049</v>
       </c>
       <c r="C101" t="n">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="D101" t="n">
-        <v>-658</v>
+        <v>-700</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,14 +2570,14 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2588,17 +2588,17 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>782</v>
+        <v>390</v>
       </c>
       <c r="D103" t="n">
-        <v>15</v>
+        <v>-377</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2633,14 +2633,14 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5067</v>
+        <v>5055</v>
       </c>
       <c r="C106" t="n">
-        <v>5035</v>
+        <v>1790</v>
       </c>
       <c r="D106" t="n">
-        <v>-32</v>
+        <v>-3265</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,10 +2696,10 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2735,17 +2735,17 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C110" t="n">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="D110" t="n">
-        <v>-43</v>
+        <v>68</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2801,10 +2801,10 @@
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2819,10 +2819,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C114" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D114" t="n">
         <v>19</v>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2624</v>
+        <v>2486</v>
       </c>
       <c r="C115" t="n">
-        <v>511</v>
+        <v>383</v>
       </c>
       <c r="D115" t="n">
-        <v>-2113</v>
+        <v>-2103</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2864,14 +2864,14 @@
         <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2903,17 +2903,17 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C118" t="n">
-        <v>359</v>
+        <v>189</v>
       </c>
       <c r="D118" t="n">
-        <v>108</v>
+        <v>-76</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2927,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2966,13 +2966,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C121" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-59</v>
+        <v>-65</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C122" t="n">
         <v>310</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3071,17 +3071,17 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2146</v>
+        <v>2087</v>
       </c>
       <c r="C126" t="n">
-        <v>1514</v>
+        <v>2264</v>
       </c>
       <c r="D126" t="n">
-        <v>-632</v>
+        <v>176</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3155,17 +3155,17 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C130" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>114</v>
+        <v>-97</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3179,10 +3179,10 @@
         <v>7</v>
       </c>
       <c r="C131" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3260,13 +3260,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1772</v>
+        <v>1717</v>
       </c>
       <c r="C135" t="n">
-        <v>1579</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>-193</v>
+        <v>-1717</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3302,17 +3302,17 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="C137" t="n">
-        <v>3645</v>
+        <v>281</v>
       </c>
       <c r="D137" t="n">
-        <v>359</v>
+        <v>-3005</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3323,13 +3323,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C138" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-19</v>
+        <v>-54</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3344,17 +3344,17 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>8</v>
+        <v>-198</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3365,17 +3365,17 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C140" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D140" t="n">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D143" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>-190</v>
+        <v>-818</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3512,13 +3512,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C147" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>-10</v>
+        <v>-54</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>-1</v>
+        <v>-50</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3557,10 +3557,10 @@
         <v>58</v>
       </c>
       <c r="C149" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D149" t="n">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>33</v>
       </c>
       <c r="C151" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D151" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C152" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D152" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3638,13 +3638,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1450</v>
+        <v>897</v>
       </c>
       <c r="D153" t="n">
-        <v>-13</v>
+        <v>-565</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3683,10 +3683,10 @@
         <v>43</v>
       </c>
       <c r="C155" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D12" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -785,14 +785,14 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>-24</v>
+        <v>-17</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>-48</v>
+        <v>-41</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1646,10 +1646,10 @@
         <v>271</v>
       </c>
       <c r="C58" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D58" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1730,14 +1730,14 @@
         <v>366</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>518</v>
       </c>
       <c r="D62" t="n">
-        <v>-360</v>
+        <v>151</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1982,14 +1982,14 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D74" t="n">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2129,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2507,10 +2507,10 @@
         <v>3818</v>
       </c>
       <c r="C99" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D99" t="n">
-        <v>-3578</v>
+        <v>-3574</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4683</v>
       </c>
       <c r="C100" t="n">
-        <v>629</v>
+        <v>819</v>
       </c>
       <c r="D100" t="n">
-        <v>-4054</v>
+        <v>-3864</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1049</v>
       </c>
       <c r="C101" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D101" t="n">
-        <v>-700</v>
+        <v>-697</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="D103" t="n">
-        <v>-377</v>
+        <v>-279</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5055</v>
       </c>
       <c r="C106" t="n">
-        <v>1790</v>
+        <v>2236</v>
       </c>
       <c r="D106" t="n">
-        <v>-3265</v>
+        <v>-2819</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>2486</v>
       </c>
       <c r="C115" t="n">
-        <v>383</v>
+        <v>1012</v>
       </c>
       <c r="D115" t="n">
-        <v>-2103</v>
+        <v>-1474</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>265</v>
       </c>
       <c r="C118" t="n">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="D118" t="n">
-        <v>-76</v>
+        <v>-31</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3158,10 +3158,10 @@
         <v>97</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D130" t="n">
-        <v>-97</v>
+        <v>-44</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3286</v>
       </c>
       <c r="C137" t="n">
-        <v>281</v>
+        <v>1225</v>
       </c>
       <c r="D137" t="n">
-        <v>-3005</v>
+        <v>-2061</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>33</v>
       </c>
       <c r="C151" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D151" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -932,14 +932,14 @@
         <v>878</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1102</v>
       </c>
       <c r="D24" t="n">
-        <v>-878</v>
+        <v>223</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1163,10 +1163,10 @@
         <v>9110</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>1461</v>
       </c>
       <c r="D35" t="n">
-        <v>-9020</v>
+        <v>-7649</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D49" t="n">
-        <v>-41</v>
+        <v>-5</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1478,14 +1478,14 @@
         <v>59</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D50" t="n">
-        <v>-59</v>
+        <v>8</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1730,10 +1730,10 @@
         <v>366</v>
       </c>
       <c r="C62" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D62" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>164</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D66" t="n">
-        <v>-164</v>
+        <v>-154</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>32</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>53</v>
       </c>
       <c r="C97" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D97" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3818</v>
       </c>
       <c r="C99" t="n">
-        <v>244</v>
+        <v>499</v>
       </c>
       <c r="D99" t="n">
-        <v>-3574</v>
+        <v>-3319</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4683</v>
       </c>
       <c r="C100" t="n">
-        <v>819</v>
+        <v>978</v>
       </c>
       <c r="D100" t="n">
-        <v>-3864</v>
+        <v>-3705</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1049</v>
       </c>
       <c r="C101" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D101" t="n">
-        <v>-697</v>
+        <v>-696</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>488</v>
+        <v>571</v>
       </c>
       <c r="D103" t="n">
-        <v>-279</v>
+        <v>-196</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5055</v>
       </c>
       <c r="C106" t="n">
-        <v>2236</v>
+        <v>2696</v>
       </c>
       <c r="D106" t="n">
-        <v>-2819</v>
+        <v>-2359</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2843,10 +2843,10 @@
         <v>2486</v>
       </c>
       <c r="C115" t="n">
-        <v>1012</v>
+        <v>1858</v>
       </c>
       <c r="D115" t="n">
-        <v>-1474</v>
+        <v>-628</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>265</v>
       </c>
       <c r="C118" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D118" t="n">
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1717</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>-1717</v>
+        <v>-1714</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3286</v>
       </c>
       <c r="C137" t="n">
-        <v>1225</v>
+        <v>2172</v>
       </c>
       <c r="D137" t="n">
-        <v>-2061</v>
+        <v>-1114</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>54</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D138" t="n">
-        <v>-54</v>
+        <v>-4</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D139" t="n">
-        <v>-198</v>
+        <v>-189</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D143" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D144" t="n">
-        <v>-818</v>
+        <v>-735</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>897</v>
+        <v>1348</v>
       </c>
       <c r="D153" t="n">
-        <v>-565</v>
+        <v>-114</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -764,14 +764,14 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1163,10 +1163,10 @@
         <v>9110</v>
       </c>
       <c r="C35" t="n">
-        <v>1461</v>
+        <v>8312</v>
       </c>
       <c r="D35" t="n">
-        <v>-7649</v>
+        <v>-798</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>164</v>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="D66" t="n">
-        <v>-154</v>
+        <v>-50</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>32</v>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>-28</v>
+        <v>-20</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>70</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D95" t="n">
-        <v>-70</v>
+        <v>-47</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5055</v>
       </c>
       <c r="C106" t="n">
-        <v>2696</v>
+        <v>3123</v>
       </c>
       <c r="D106" t="n">
-        <v>-2359</v>
+        <v>-1932</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2843,14 +2843,14 @@
         <v>2486</v>
       </c>
       <c r="C115" t="n">
-        <v>1858</v>
+        <v>2818</v>
       </c>
       <c r="D115" t="n">
-        <v>-628</v>
+        <v>331</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2906,10 +2906,10 @@
         <v>265</v>
       </c>
       <c r="C118" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D118" t="n">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3305,14 +3305,14 @@
         <v>3286</v>
       </c>
       <c r="C137" t="n">
-        <v>2172</v>
+        <v>4399</v>
       </c>
       <c r="D137" t="n">
-        <v>-1114</v>
+        <v>1112</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="D144" t="n">
-        <v>-735</v>
+        <v>-581</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D148" t="n">
-        <v>-50</v>
+        <v>-1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -743,10 +743,10 @@
         <v>113</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D15" t="n">
-        <v>-113</v>
+        <v>-26</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>344</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>-344</v>
+        <v>-342</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9110</v>
       </c>
       <c r="C35" t="n">
-        <v>8312</v>
+        <v>8497</v>
       </c>
       <c r="D35" t="n">
-        <v>-798</v>
+        <v>-613</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1457,14 +1457,14 @@
         <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D49" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>366</v>
       </c>
       <c r="C62" t="n">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="D62" t="n">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1814,14 +1814,14 @@
         <v>164</v>
       </c>
       <c r="C66" t="n">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="D66" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2423,14 +2423,14 @@
         <v>70</v>
       </c>
       <c r="C95" t="n">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D95" t="n">
-        <v>-47</v>
+        <v>13</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2507,10 +2507,10 @@
         <v>3818</v>
       </c>
       <c r="C99" t="n">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D99" t="n">
-        <v>-3319</v>
+        <v>-3299</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4683</v>
       </c>
       <c r="C100" t="n">
-        <v>978</v>
+        <v>1437</v>
       </c>
       <c r="D100" t="n">
-        <v>-3705</v>
+        <v>-3246</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1049</v>
       </c>
       <c r="C101" t="n">
-        <v>353</v>
+        <v>461</v>
       </c>
       <c r="D101" t="n">
-        <v>-696</v>
+        <v>-588</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>571</v>
+        <v>704</v>
       </c>
       <c r="D103" t="n">
-        <v>-196</v>
+        <v>-63</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5055</v>
       </c>
       <c r="C106" t="n">
-        <v>3123</v>
+        <v>3594</v>
       </c>
       <c r="D106" t="n">
-        <v>-1932</v>
+        <v>-1461</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>65</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>-65</v>
+        <v>-62</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3286</v>
       </c>
       <c r="C137" t="n">
-        <v>4399</v>
+        <v>4759</v>
       </c>
       <c r="D137" t="n">
-        <v>1112</v>
+        <v>1472</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="D139" t="n">
-        <v>-189</v>
+        <v>-7</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3431,14 +3431,14 @@
         <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D143" t="n">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="D144" t="n">
-        <v>-581</v>
+        <v>-460</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3683,10 +3683,10 @@
         <v>43</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D155" t="n">
-        <v>-43</v>
+        <v>-2</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>344</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D28" t="n">
-        <v>-342</v>
+        <v>-300</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9110</v>
       </c>
       <c r="C35" t="n">
-        <v>8497</v>
+        <v>8507</v>
       </c>
       <c r="D35" t="n">
-        <v>-613</v>
+        <v>-603</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D37" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D43" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>366</v>
       </c>
       <c r="C62" t="n">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="D62" t="n">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>325</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="D65" t="n">
-        <v>-325</v>
+        <v>-36</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>53</v>
       </c>
       <c r="C97" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3818</v>
       </c>
       <c r="C99" t="n">
-        <v>519</v>
+        <v>1278</v>
       </c>
       <c r="D99" t="n">
-        <v>-3299</v>
+        <v>-2540</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4683</v>
       </c>
       <c r="C100" t="n">
-        <v>1437</v>
+        <v>1953</v>
       </c>
       <c r="D100" t="n">
-        <v>-3246</v>
+        <v>-2730</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1049</v>
       </c>
       <c r="C101" t="n">
-        <v>461</v>
+        <v>535</v>
       </c>
       <c r="D101" t="n">
-        <v>-588</v>
+        <v>-514</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="D103" t="n">
-        <v>-63</v>
+        <v>-39</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5055</v>
       </c>
       <c r="C106" t="n">
-        <v>3594</v>
+        <v>4456</v>
       </c>
       <c r="D106" t="n">
-        <v>-1461</v>
+        <v>-599</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>265</v>
       </c>
       <c r="C118" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D118" t="n">
-        <v>-28</v>
+        <v>-24</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>65</v>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
-        <v>-62</v>
+        <v>-53</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>358</v>
+        <v>573</v>
       </c>
       <c r="D144" t="n">
-        <v>-460</v>
+        <v>-245</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1348</v>
+        <v>1460</v>
       </c>
       <c r="D153" t="n">
-        <v>-114</v>
+        <v>-2</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4210</v>
       </c>
       <c r="C6" t="n">
-        <v>5098</v>
+        <v>5142</v>
       </c>
       <c r="D6" t="n">
-        <v>887</v>
+        <v>931</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>344</v>
       </c>
       <c r="C28" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D28" t="n">
-        <v>-300</v>
+        <v>-270</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         <v>125</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>-125</v>
+        <v>-120</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1604,10 +1604,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>366</v>
       </c>
       <c r="C62" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D62" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>164</v>
       </c>
       <c r="C66" t="n">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2654,14 +2654,14 @@
         <v>5055</v>
       </c>
       <c r="C106" t="n">
-        <v>4456</v>
+        <v>7929</v>
       </c>
       <c r="D106" t="n">
-        <v>-599</v>
+        <v>2874</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>573</v>
+        <v>629</v>
       </c>
       <c r="D144" t="n">
-        <v>-245</v>
+        <v>-189</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -491,10 +491,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>-67</v>
+        <v>-63</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>344</v>
       </c>
       <c r="C28" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D28" t="n">
-        <v>-270</v>
+        <v>-250</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3818</v>
       </c>
       <c r="C99" t="n">
-        <v>1278</v>
+        <v>1611</v>
       </c>
       <c r="D99" t="n">
-        <v>-2540</v>
+        <v>-2207</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4683</v>
       </c>
       <c r="C100" t="n">
-        <v>1953</v>
+        <v>2392</v>
       </c>
       <c r="D100" t="n">
-        <v>-2730</v>
+        <v>-2291</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1049</v>
       </c>
       <c r="C101" t="n">
-        <v>535</v>
+        <v>806</v>
       </c>
       <c r="D101" t="n">
-        <v>-514</v>
+        <v>-243</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>728</v>
+        <v>764</v>
       </c>
       <c r="D103" t="n">
-        <v>-39</v>
+        <v>-3</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5055</v>
       </c>
       <c r="C106" t="n">
-        <v>7929</v>
+        <v>8172</v>
       </c>
       <c r="D106" t="n">
-        <v>2874</v>
+        <v>3117</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2759,14 +2759,14 @@
         <v>18</v>
       </c>
       <c r="C111" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D111" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3263,14 +3263,14 @@
         <v>1717</v>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>2232</v>
       </c>
       <c r="D135" t="n">
-        <v>-1714</v>
+        <v>514</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>629</v>
+        <v>692</v>
       </c>
       <c r="D144" t="n">
-        <v>-189</v>
+        <v>-126</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>33</v>
       </c>
       <c r="C151" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D151" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>344</v>
       </c>
       <c r="C28" t="n">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D28" t="n">
-        <v>-250</v>
+        <v>-218</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>366</v>
       </c>
       <c r="C62" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D62" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>270</v>
       </c>
       <c r="C75" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D75" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2759,10 +2759,10 @@
         <v>18</v>
       </c>
       <c r="C111" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D111" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2990,10 +2990,10 @@
         <v>308</v>
       </c>
       <c r="C122" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1717</v>
       </c>
       <c r="C135" t="n">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="D135" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>692</v>
+        <v>771</v>
       </c>
       <c r="D144" t="n">
-        <v>-126</v>
+        <v>-47</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -491,10 +491,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-63</v>
+        <v>-64</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,10 +512,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4210</v>
+        <v>4213</v>
       </c>
       <c r="C6" t="n">
-        <v>5142</v>
+        <v>4871</v>
       </c>
       <c r="D6" t="n">
-        <v>931</v>
+        <v>657</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -575,14 +575,14 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C9" t="n">
         <v>54</v>
       </c>
       <c r="D9" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C15" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-26</v>
+        <v>-120</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -764,14 +764,14 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -782,17 +782,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>-14</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -806,10 +806,10 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -908,17 +908,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C23" t="n">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="D23" t="n">
-        <v>-22</v>
+        <v>67</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="C24" t="n">
-        <v>1102</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>223</v>
+        <v>-856</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -974,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C28" t="n">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>-218</v>
+        <v>-334</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1079,14 +1079,14 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9110</v>
+        <v>9129</v>
       </c>
       <c r="C35" t="n">
-        <v>8507</v>
+        <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>-603</v>
+        <v>-9039</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-120</v>
+        <v>-117</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1475,17 +1475,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>-60</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1541,10 +1541,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-5</v>
+        <v>-54</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1559,17 +1559,17 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1604,10 +1604,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="C58" t="n">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D58" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1664,13 +1664,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-42</v>
+        <v>-34</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1727,17 +1727,17 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C62" t="n">
-        <v>571</v>
+        <v>270</v>
       </c>
       <c r="D62" t="n">
-        <v>204</v>
+        <v>-114</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1751,10 +1751,10 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C65" t="n">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-36</v>
+        <v>-318</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,17 +1811,17 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C66" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>13</v>
+        <v>-158</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1982,14 +1982,14 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2000,17 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C75" t="n">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>34</v>
+        <v>-270</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2108,10 +2108,10 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2150,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2171,14 +2171,14 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2213,14 +2213,14 @@
         <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-20</v>
+        <v>-33</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2255,14 +2255,14 @@
         <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3459</v>
+        <v>3334</v>
       </c>
       <c r="C90" t="n">
         <v>2176</v>
       </c>
       <c r="D90" t="n">
-        <v>-1283</v>
+        <v>-1158</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2420,17 +2420,17 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C95" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>13</v>
+        <v>-71</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3818</v>
+        <v>3779</v>
       </c>
       <c r="C99" t="n">
-        <v>1611</v>
+        <v>727</v>
       </c>
       <c r="D99" t="n">
-        <v>-2207</v>
+        <v>-3052</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4683</v>
+        <v>4634</v>
       </c>
       <c r="C100" t="n">
-        <v>2392</v>
+        <v>1192</v>
       </c>
       <c r="D100" t="n">
-        <v>-2291</v>
+        <v>-3442</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1049</v>
+        <v>1081</v>
       </c>
       <c r="C101" t="n">
-        <v>806</v>
+        <v>436</v>
       </c>
       <c r="D101" t="n">
-        <v>-243</v>
+        <v>-645</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>764</v>
+        <v>607</v>
       </c>
       <c r="D103" t="n">
-        <v>-3</v>
+        <v>-160</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5055</v>
+        <v>5296</v>
       </c>
       <c r="C106" t="n">
-        <v>8172</v>
+        <v>5770</v>
       </c>
       <c r="D106" t="n">
-        <v>3117</v>
+        <v>473</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2735,13 +2735,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C110" t="n">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D110" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2756,13 +2756,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C111" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D111" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2801,14 +2801,14 @@
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D113" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2840,17 +2840,17 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2486</v>
+        <v>2613</v>
       </c>
       <c r="C115" t="n">
-        <v>2818</v>
+        <v>944</v>
       </c>
       <c r="D115" t="n">
-        <v>331</v>
+        <v>-1669</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2864,10 +2864,10 @@
         <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2903,13 +2903,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C118" t="n">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D118" t="n">
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2966,13 +2966,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-53</v>
+        <v>-62</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2987,10 +2987,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C122" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
@@ -3071,17 +3071,17 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="C126" t="n">
-        <v>2264</v>
+        <v>321</v>
       </c>
       <c r="D126" t="n">
-        <v>176</v>
+        <v>-1767</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3095,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C130" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>-44</v>
+        <v>-91</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3176,17 +3176,17 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3260,17 +3260,17 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1717</v>
+        <v>1735</v>
       </c>
       <c r="C135" t="n">
-        <v>2233</v>
+        <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>515</v>
+        <v>-1727</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3302,17 +3302,17 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3286</v>
+        <v>3282</v>
       </c>
       <c r="C137" t="n">
-        <v>4759</v>
+        <v>2943</v>
       </c>
       <c r="D137" t="n">
-        <v>1472</v>
+        <v>-339</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3323,13 +3323,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C138" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-4</v>
+        <v>-55</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C139" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>-7</v>
+        <v>-196</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3368,14 +3368,14 @@
         <v>83</v>
       </c>
       <c r="C140" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D140" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3428,13 +3428,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C143" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D143" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>-47</v>
+        <v>-818</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3512,13 +3512,13 @@
         </is>
       </c>
       <c r="B147" t="n">
+        <v>56</v>
+      </c>
+      <c r="C147" t="n">
         <v>54</v>
       </c>
-      <c r="C147" t="n">
-        <v>0</v>
-      </c>
       <c r="D147" t="n">
-        <v>-54</v>
+        <v>-2</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>-1</v>
+        <v>-50</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3557,10 +3557,10 @@
         <v>58</v>
       </c>
       <c r="C149" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D149" t="n">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>240</v>
       </c>
       <c r="C150" t="n">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D150" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3596,13 +3596,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C151" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D151" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3620,14 +3620,14 @@
         <v>49</v>
       </c>
       <c r="C152" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D152" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1460</v>
+        <v>460</v>
       </c>
       <c r="D153" t="n">
-        <v>-2</v>
+        <v>-1002</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3683,10 +3683,10 @@
         <v>43</v>
       </c>
       <c r="C155" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>-2</v>
+        <v>-43</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -785,14 +785,14 @@
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>-14</v>
+        <v>9</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1667,10 +1667,10 @@
         <v>34</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>384</v>
       </c>
       <c r="C62" t="n">
-        <v>270</v>
+        <v>373</v>
       </c>
       <c r="D62" t="n">
-        <v>-114</v>
+        <v>-11</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D74" t="n">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2003,14 +2003,14 @@
         <v>271</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="D75" t="n">
-        <v>-270</v>
+        <v>32</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3779</v>
       </c>
       <c r="C99" t="n">
-        <v>727</v>
+        <v>864</v>
       </c>
       <c r="D99" t="n">
-        <v>-3052</v>
+        <v>-2915</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4634</v>
       </c>
       <c r="C100" t="n">
-        <v>1192</v>
+        <v>1386</v>
       </c>
       <c r="D100" t="n">
-        <v>-3442</v>
+        <v>-3248</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1081</v>
       </c>
       <c r="C101" t="n">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="D101" t="n">
-        <v>-645</v>
+        <v>-631</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>607</v>
+        <v>690</v>
       </c>
       <c r="D103" t="n">
-        <v>-160</v>
+        <v>-77</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5296</v>
       </c>
       <c r="C106" t="n">
-        <v>5770</v>
+        <v>6234</v>
       </c>
       <c r="D106" t="n">
-        <v>473</v>
+        <v>937</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>2613</v>
       </c>
       <c r="C115" t="n">
-        <v>944</v>
+        <v>1846</v>
       </c>
       <c r="D115" t="n">
-        <v>-1669</v>
+        <v>-767</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>266</v>
       </c>
       <c r="C118" t="n">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D118" t="n">
-        <v>-36</v>
+        <v>-22</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3074,14 +3074,14 @@
         <v>2088</v>
       </c>
       <c r="C126" t="n">
-        <v>321</v>
+        <v>2275</v>
       </c>
       <c r="D126" t="n">
-        <v>-1767</v>
+        <v>186</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3158,14 +3158,14 @@
         <v>91</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D130" t="n">
-        <v>-91</v>
+        <v>30</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3305,14 +3305,14 @@
         <v>3282</v>
       </c>
       <c r="C137" t="n">
-        <v>2943</v>
+        <v>4779</v>
       </c>
       <c r="D137" t="n">
-        <v>-339</v>
+        <v>1496</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3599,10 +3599,10 @@
         <v>37</v>
       </c>
       <c r="C151" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>460</v>
+        <v>832</v>
       </c>
       <c r="D153" t="n">
-        <v>-1002</v>
+        <v>-630</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -764,14 +764,14 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -932,14 +932,14 @@
         <v>856</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1078</v>
       </c>
       <c r="D24" t="n">
-        <v>-856</v>
+        <v>221</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>345</v>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D28" t="n">
-        <v>-334</v>
+        <v>-323</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9129</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>3037</v>
       </c>
       <c r="D35" t="n">
-        <v>-9039</v>
+        <v>-6092</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D43" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1478,14 +1478,14 @@
         <v>60</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D50" t="n">
-        <v>-60</v>
+        <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1667,14 +1667,14 @@
         <v>34</v>
       </c>
       <c r="C59" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1814,10 +1814,10 @@
         <v>158</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D66" t="n">
-        <v>-158</v>
+        <v>-136</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D86" t="n">
-        <v>-33</v>
+        <v>-16</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>71</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
-        <v>-71</v>
+        <v>-62</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3779</v>
       </c>
       <c r="C99" t="n">
-        <v>864</v>
+        <v>985</v>
       </c>
       <c r="D99" t="n">
-        <v>-2915</v>
+        <v>-2794</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4634</v>
       </c>
       <c r="C100" t="n">
-        <v>1386</v>
+        <v>1573</v>
       </c>
       <c r="D100" t="n">
-        <v>-3248</v>
+        <v>-3061</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1081</v>
       </c>
       <c r="C101" t="n">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="D101" t="n">
-        <v>-631</v>
+        <v>-576</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>690</v>
+        <v>738</v>
       </c>
       <c r="D103" t="n">
-        <v>-77</v>
+        <v>-29</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2633,10 +2633,10 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5296</v>
       </c>
       <c r="C106" t="n">
-        <v>6234</v>
+        <v>7169</v>
       </c>
       <c r="D106" t="n">
-        <v>937</v>
+        <v>1872</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2843,10 +2843,10 @@
         <v>2613</v>
       </c>
       <c r="C115" t="n">
-        <v>1846</v>
+        <v>2439</v>
       </c>
       <c r="D115" t="n">
-        <v>-767</v>
+        <v>-174</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>266</v>
       </c>
       <c r="C118" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D118" t="n">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>55</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D138" t="n">
-        <v>-55</v>
+        <v>-22</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3347,14 +3347,14 @@
         <v>196</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="D139" t="n">
-        <v>-196</v>
+        <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="D144" t="n">
-        <v>-818</v>
+        <v>-588</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D148" t="n">
-        <v>-50</v>
+        <v>-1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>832</v>
+        <v>1111</v>
       </c>
       <c r="D153" t="n">
-        <v>-630</v>
+        <v>-351</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4213</v>
       </c>
       <c r="C6" t="n">
-        <v>4871</v>
+        <v>4876</v>
       </c>
       <c r="D6" t="n">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -743,10 +743,10 @@
         <v>120</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D15" t="n">
-        <v>-120</v>
+        <v>-32</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>345</v>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D28" t="n">
-        <v>-323</v>
+        <v>-291</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9129</v>
       </c>
       <c r="C35" t="n">
-        <v>3037</v>
+        <v>8327</v>
       </c>
       <c r="D35" t="n">
-        <v>-6092</v>
+        <v>-802</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1541,10 +1541,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D53" t="n">
-        <v>-54</v>
+        <v>-13</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1667,10 +1667,10 @@
         <v>34</v>
       </c>
       <c r="C59" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D59" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>318</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="D65" t="n">
-        <v>-318</v>
+        <v>-29</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>158</v>
       </c>
       <c r="C66" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>-136</v>
+        <v>-123</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>71</v>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D95" t="n">
-        <v>-62</v>
+        <v>-12</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3779</v>
       </c>
       <c r="C99" t="n">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="D99" t="n">
-        <v>-2794</v>
+        <v>-2775</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4634</v>
       </c>
       <c r="C100" t="n">
-        <v>1573</v>
+        <v>2152</v>
       </c>
       <c r="D100" t="n">
-        <v>-3061</v>
+        <v>-2482</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1081</v>
       </c>
       <c r="C101" t="n">
-        <v>505</v>
+        <v>578</v>
       </c>
       <c r="D101" t="n">
-        <v>-576</v>
+        <v>-503</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>767</v>
       </c>
       <c r="C103" t="n">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="D103" t="n">
-        <v>-29</v>
+        <v>-1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5296</v>
       </c>
       <c r="C106" t="n">
-        <v>7169</v>
+        <v>7603</v>
       </c>
       <c r="D106" t="n">
-        <v>1872</v>
+        <v>2306</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>62</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
-        <v>-62</v>
+        <v>-50</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>230</v>
+        <v>354</v>
       </c>
       <c r="D144" t="n">
-        <v>-588</v>
+        <v>-464</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3641,14 +3641,14 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1111</v>
+        <v>1464</v>
       </c>
       <c r="D153" t="n">
-        <v>-351</v>
+        <v>1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3683,14 +3683,14 @@
         <v>43</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D155" t="n">
-        <v>-43</v>
+        <v>1</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>345</v>
       </c>
       <c r="C28" t="n">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D28" t="n">
-        <v>-291</v>
+        <v>-242</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9129</v>
       </c>
       <c r="C35" t="n">
-        <v>8327</v>
+        <v>8369</v>
       </c>
       <c r="D35" t="n">
-        <v>-802</v>
+        <v>-760</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>384</v>
       </c>
       <c r="C62" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D62" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>158</v>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D66" t="n">
-        <v>-123</v>
+        <v>-79</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D97" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3779</v>
       </c>
       <c r="C99" t="n">
-        <v>1004</v>
+        <v>1854</v>
       </c>
       <c r="D99" t="n">
-        <v>-2775</v>
+        <v>-1925</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4634</v>
       </c>
       <c r="C100" t="n">
-        <v>2152</v>
+        <v>2582</v>
       </c>
       <c r="D100" t="n">
-        <v>-2482</v>
+        <v>-2052</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1081</v>
       </c>
       <c r="C101" t="n">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D101" t="n">
-        <v>-503</v>
+        <v>-497</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5296</v>
       </c>
       <c r="C106" t="n">
-        <v>7603</v>
+        <v>8486</v>
       </c>
       <c r="D106" t="n">
-        <v>2306</v>
+        <v>3189</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1735</v>
       </c>
       <c r="C135" t="n">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="D135" t="n">
-        <v>-1727</v>
+        <v>-1578</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>354</v>
+        <v>566</v>
       </c>
       <c r="D144" t="n">
-        <v>-464</v>
+        <v>-252</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>56</v>
       </c>
       <c r="C147" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D147" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>345</v>
       </c>
       <c r="C28" t="n">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D28" t="n">
-        <v>-242</v>
+        <v>-219</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9129</v>
       </c>
       <c r="C35" t="n">
-        <v>8369</v>
+        <v>8446</v>
       </c>
       <c r="D35" t="n">
-        <v>-760</v>
+        <v>-683</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1814,14 +1814,14 @@
         <v>158</v>
       </c>
       <c r="C66" t="n">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="D66" t="n">
-        <v>-79</v>
+        <v>24</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2234,10 +2234,10 @@
         <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D86" t="n">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5296</v>
       </c>
       <c r="C106" t="n">
-        <v>8486</v>
+        <v>8757</v>
       </c>
       <c r="D106" t="n">
-        <v>3189</v>
+        <v>3460</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3263,14 +3263,14 @@
         <v>1735</v>
       </c>
       <c r="C135" t="n">
-        <v>157</v>
+        <v>1831</v>
       </c>
       <c r="D135" t="n">
-        <v>-1578</v>
+        <v>95</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>566</v>
+        <v>625</v>
       </c>
       <c r="D144" t="n">
-        <v>-252</v>
+        <v>-193</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>240</v>
       </c>
       <c r="C150" t="n">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D150" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4213</v>
       </c>
       <c r="C6" t="n">
-        <v>4876</v>
+        <v>4899</v>
       </c>
       <c r="D6" t="n">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>345</v>
       </c>
       <c r="C28" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D28" t="n">
-        <v>-219</v>
+        <v>-195</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>158</v>
       </c>
       <c r="C66" t="n">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="D66" t="n">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2318,10 +2318,10 @@
         <v>3334</v>
       </c>
       <c r="C90" t="n">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="D90" t="n">
-        <v>-1158</v>
+        <v>-1157</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D97" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3779</v>
       </c>
       <c r="C99" t="n">
-        <v>1854</v>
+        <v>2306</v>
       </c>
       <c r="D99" t="n">
-        <v>-1925</v>
+        <v>-1473</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4634</v>
       </c>
       <c r="C100" t="n">
-        <v>2582</v>
+        <v>3139</v>
       </c>
       <c r="D100" t="n">
-        <v>-2052</v>
+        <v>-1495</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1081</v>
       </c>
       <c r="C101" t="n">
-        <v>584</v>
+        <v>721</v>
       </c>
       <c r="D101" t="n">
-        <v>-497</v>
+        <v>-360</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5296</v>
       </c>
       <c r="C106" t="n">
-        <v>8757</v>
+        <v>8759</v>
       </c>
       <c r="D106" t="n">
-        <v>3460</v>
+        <v>3462</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2969,14 +2969,14 @@
         <v>62</v>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="D121" t="n">
-        <v>-50</v>
+        <v>82</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>625</v>
+        <v>691</v>
       </c>
       <c r="D144" t="n">
-        <v>-193</v>
+        <v>-127</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D12" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>345</v>
       </c>
       <c r="C28" t="n">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="D28" t="n">
-        <v>-195</v>
+        <v>-169</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3305,10 +3305,10 @@
         <v>3282</v>
       </c>
       <c r="C137" t="n">
-        <v>4779</v>
+        <v>4785</v>
       </c>
       <c r="D137" t="n">
-        <v>1496</v>
+        <v>1502</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>691</v>
+        <v>784</v>
       </c>
       <c r="D144" t="n">
-        <v>-127</v>
+        <v>-34</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3515,14 +3515,14 @@
         <v>56</v>
       </c>
       <c r="C147" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D147" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -3578,10 +3578,10 @@
         <v>240</v>
       </c>
       <c r="C150" t="n">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="D150" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -491,10 +491,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>-64</v>
+        <v>-65</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,14 +512,14 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4213</v>
+        <v>4199</v>
       </c>
       <c r="C6" t="n">
-        <v>4899</v>
+        <v>3216</v>
       </c>
       <c r="D6" t="n">
-        <v>685</v>
+        <v>-983</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -575,14 +575,14 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -617,10 +617,10 @@
         <v>64</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C10" t="n">
         <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>-55</v>
+        <v>-26</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D12" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C15" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-32</v>
+        <v>-127</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -764,14 +764,14 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -785,14 +785,14 @@
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>-14</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -908,17 +908,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C23" t="n">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="D23" t="n">
-        <v>67</v>
+        <v>-25</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C24" t="n">
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>221</v>
+        <v>-852</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -974,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>-16</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-169</v>
+        <v>-357</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1079,10 +1079,10 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9129</v>
+        <v>9150</v>
       </c>
       <c r="C35" t="n">
-        <v>8446</v>
+        <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>-683</v>
+        <v>-9060</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1184,14 +1184,14 @@
         <v>36</v>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1202,17 +1202,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1265,17 +1265,17 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-117</v>
+        <v>-105</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>-26</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1454,17 +1454,17 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>-39</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1475,17 +1475,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>-61</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-13</v>
+        <v>-53</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1562,10 +1562,10 @@
         <v>21</v>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1643,17 +1643,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="C58" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>105</v>
+        <v>-271</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1664,17 +1664,17 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C59" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>49</v>
+        <v>-37</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1709,14 +1709,14 @@
         <v>6</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C62" t="n">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-10</v>
+        <v>-382</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C65" t="n">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-29</v>
+        <v>-315</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,17 +1811,17 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C66" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>108</v>
+        <v>-160</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1877,14 +1877,14 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-56</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2003,14 +2003,14 @@
         <v>271</v>
       </c>
       <c r="C75" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>32</v>
+        <v>-271</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2108,10 +2108,10 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2210,17 +2210,17 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C85" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D85" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C86" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-8</v>
+        <v>-34</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2255,14 +2255,14 @@
         <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3334</v>
+        <v>3209</v>
       </c>
       <c r="C90" t="n">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="D90" t="n">
-        <v>-1157</v>
+        <v>-1035</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         <v>37</v>
       </c>
       <c r="C93" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-12</v>
+        <v>-67</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D97" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3779</v>
+        <v>3804</v>
       </c>
       <c r="C99" t="n">
-        <v>2306</v>
+        <v>438</v>
       </c>
       <c r="D99" t="n">
-        <v>-1473</v>
+        <v>-3366</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4634</v>
+        <v>4665</v>
       </c>
       <c r="C100" t="n">
-        <v>3139</v>
+        <v>780</v>
       </c>
       <c r="D100" t="n">
-        <v>-1495</v>
+        <v>-3885</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C101" t="n">
-        <v>721</v>
+        <v>380</v>
       </c>
       <c r="D101" t="n">
-        <v>-360</v>
+        <v>-699</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2588,13 +2588,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C103" t="n">
-        <v>766</v>
+        <v>341</v>
       </c>
       <c r="D103" t="n">
-        <v>-1</v>
+        <v>-430</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2630,13 +2630,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2651,17 +2651,17 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5296</v>
+        <v>5582</v>
       </c>
       <c r="C106" t="n">
-        <v>8759</v>
+        <v>2693</v>
       </c>
       <c r="D106" t="n">
-        <v>3462</v>
+        <v>-2889</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2735,17 +2735,17 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C110" t="n">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D110" t="n">
-        <v>50</v>
+        <v>-66</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2756,17 +2756,17 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2801,14 +2801,14 @@
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2819,17 +2819,17 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C114" t="n">
-        <v>347</v>
+        <v>31</v>
       </c>
       <c r="D114" t="n">
-        <v>19</v>
+        <v>-297</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2613</v>
+        <v>2513</v>
       </c>
       <c r="C115" t="n">
-        <v>2439</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-174</v>
+        <v>-2513</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2864,14 +2864,14 @@
         <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2906,10 +2906,10 @@
         <v>266</v>
       </c>
       <c r="C118" t="n">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="D118" t="n">
-        <v>-20</v>
+        <v>-91</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2966,17 +2966,17 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C121" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>82</v>
+        <v>-69</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C122" t="n">
         <v>310</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3053,14 +3053,14 @@
         <v>102</v>
       </c>
       <c r="C125" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3071,17 +3071,17 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2088</v>
+        <v>2093</v>
       </c>
       <c r="C126" t="n">
-        <v>2275</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>186</v>
+        <v>-2093</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3095,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3155,17 +3155,17 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C130" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>30</v>
+        <v>-95</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3179,14 @@
         <v>8</v>
       </c>
       <c r="C131" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3260,17 +3260,17 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="C135" t="n">
-        <v>1831</v>
+        <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>95</v>
+        <v>-1716</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3302,17 +3302,17 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3282</v>
+        <v>3277</v>
       </c>
       <c r="C137" t="n">
-        <v>4785</v>
+        <v>836</v>
       </c>
       <c r="D137" t="n">
-        <v>1502</v>
+        <v>-2441</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3323,13 +3323,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C138" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-22</v>
+        <v>-53</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3347,14 +3347,14 @@
         <v>196</v>
       </c>
       <c r="C139" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>-196</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3365,17 +3365,17 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C140" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D140" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3431,14 +3431,14 @@
         <v>28</v>
       </c>
       <c r="C143" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>784</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>-34</v>
+        <v>-819</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3512,17 +3512,17 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C147" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>-1</v>
+        <v>-50</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3557,10 +3557,10 @@
         <v>58</v>
       </c>
       <c r="C149" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D149" t="n">
-        <v>-17</v>
+        <v>-22</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C150" t="n">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="D150" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3596,17 +3596,17 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C151" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D151" t="n">
-        <v>17</v>
+        <v>-20</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C152" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D152" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3641,14 +3641,14 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1464</v>
+        <v>183</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>-1279</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3680,17 +3680,17 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C155" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>-35</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -512,14 +512,14 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
         <v>4199</v>
       </c>
       <c r="C6" t="n">
-        <v>3216</v>
+        <v>4707</v>
       </c>
       <c r="D6" t="n">
-        <v>-983</v>
+        <v>507</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -932,14 +932,14 @@
         <v>852</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1085</v>
       </c>
       <c r="D24" t="n">
-        <v>-852</v>
+        <v>232</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -974,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>-357</v>
+        <v>-351</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1163,10 +1163,10 @@
         <v>9150</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D35" t="n">
-        <v>-9060</v>
+        <v>-9058</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
-        <v>-36</v>
+        <v>-2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>-26</v>
+        <v>-14</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>58</v>
       </c>
       <c r="C49" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D49" t="n">
-        <v>-39</v>
+        <v>-5</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1478,14 +1478,14 @@
         <v>61</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D50" t="n">
-        <v>-61</v>
+        <v>6</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1667,14 +1667,14 @@
         <v>37</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D59" t="n">
-        <v>-37</v>
+        <v>11</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1730,10 +1730,10 @@
         <v>382</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="D62" t="n">
-        <v>-382</v>
+        <v>-4</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1751,10 +1751,10 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D63" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>315</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="D65" t="n">
-        <v>-315</v>
+        <v>-39</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1877,14 +1877,14 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D74" t="n">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2003,14 +2003,14 @@
         <v>271</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="D75" t="n">
-        <v>-271</v>
+        <v>33</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D81" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2318,10 +2318,10 @@
         <v>3209</v>
       </c>
       <c r="C90" t="n">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="D90" t="n">
-        <v>-1035</v>
+        <v>-1033</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         <v>37</v>
       </c>
       <c r="C93" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3804</v>
       </c>
       <c r="C99" t="n">
-        <v>438</v>
+        <v>776</v>
       </c>
       <c r="D99" t="n">
-        <v>-3366</v>
+        <v>-3028</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4665</v>
       </c>
       <c r="C100" t="n">
-        <v>780</v>
+        <v>1269</v>
       </c>
       <c r="D100" t="n">
-        <v>-3885</v>
+        <v>-3396</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1079</v>
       </c>
       <c r="C101" t="n">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="D101" t="n">
-        <v>-699</v>
+        <v>-630</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>771</v>
       </c>
       <c r="C103" t="n">
-        <v>341</v>
+        <v>754</v>
       </c>
       <c r="D103" t="n">
-        <v>-430</v>
+        <v>-17</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5582</v>
       </c>
       <c r="C106" t="n">
-        <v>2693</v>
+        <v>4304</v>
       </c>
       <c r="D106" t="n">
-        <v>-2889</v>
+        <v>-1278</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2822,14 +2822,14 @@
         <v>328</v>
       </c>
       <c r="C114" t="n">
-        <v>31</v>
+        <v>339</v>
       </c>
       <c r="D114" t="n">
-        <v>-297</v>
+        <v>10</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2843,10 +2843,10 @@
         <v>2513</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>2437</v>
       </c>
       <c r="D115" t="n">
-        <v>-2513</v>
+        <v>-76</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>266</v>
       </c>
       <c r="C118" t="n">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="D118" t="n">
-        <v>-91</v>
+        <v>-35</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3074,14 +3074,14 @@
         <v>2093</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="D126" t="n">
-        <v>-2093</v>
+        <v>36</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3158,14 +3158,14 @@
         <v>95</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D130" t="n">
-        <v>-95</v>
+        <v>1</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3263,10 +3263,10 @@
         <v>1722</v>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D135" t="n">
-        <v>-1716</v>
+        <v>-1693</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3277</v>
       </c>
       <c r="C137" t="n">
-        <v>836</v>
+        <v>2155</v>
       </c>
       <c r="D137" t="n">
-        <v>-2441</v>
+        <v>-1122</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>53</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D138" t="n">
-        <v>-53</v>
+        <v>-16</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D144" t="n">
-        <v>-819</v>
+        <v>-644</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>55</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D147" t="n">
-        <v>-55</v>
+        <v>-7</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,14 +3536,14 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D148" t="n">
-        <v>-50</v>
+        <v>1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3557,10 +3557,10 @@
         <v>58</v>
       </c>
       <c r="C149" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D149" t="n">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>242</v>
       </c>
       <c r="C150" t="n">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D150" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3599,14 +3599,14 @@
         <v>40</v>
       </c>
       <c r="C151" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D151" t="n">
-        <v>-20</v>
+        <v>13</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>183</v>
+        <v>1296</v>
       </c>
       <c r="D153" t="n">
-        <v>-1279</v>
+        <v>-166</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>-351</v>
+        <v>-349</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9150</v>
       </c>
       <c r="C35" t="n">
-        <v>92</v>
+        <v>1219</v>
       </c>
       <c r="D35" t="n">
-        <v>-9058</v>
+        <v>-7931</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1730,14 +1730,14 @@
         <v>382</v>
       </c>
       <c r="C62" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D62" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2654,10 +2654,10 @@
         <v>5582</v>
       </c>
       <c r="C106" t="n">
-        <v>4304</v>
+        <v>4363</v>
       </c>
       <c r="D106" t="n">
-        <v>-1278</v>
+        <v>-1219</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D144" t="n">
-        <v>-644</v>
+        <v>-625</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -764,14 +764,14 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
-        <v>-61</v>
+        <v>3</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
-        <v>-349</v>
+        <v>-326</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9150</v>
       </c>
       <c r="C35" t="n">
-        <v>1219</v>
+        <v>8344</v>
       </c>
       <c r="D35" t="n">
-        <v>-7931</v>
+        <v>-806</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>271</v>
       </c>
       <c r="C75" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D75" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>34</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D95" t="n">
-        <v>-67</v>
+        <v>-4</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D97" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>771</v>
       </c>
       <c r="C103" t="n">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="D103" t="n">
-        <v>-17</v>
+        <v>-3</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,14 +2654,14 @@
         <v>5582</v>
       </c>
       <c r="C106" t="n">
-        <v>4363</v>
+        <v>5838</v>
       </c>
       <c r="D106" t="n">
-        <v>-1219</v>
+        <v>255</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2969,10 +2969,10 @@
         <v>69</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D121" t="n">
-        <v>-69</v>
+        <v>-50</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1722</v>
       </c>
       <c r="C135" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D135" t="n">
-        <v>-1693</v>
+        <v>-1689</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,14 +3305,14 @@
         <v>3277</v>
       </c>
       <c r="C137" t="n">
-        <v>2155</v>
+        <v>3279</v>
       </c>
       <c r="D137" t="n">
-        <v>-1122</v>
+        <v>1</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3347,10 +3347,10 @@
         <v>196</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D139" t="n">
-        <v>-196</v>
+        <v>-41</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>194</v>
+        <v>358</v>
       </c>
       <c r="D144" t="n">
-        <v>-625</v>
+        <v>-461</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>242</v>
       </c>
       <c r="C150" t="n">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="D150" t="n">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1296</v>
+        <v>1459</v>
       </c>
       <c r="D153" t="n">
-        <v>-166</v>
+        <v>-3</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
         <v>35</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D155" t="n">
-        <v>-35</v>
+        <v>1</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4199</v>
       </c>
       <c r="C6" t="n">
-        <v>4707</v>
+        <v>4711</v>
       </c>
       <c r="D6" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -785,14 +785,14 @@
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -932,10 +932,10 @@
         <v>852</v>
       </c>
       <c r="C24" t="n">
-        <v>1085</v>
+        <v>1126</v>
       </c>
       <c r="D24" t="n">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D28" t="n">
-        <v>-326</v>
+        <v>-269</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9150</v>
       </c>
       <c r="C35" t="n">
-        <v>8344</v>
+        <v>8383</v>
       </c>
       <c r="D35" t="n">
-        <v>-806</v>
+        <v>-767</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         <v>105</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1541,14 +1541,14 @@
         <v>53</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D53" t="n">
-        <v>-53</v>
+        <v>5</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1667,10 +1667,10 @@
         <v>37</v>
       </c>
       <c r="C59" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>271</v>
       </c>
       <c r="C75" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D75" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3804</v>
       </c>
       <c r="C99" t="n">
-        <v>776</v>
+        <v>1635</v>
       </c>
       <c r="D99" t="n">
-        <v>-3028</v>
+        <v>-2169</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4665</v>
       </c>
       <c r="C100" t="n">
-        <v>1269</v>
+        <v>2292</v>
       </c>
       <c r="D100" t="n">
-        <v>-3396</v>
+        <v>-2373</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1079</v>
       </c>
       <c r="C101" t="n">
-        <v>449</v>
+        <v>587</v>
       </c>
       <c r="D101" t="n">
-        <v>-630</v>
+        <v>-492</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5582</v>
       </c>
       <c r="C106" t="n">
-        <v>5838</v>
+        <v>8335</v>
       </c>
       <c r="D106" t="n">
-        <v>255</v>
+        <v>2752</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>266</v>
       </c>
       <c r="C118" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D118" t="n">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>69</v>
       </c>
       <c r="C121" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D121" t="n">
-        <v>-50</v>
+        <v>-21</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3277</v>
       </c>
       <c r="C137" t="n">
-        <v>3279</v>
+        <v>4932</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>1654</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3347,14 +3347,14 @@
         <v>196</v>
       </c>
       <c r="C139" t="n">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="D139" t="n">
-        <v>-41</v>
+        <v>4</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>358</v>
+        <v>573</v>
       </c>
       <c r="D144" t="n">
-        <v>-461</v>
+        <v>-246</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>40</v>
       </c>
       <c r="C151" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3683,10 +3683,10 @@
         <v>35</v>
       </c>
       <c r="C155" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="D28" t="n">
-        <v>-269</v>
+        <v>-208</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9150</v>
       </c>
       <c r="C35" t="n">
-        <v>8383</v>
+        <v>8384</v>
       </c>
       <c r="D35" t="n">
-        <v>-767</v>
+        <v>-766</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         <v>105</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>-104</v>
+        <v>-101</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D97" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3804</v>
       </c>
       <c r="C99" t="n">
-        <v>1635</v>
+        <v>2085</v>
       </c>
       <c r="D99" t="n">
-        <v>-2169</v>
+        <v>-1719</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4665</v>
       </c>
       <c r="C100" t="n">
-        <v>2292</v>
+        <v>2894</v>
       </c>
       <c r="D100" t="n">
-        <v>-2373</v>
+        <v>-1771</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1079</v>
       </c>
       <c r="C101" t="n">
-        <v>587</v>
+        <v>695</v>
       </c>
       <c r="D101" t="n">
-        <v>-492</v>
+        <v>-384</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5582</v>
       </c>
       <c r="C106" t="n">
-        <v>8335</v>
+        <v>8772</v>
       </c>
       <c r="D106" t="n">
-        <v>2752</v>
+        <v>3189</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>2513</v>
       </c>
       <c r="C115" t="n">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="D115" t="n">
-        <v>-76</v>
+        <v>-75</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>69</v>
       </c>
       <c r="C121" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D121" t="n">
-        <v>-21</v>
+        <v>-14</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3263,14 +3263,14 @@
         <v>1722</v>
       </c>
       <c r="C135" t="n">
-        <v>33</v>
+        <v>1953</v>
       </c>
       <c r="D135" t="n">
-        <v>-1689</v>
+        <v>230</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>573</v>
+        <v>691</v>
       </c>
       <c r="D144" t="n">
-        <v>-246</v>
+        <v>-128</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>40</v>
       </c>
       <c r="C151" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D151" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D28" t="n">
-        <v>-208</v>
+        <v>-183</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>691</v>
+        <v>769</v>
       </c>
       <c r="D144" t="n">
-        <v>-128</v>
+        <v>-50</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-65</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -509,17 +509,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4199</v>
+        <v>4182</v>
       </c>
       <c r="C6" t="n">
-        <v>4711</v>
+        <v>2839</v>
       </c>
       <c r="D6" t="n">
-        <v>511</v>
+        <v>-1343</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -617,10 +617,10 @@
         <v>64</v>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-127</v>
+        <v>-97</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -761,17 +761,17 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>-62</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -785,14 +785,14 @@
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C23" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D23" t="n">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -929,17 +929,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C24" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>273</v>
+        <v>-849</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-183</v>
+        <v>-357</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1079,10 +1079,10 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9150</v>
+        <v>9137</v>
       </c>
       <c r="C35" t="n">
-        <v>8384</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>-766</v>
+        <v>-9134</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1181,17 +1181,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1205,10 +1205,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1265,17 +1265,17 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C40" t="n">
         <v>99</v>
       </c>
       <c r="D40" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1286,17 +1286,17 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D41" t="n">
-        <v>-101</v>
+        <v>23</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>-21</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D49" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1475,17 +1475,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>-62</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1520,10 +1520,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1559,17 +1559,17 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1601,17 +1601,17 @@
         </is>
       </c>
       <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
         <v>4</v>
       </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
       <c r="D56" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C57" t="n">
         <v>954</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1643,17 +1643,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="D58" t="n">
-        <v>-271</v>
+        <v>118</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1664,17 +1664,17 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C59" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>-43</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1727,17 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C62" t="n">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>-385</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1751,10 +1751,10 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C65" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-39</v>
+        <v>-310</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-160</v>
+        <v>-159</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-53</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2003,14 +2003,14 @@
         <v>271</v>
       </c>
       <c r="C75" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>38</v>
+        <v>-271</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
         <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2213,10 +2213,10 @@
         <v>47</v>
       </c>
       <c r="C85" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-23</v>
+        <v>-33</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2255,14 +2255,14 @@
         <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3209</v>
+        <v>3082</v>
       </c>
       <c r="C90" t="n">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="D90" t="n">
-        <v>-1033</v>
+        <v>-908</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-4</v>
+        <v>-67</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3804</v>
+        <v>3800</v>
       </c>
       <c r="C99" t="n">
-        <v>2085</v>
+        <v>462</v>
       </c>
       <c r="D99" t="n">
-        <v>-1719</v>
+        <v>-3338</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4665</v>
+        <v>4664</v>
       </c>
       <c r="C100" t="n">
-        <v>2894</v>
+        <v>887</v>
       </c>
       <c r="D100" t="n">
-        <v>-1771</v>
+        <v>-3777</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="C101" t="n">
-        <v>695</v>
+        <v>376</v>
       </c>
       <c r="D101" t="n">
-        <v>-384</v>
+        <v>-693</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>771</v>
       </c>
       <c r="C103" t="n">
-        <v>768</v>
+        <v>446</v>
       </c>
       <c r="D103" t="n">
-        <v>-3</v>
+        <v>-325</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2630,13 +2630,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2651,17 +2651,17 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5582</v>
+        <v>5853</v>
       </c>
       <c r="C106" t="n">
-        <v>8772</v>
+        <v>1872</v>
       </c>
       <c r="D106" t="n">
-        <v>3189</v>
+        <v>-3981</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2738,10 +2738,10 @@
         <v>152</v>
       </c>
       <c r="C110" t="n">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D110" t="n">
-        <v>-66</v>
+        <v>-46</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2759,10 +2759,10 @@
         <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D111" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2822,14 +2822,14 @@
         <v>328</v>
       </c>
       <c r="C114" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>10</v>
+        <v>-328</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2513</v>
+        <v>2612</v>
       </c>
       <c r="C115" t="n">
-        <v>2438</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-75</v>
+        <v>-2612</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2864,14 +2864,14 @@
         <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2885,14 +2885,14 @@
         <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2906,10 +2906,10 @@
         <v>266</v>
       </c>
       <c r="C118" t="n">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="D118" t="n">
-        <v>-32</v>
+        <v>-65</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2966,13 +2966,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C121" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-14</v>
+        <v>-67</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3053,14 +3053,14 @@
         <v>102</v>
       </c>
       <c r="C125" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3071,17 +3071,17 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="C126" t="n">
-        <v>2130</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>36</v>
+        <v>-2090</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3092,17 +3092,17 @@
         </is>
       </c>
       <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
         <v>1</v>
       </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
       <c r="D127" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3155,17 +3155,17 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C130" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>-90</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="C131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3260,17 +3260,17 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1722</v>
+        <v>1750</v>
       </c>
       <c r="C135" t="n">
-        <v>1953</v>
+        <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>230</v>
+        <v>-1744</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3302,17 +3302,17 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="C137" t="n">
-        <v>4932</v>
+        <v>853</v>
       </c>
       <c r="D137" t="n">
-        <v>1654</v>
+        <v>-2423</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3323,13 +3323,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C138" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-16</v>
+        <v>-41</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3344,17 +3344,17 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C139" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>-197</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3368,10 +3368,10 @@
         <v>82</v>
       </c>
       <c r="C140" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D140" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3431,10 +3431,10 @@
         <v>28</v>
       </c>
       <c r="C143" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D143" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>-50</v>
+        <v>-819</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3512,13 +3512,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C147" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>-7</v>
+        <v>-53</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,14 +3536,14 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>-50</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3554,17 +3554,17 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D149" t="n">
-        <v>-21</v>
+        <v>11</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C150" t="n">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="D150" t="n">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3596,17 +3596,17 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C151" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D151" t="n">
-        <v>15</v>
+        <v>-23</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3617,17 +3617,17 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C152" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3638,13 +3638,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C153" t="n">
-        <v>1459</v>
+        <v>153</v>
       </c>
       <c r="D153" t="n">
-        <v>-3</v>
+        <v>-1310</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3680,17 +3680,17 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C155" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>12</v>
+        <v>-36</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -512,14 +512,14 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
         <v>4182</v>
       </c>
       <c r="C6" t="n">
-        <v>2839</v>
+        <v>4960</v>
       </c>
       <c r="D6" t="n">
-        <v>-1343</v>
+        <v>777</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -974,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D74" t="n">
-        <v>-53</v>
+        <v>-33</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2003,14 +2003,14 @@
         <v>271</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="D75" t="n">
-        <v>-271</v>
+        <v>32</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D93" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>-67</v>
+        <v>-65</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3800</v>
       </c>
       <c r="C99" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D99" t="n">
-        <v>-3338</v>
+        <v>-3334</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4664</v>
       </c>
       <c r="C100" t="n">
-        <v>887</v>
+        <v>963</v>
       </c>
       <c r="D100" t="n">
-        <v>-3777</v>
+        <v>-3701</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5853</v>
       </c>
       <c r="C106" t="n">
-        <v>1872</v>
+        <v>5045</v>
       </c>
       <c r="D106" t="n">
-        <v>-3981</v>
+        <v>-808</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2822,14 +2822,14 @@
         <v>328</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="D114" t="n">
-        <v>-328</v>
+        <v>12</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3557,10 +3557,10 @@
         <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>44</v>
       </c>
       <c r="C151" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D151" t="n">
-        <v>-23</v>
+        <v>-4</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1463</v>
       </c>
       <c r="C153" t="n">
-        <v>153</v>
+        <v>639</v>
       </c>
       <c r="D153" t="n">
-        <v>-1310</v>
+        <v>-824</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -764,14 +764,14 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -932,14 +932,14 @@
         <v>849</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1416</v>
       </c>
       <c r="D24" t="n">
-        <v>-849</v>
+        <v>566</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
-        <v>-357</v>
+        <v>-328</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9137</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>6611</v>
       </c>
       <c r="D35" t="n">
-        <v>-9134</v>
+        <v>-2526</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         <v>96</v>
       </c>
       <c r="C41" t="n">
-        <v>120</v>
+        <v>512</v>
       </c>
       <c r="D41" t="n">
-        <v>23</v>
+        <v>415</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D43" t="n">
-        <v>-21</v>
+        <v>-2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1478,10 +1478,10 @@
         <v>62</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D50" t="n">
-        <v>-62</v>
+        <v>-1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1604,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1667,10 +1667,10 @@
         <v>43</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D59" t="n">
-        <v>-43</v>
+        <v>-12</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>385</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D62" t="n">
-        <v>-385</v>
+        <v>-35</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>159</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D66" t="n">
-        <v>-159</v>
+        <v>-141</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1982,14 +1982,14 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D74" t="n">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2003,10 +2003,10 @@
         <v>271</v>
       </c>
       <c r="C75" t="n">
-        <v>304</v>
+        <v>441</v>
       </c>
       <c r="D75" t="n">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2234,10 +2234,10 @@
         <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D86" t="n">
-        <v>-33</v>
+        <v>-19</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
-        <v>-65</v>
+        <v>-55</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3800</v>
       </c>
       <c r="C99" t="n">
-        <v>466</v>
+        <v>765</v>
       </c>
       <c r="D99" t="n">
-        <v>-3334</v>
+        <v>-3035</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4664</v>
       </c>
       <c r="C100" t="n">
-        <v>963</v>
+        <v>1285</v>
       </c>
       <c r="D100" t="n">
-        <v>-3701</v>
+        <v>-3379</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1069</v>
       </c>
       <c r="C101" t="n">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="D101" t="n">
-        <v>-693</v>
+        <v>-614</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>771</v>
       </c>
       <c r="C103" t="n">
-        <v>446</v>
+        <v>761</v>
       </c>
       <c r="D103" t="n">
-        <v>-325</v>
+        <v>-10</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,14 +2654,14 @@
         <v>5853</v>
       </c>
       <c r="C106" t="n">
-        <v>5045</v>
+        <v>7110</v>
       </c>
       <c r="D106" t="n">
-        <v>-808</v>
+        <v>1256</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2843,10 +2843,10 @@
         <v>2612</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>2439</v>
       </c>
       <c r="D115" t="n">
-        <v>-2612</v>
+        <v>-173</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2885,14 +2885,14 @@
         <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -2906,10 +2906,10 @@
         <v>266</v>
       </c>
       <c r="C118" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="D118" t="n">
-        <v>-65</v>
+        <v>-16</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>67</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>-67</v>
+        <v>-64</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3074,14 +3074,14 @@
         <v>2090</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>2099</v>
       </c>
       <c r="D126" t="n">
-        <v>-2090</v>
+        <v>8</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3263,10 +3263,10 @@
         <v>1750</v>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>-1744</v>
+        <v>-1739</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3326,14 +3326,14 @@
         <v>41</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D138" t="n">
-        <v>-41</v>
+        <v>10</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D144" t="n">
-        <v>-819</v>
+        <v>-586</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>53</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D147" t="n">
-        <v>-53</v>
+        <v>-1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,14 +3536,14 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D148" t="n">
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3578,10 +3578,10 @@
         <v>246</v>
       </c>
       <c r="C150" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D150" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3599,14 +3599,14 @@
         <v>44</v>
       </c>
       <c r="C151" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D151" t="n">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3641,10 +3641,10 @@
         <v>1463</v>
       </c>
       <c r="C153" t="n">
-        <v>639</v>
+        <v>1238</v>
       </c>
       <c r="D153" t="n">
-        <v>-824</v>
+        <v>-225</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -932,10 +932,10 @@
         <v>849</v>
       </c>
       <c r="C24" t="n">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D24" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D28" t="n">
-        <v>-328</v>
+        <v>-300</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9137</v>
       </c>
       <c r="C35" t="n">
-        <v>6611</v>
+        <v>8579</v>
       </c>
       <c r="D35" t="n">
-        <v>-2526</v>
+        <v>-558</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         <v>96</v>
       </c>
       <c r="C41" t="n">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="D41" t="n">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1667,14 +1667,14 @@
         <v>43</v>
       </c>
       <c r="C59" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D59" t="n">
-        <v>-12</v>
+        <v>7</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1814,14 +1814,14 @@
         <v>159</v>
       </c>
       <c r="C66" t="n">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D66" t="n">
-        <v>-141</v>
+        <v>2</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2423,14 +2423,14 @@
         <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D95" t="n">
-        <v>-55</v>
+        <v>24</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D97" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3800</v>
       </c>
       <c r="C99" t="n">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="D99" t="n">
-        <v>-3035</v>
+        <v>-3017</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4664</v>
       </c>
       <c r="C100" t="n">
-        <v>1285</v>
+        <v>1854</v>
       </c>
       <c r="D100" t="n">
-        <v>-3379</v>
+        <v>-2810</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1069</v>
       </c>
       <c r="C101" t="n">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="D101" t="n">
-        <v>-614</v>
+        <v>-538</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>771</v>
       </c>
       <c r="C103" t="n">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D103" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5853</v>
       </c>
       <c r="C106" t="n">
-        <v>7110</v>
+        <v>7538</v>
       </c>
       <c r="D106" t="n">
-        <v>1256</v>
+        <v>1684</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2843,10 +2843,10 @@
         <v>2612</v>
       </c>
       <c r="C115" t="n">
-        <v>2439</v>
+        <v>2470</v>
       </c>
       <c r="D115" t="n">
-        <v>-173</v>
+        <v>-142</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>67</v>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
-        <v>-64</v>
+        <v>-55</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1750</v>
       </c>
       <c r="C135" t="n">
-        <v>11</v>
+        <v>1738</v>
       </c>
       <c r="D135" t="n">
-        <v>-1739</v>
+        <v>-12</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3347,14 +3347,14 @@
         <v>197</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="D139" t="n">
-        <v>-197</v>
+        <v>12</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="D144" t="n">
-        <v>-586</v>
+        <v>-464</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>44</v>
       </c>
       <c r="C151" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D151" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1463</v>
       </c>
       <c r="C153" t="n">
-        <v>1238</v>
+        <v>1454</v>
       </c>
       <c r="D153" t="n">
-        <v>-225</v>
+        <v>-9</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
         <v>36</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D155" t="n">
-        <v>-36</v>
+        <v>11</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D28" t="n">
-        <v>-300</v>
+        <v>-273</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9137</v>
       </c>
       <c r="C35" t="n">
-        <v>8579</v>
+        <v>8684</v>
       </c>
       <c r="D35" t="n">
-        <v>-558</v>
+        <v>-453</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         <v>96</v>
       </c>
       <c r="C41" t="n">
-        <v>548</v>
+        <v>821</v>
       </c>
       <c r="D41" t="n">
-        <v>451</v>
+        <v>724</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1562,14 +1562,14 @@
         <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1814,10 +1814,10 @@
         <v>159</v>
       </c>
       <c r="C66" t="n">
-        <v>162</v>
+        <v>308</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3800</v>
       </c>
       <c r="C99" t="n">
-        <v>783</v>
+        <v>1259</v>
       </c>
       <c r="D99" t="n">
-        <v>-3017</v>
+        <v>-2541</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4664</v>
       </c>
       <c r="C100" t="n">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="D100" t="n">
-        <v>-2810</v>
+        <v>-2809</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2633,10 +2633,10 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>5853</v>
       </c>
       <c r="C106" t="n">
-        <v>7538</v>
+        <v>7982</v>
       </c>
       <c r="D106" t="n">
-        <v>1684</v>
+        <v>2128</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>67</v>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D121" t="n">
-        <v>-55</v>
+        <v>-21</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>355</v>
+        <v>442</v>
       </c>
       <c r="D144" t="n">
-        <v>-464</v>
+        <v>-377</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4182</v>
       </c>
       <c r="C6" t="n">
-        <v>4960</v>
+        <v>4966</v>
       </c>
       <c r="D6" t="n">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -869,14 +869,14 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D28" t="n">
-        <v>-273</v>
+        <v>-191</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9137</v>
       </c>
       <c r="C35" t="n">
-        <v>8684</v>
+        <v>8756</v>
       </c>
       <c r="D35" t="n">
-        <v>-453</v>
+        <v>-381</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         <v>96</v>
       </c>
       <c r="C41" t="n">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="D41" t="n">
-        <v>724</v>
+        <v>757</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>385</v>
       </c>
       <c r="C62" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D62" t="n">
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>310</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="D65" t="n">
-        <v>-310</v>
+        <v>-46</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>159</v>
       </c>
       <c r="C66" t="n">
-        <v>308</v>
+        <v>454</v>
       </c>
       <c r="D66" t="n">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D97" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3800</v>
       </c>
       <c r="C99" t="n">
-        <v>1259</v>
+        <v>2181</v>
       </c>
       <c r="D99" t="n">
-        <v>-2541</v>
+        <v>-1619</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4664</v>
       </c>
       <c r="C100" t="n">
-        <v>1855</v>
+        <v>2917</v>
       </c>
       <c r="D100" t="n">
-        <v>-2809</v>
+        <v>-1747</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1069</v>
       </c>
       <c r="C101" t="n">
-        <v>531</v>
+        <v>724</v>
       </c>
       <c r="D101" t="n">
-        <v>-538</v>
+        <v>-345</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,14 +2570,14 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2654,10 +2654,10 @@
         <v>5853</v>
       </c>
       <c r="C106" t="n">
-        <v>7982</v>
+        <v>8752</v>
       </c>
       <c r="D106" t="n">
-        <v>2128</v>
+        <v>2898</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>67</v>
       </c>
       <c r="C121" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D121" t="n">
-        <v>-21</v>
+        <v>-11</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3263,14 +3263,14 @@
         <v>1750</v>
       </c>
       <c r="C135" t="n">
-        <v>1738</v>
+        <v>1752</v>
       </c>
       <c r="D135" t="n">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>442</v>
+        <v>687</v>
       </c>
       <c r="D144" t="n">
-        <v>-377</v>
+        <v>-132</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="D28" t="n">
-        <v>-191</v>
+        <v>-160</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         <v>96</v>
       </c>
       <c r="C41" t="n">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="D41" t="n">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3800</v>
       </c>
       <c r="C99" t="n">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="D99" t="n">
-        <v>-1619</v>
+        <v>-1617</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>819</v>
       </c>
       <c r="C144" t="n">
-        <v>687</v>
+        <v>765</v>
       </c>
       <c r="D144" t="n">
-        <v>-132</v>
+        <v>-54</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>44</v>
       </c>
       <c r="C151" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -554,10 +554,10 @@
         <v>4182</v>
       </c>
       <c r="C6" t="n">
-        <v>4966</v>
+        <v>5009</v>
       </c>
       <c r="D6" t="n">
-        <v>783</v>
+        <v>826</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-97</v>
+        <v>-91</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -806,10 +806,10 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -869,14 +869,14 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" t="n">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D23" t="n">
-        <v>-26</v>
+        <v>-12</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -929,17 +929,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>849</v>
+        <v>958</v>
       </c>
       <c r="C24" t="n">
-        <v>1417</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>567</v>
+        <v>-958</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -974,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C28" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-160</v>
+        <v>-369</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1079,10 +1079,10 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9137</v>
+        <v>9177</v>
       </c>
       <c r="C35" t="n">
-        <v>8756</v>
+        <v>8361</v>
       </c>
       <c r="D35" t="n">
-        <v>-381</v>
+        <v>-816</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="n">
         <v>44</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C40" t="n">
         <v>99</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1286,17 +1286,17 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C41" t="n">
-        <v>862</v>
+        <v>123</v>
       </c>
       <c r="D41" t="n">
-        <v>765</v>
+        <v>-30</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>-23</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C50" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-1</v>
+        <v>-67</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D53" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1601,17 +1601,17 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1646,10 +1646,10 @@
         <v>243</v>
       </c>
       <c r="C58" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D58" t="n">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1664,17 +1664,17 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C59" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>7</v>
+        <v>-47</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1730,10 +1730,10 @@
         <v>385</v>
       </c>
       <c r="C62" t="n">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-34</v>
+        <v>-385</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C65" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-46</v>
+        <v>-307</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,17 +1811,17 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="C66" t="n">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>294</v>
+        <v>-194</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2000,17 +2000,17 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C75" t="n">
-        <v>441</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>169</v>
+        <v>-281</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2108,14 +2108,14 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2150,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2213,14 +2213,14 @@
         <v>47</v>
       </c>
       <c r="C85" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D85" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2234,10 +2234,10 @@
         <v>33</v>
       </c>
       <c r="C86" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3082</v>
+        <v>2957</v>
       </c>
       <c r="C90" t="n">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="D90" t="n">
-        <v>-908</v>
+        <v>-779</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D93" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2420,17 +2420,17 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C95" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>24</v>
+        <v>-58</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D97" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3800</v>
+        <v>3698</v>
       </c>
       <c r="C99" t="n">
-        <v>2183</v>
+        <v>2219</v>
       </c>
       <c r="D99" t="n">
-        <v>-1617</v>
+        <v>-1479</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4664</v>
+        <v>4629</v>
       </c>
       <c r="C100" t="n">
-        <v>2917</v>
+        <v>1358</v>
       </c>
       <c r="D100" t="n">
-        <v>-1747</v>
+        <v>-3271</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C101" t="n">
-        <v>724</v>
+        <v>505</v>
       </c>
       <c r="D101" t="n">
-        <v>-345</v>
+        <v>-561</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,14 +2570,14 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2591,10 +2591,10 @@
         <v>771</v>
       </c>
       <c r="C103" t="n">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D103" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2633,10 +2633,10 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5853</v>
+        <v>6137</v>
       </c>
       <c r="C106" t="n">
-        <v>8752</v>
+        <v>7020</v>
       </c>
       <c r="D106" t="n">
-        <v>2898</v>
+        <v>882</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2735,17 +2735,17 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C110" t="n">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="D110" t="n">
-        <v>-46</v>
+        <v>70</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2759,10 +2759,10 @@
         <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2819,17 +2819,17 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C114" t="n">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="D114" t="n">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2612</v>
+        <v>2506</v>
       </c>
       <c r="C115" t="n">
-        <v>2470</v>
+        <v>2445</v>
       </c>
       <c r="D115" t="n">
-        <v>-142</v>
+        <v>-61</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2864,14 +2864,14 @@
         <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2903,13 +2903,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C118" t="n">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D118" t="n">
-        <v>-16</v>
+        <v>-33</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -2966,13 +2966,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C121" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-11</v>
+        <v>-65</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C122" t="n">
         <v>310</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3053,14 +3053,14 @@
         <v>102</v>
       </c>
       <c r="C125" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3071,13 +3071,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2090</v>
+        <v>2054</v>
       </c>
       <c r="C126" t="n">
-        <v>2099</v>
+        <v>2528</v>
       </c>
       <c r="D126" t="n">
-        <v>8</v>
+        <v>473</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>-90</v>
+        <v>-91</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="C131" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3260,17 +3260,17 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="C135" t="n">
-        <v>1752</v>
+        <v>4</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>-1743</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3302,13 +3302,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3276</v>
+        <v>3526</v>
       </c>
       <c r="C137" t="n">
-        <v>853</v>
+        <v>1405</v>
       </c>
       <c r="D137" t="n">
-        <v>-2423</v>
+        <v>-2121</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3326,14 +3326,14 @@
         <v>41</v>
       </c>
       <c r="C138" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D138" t="n">
-        <v>10</v>
+        <v>-7</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3347,10 +3347,10 @@
         <v>197</v>
       </c>
       <c r="C139" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D139" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3365,13 +3365,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C140" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3428,13 +3428,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D143" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>765</v>
+        <v>230</v>
       </c>
       <c r="D144" t="n">
-        <v>-54</v>
+        <v>-588</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3512,17 +3512,17 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C147" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D147" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3554,17 +3554,17 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C149" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D149" t="n">
-        <v>12</v>
+        <v>-28</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3575,17 +3575,17 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C150" t="n">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="D150" t="n">
-        <v>66</v>
+        <v>-144</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3596,13 +3596,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C151" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D151" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C152" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D152" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3638,13 +3638,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1454</v>
+        <v>490</v>
       </c>
       <c r="D153" t="n">
-        <v>-9</v>
+        <v>-972</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3680,17 +3680,17 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C155" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>11</v>
+        <v>-37</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -491,10 +491,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -509,17 +509,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4182</v>
+        <v>4397</v>
       </c>
       <c r="C6" t="n">
-        <v>5009</v>
+        <v>2131</v>
       </c>
       <c r="D6" t="n">
-        <v>826</v>
+        <v>-2266</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -617,10 +617,10 @@
         <v>63</v>
       </c>
       <c r="C9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -638,10 +638,10 @@
         <v>58</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>-26</v>
+        <v>-42</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>-4</v>
+        <v>-116</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-91</v>
+        <v>-102</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -764,14 +764,14 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C23" t="n">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D23" t="n">
-        <v>-12</v>
+        <v>-43</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>958</v>
+        <v>854</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-958</v>
+        <v>-854</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-369</v>
+        <v>-359</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1076,17 +1076,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9177</v>
+        <v>9354</v>
       </c>
       <c r="C35" t="n">
-        <v>8361</v>
+        <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>-816</v>
+        <v>-9264</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1181,17 +1181,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1205,14 +1205,14 @@
         <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1268,14 +1268,14 @@
         <v>99</v>
       </c>
       <c r="C40" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1457,10 +1457,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-67</v>
+        <v>-54</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1538,17 +1538,17 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1559,17 +1559,17 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1601,13 +1601,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1622,17 +1622,17 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C57" t="n">
-        <v>954</v>
+        <v>898</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-56</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1643,17 +1643,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C58" t="n">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="D58" t="n">
-        <v>107</v>
+        <v>-56</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1664,13 +1664,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-47</v>
+        <v>-43</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>-385</v>
+        <v>-390</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-307</v>
+        <v>-299</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-194</v>
+        <v>-157</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1982,14 +1982,14 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
         <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2210,17 +2210,17 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C85" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C86" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-17</v>
+        <v>-28</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2957</v>
+        <v>2706</v>
       </c>
       <c r="C90" t="n">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="D90" t="n">
-        <v>-779</v>
+        <v>-526</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C95" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-58</v>
+        <v>-68</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D97" t="n">
-        <v>-6</v>
+        <v>-22</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3698</v>
+        <v>3841</v>
       </c>
       <c r="C99" t="n">
-        <v>2219</v>
+        <v>179</v>
       </c>
       <c r="D99" t="n">
-        <v>-1479</v>
+        <v>-3662</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4629</v>
+        <v>4683</v>
       </c>
       <c r="C100" t="n">
-        <v>1358</v>
+        <v>524</v>
       </c>
       <c r="D100" t="n">
-        <v>-3271</v>
+        <v>-4159</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="C101" t="n">
-        <v>505</v>
+        <v>326</v>
       </c>
       <c r="D101" t="n">
-        <v>-561</v>
+        <v>-732</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>771</v>
       </c>
       <c r="C103" t="n">
-        <v>766</v>
+        <v>502</v>
       </c>
       <c r="D103" t="n">
-        <v>-5</v>
+        <v>-269</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2630,13 +2630,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2651,17 +2651,17 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6137</v>
+        <v>6708</v>
       </c>
       <c r="C106" t="n">
-        <v>7020</v>
+        <v>5755</v>
       </c>
       <c r="D106" t="n">
-        <v>882</v>
+        <v>-953</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2735,17 +2735,17 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C110" t="n">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="D110" t="n">
-        <v>70</v>
+        <v>-43</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2756,13 +2756,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C111" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2780,14 +2780,14 @@
         <v>2</v>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2819,17 +2819,17 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C114" t="n">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="D114" t="n">
-        <v>-4</v>
+        <v>25</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2506</v>
+        <v>2592</v>
       </c>
       <c r="C115" t="n">
-        <v>2445</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-61</v>
+        <v>-2592</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2903,13 +2903,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C118" t="n">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="D118" t="n">
-        <v>-33</v>
+        <v>-63</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,14 +2927,14 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2966,13 +2966,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-65</v>
+        <v>-51</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C122" t="n">
         <v>310</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3053,14 +3053,14 @@
         <v>102</v>
       </c>
       <c r="C125" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3071,17 +3071,17 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2054</v>
+        <v>2127</v>
       </c>
       <c r="C126" t="n">
-        <v>2528</v>
+        <v>1443</v>
       </c>
       <c r="D126" t="n">
-        <v>473</v>
+        <v>-684</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>-91</v>
+        <v>-72</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3176,17 +3176,17 @@
         </is>
       </c>
       <c r="B131" t="n">
+        <v>9</v>
+      </c>
+      <c r="C131" t="n">
         <v>8</v>
       </c>
-      <c r="C131" t="n">
-        <v>11</v>
-      </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3260,13 +3260,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1747</v>
+        <v>1767</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>-1743</v>
+        <v>-1765</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3302,13 +3302,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3526</v>
+        <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>1405</v>
+        <v>1760</v>
       </c>
       <c r="D137" t="n">
-        <v>-2121</v>
+        <v>-1515</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3323,13 +3323,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C138" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-7</v>
+        <v>-40</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3344,17 +3344,17 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
+        <v>-198</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3365,17 +3365,17 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C140" t="n">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D140" t="n">
-        <v>11</v>
+        <v>-19</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D143" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>-588</v>
+        <v>-818</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3512,17 +3512,17 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C147" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>10</v>
+        <v>-53</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3536,14 +3536,14 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>-50</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3554,17 +3554,17 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D149" t="n">
-        <v>-28</v>
+        <v>11</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C150" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>-144</v>
+        <v>-245</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3596,17 +3596,17 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C151" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D151" t="n">
-        <v>8</v>
+        <v>-21</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3620,10 +3620,10 @@
         <v>50</v>
       </c>
       <c r="C152" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D152" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>490</v>
+        <v>685</v>
       </c>
       <c r="D153" t="n">
-        <v>-972</v>
+        <v>-777</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3680,13 +3680,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -512,10 +512,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -638,10 +638,10 @@
         <v>58</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>-42</v>
+        <v>-26</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>-116</v>
+        <v>-113</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>-26</v>
+        <v>-5</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D49" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1625,14 +1625,14 @@
         <v>954</v>
       </c>
       <c r="C57" t="n">
-        <v>898</v>
+        <v>954</v>
       </c>
       <c r="D57" t="n">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1667,10 +1667,10 @@
         <v>43</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D59" t="n">
-        <v>-43</v>
+        <v>-1</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>391</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>315</v>
       </c>
       <c r="D62" t="n">
-        <v>-390</v>
+        <v>-76</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D74" t="n">
-        <v>-52</v>
+        <v>-11</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2003,14 +2003,14 @@
         <v>282</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="D75" t="n">
-        <v>-281</v>
+        <v>14</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D81" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2192,10 +2192,10 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2318,10 +2318,10 @@
         <v>2706</v>
       </c>
       <c r="C90" t="n">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="D90" t="n">
-        <v>-526</v>
+        <v>-525</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>55</v>
       </c>
       <c r="C97" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97" t="n">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3841</v>
       </c>
       <c r="C99" t="n">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="D99" t="n">
-        <v>-3662</v>
+        <v>-3634</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4683</v>
       </c>
       <c r="C100" t="n">
-        <v>524</v>
+        <v>652</v>
       </c>
       <c r="D100" t="n">
-        <v>-4159</v>
+        <v>-4031</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1058</v>
       </c>
       <c r="C101" t="n">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="D101" t="n">
-        <v>-732</v>
+        <v>-715</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>771</v>
       </c>
       <c r="C103" t="n">
-        <v>502</v>
+        <v>694</v>
       </c>
       <c r="D103" t="n">
-        <v>-269</v>
+        <v>-77</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>6708</v>
       </c>
       <c r="C106" t="n">
-        <v>5755</v>
+        <v>6290</v>
       </c>
       <c r="D106" t="n">
-        <v>-953</v>
+        <v>-418</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>2592</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="D115" t="n">
-        <v>-2592</v>
+        <v>-1905</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2927,14 +2927,14 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -3158,14 +3158,14 @@
         <v>72</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="D130" t="n">
-        <v>-72</v>
+        <v>96</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3263,10 +3263,10 @@
         <v>1767</v>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>1192</v>
       </c>
       <c r="D135" t="n">
-        <v>-1765</v>
+        <v>-575</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="D137" t="n">
-        <v>-1515</v>
+        <v>-1505</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>53</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D147" t="n">
-        <v>-53</v>
+        <v>-8</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3557,10 +3557,10 @@
         <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>56</v>
       </c>
       <c r="C151" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D151" t="n">
-        <v>-21</v>
+        <v>-7</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>685</v>
+        <v>1347</v>
       </c>
       <c r="D153" t="n">
-        <v>-777</v>
+        <v>-115</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D12" t="n">
-        <v>-113</v>
+        <v>-81</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
-        <v>-62</v>
+        <v>-2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -932,14 +932,14 @@
         <v>854</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="D24" t="n">
-        <v>-854</v>
+        <v>489</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>359</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>-359</v>
+        <v>-348</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9354</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>8373</v>
       </c>
       <c r="D35" t="n">
-        <v>-9264</v>
+        <v>-981</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1478,14 +1478,14 @@
         <v>54</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D50" t="n">
-        <v>-54</v>
+        <v>125</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1520,10 +1520,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1667,14 +1667,14 @@
         <v>43</v>
       </c>
       <c r="C59" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D59" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1814,14 +1814,14 @@
         <v>157</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="D66" t="n">
-        <v>-157</v>
+        <v>260</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2234,10 +2234,10 @@
         <v>28</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>-28</v>
+        <v>-20</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2255,14 +2255,14 @@
         <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>-8</v>
+        <v>27</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2423,10 +2423,10 @@
         <v>68</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
-        <v>-68</v>
+        <v>-56</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>55</v>
       </c>
       <c r="C97" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D97" t="n">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3841</v>
       </c>
       <c r="C99" t="n">
-        <v>207</v>
+        <v>458</v>
       </c>
       <c r="D99" t="n">
-        <v>-3634</v>
+        <v>-3383</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4683</v>
       </c>
       <c r="C100" t="n">
-        <v>652</v>
+        <v>842</v>
       </c>
       <c r="D100" t="n">
-        <v>-4031</v>
+        <v>-3841</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1058</v>
       </c>
       <c r="C101" t="n">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="D101" t="n">
-        <v>-715</v>
+        <v>-679</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>771</v>
       </c>
       <c r="C103" t="n">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="D103" t="n">
-        <v>-77</v>
+        <v>-67</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2633,14 +2633,14 @@
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2654,14 +2654,14 @@
         <v>6708</v>
       </c>
       <c r="C106" t="n">
-        <v>6290</v>
+        <v>7222</v>
       </c>
       <c r="D106" t="n">
-        <v>-418</v>
+        <v>513</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2843,10 +2843,10 @@
         <v>2592</v>
       </c>
       <c r="C115" t="n">
-        <v>687</v>
+        <v>2445</v>
       </c>
       <c r="D115" t="n">
-        <v>-1905</v>
+        <v>-147</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>269</v>
       </c>
       <c r="C118" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D118" t="n">
-        <v>-63</v>
+        <v>-62</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3158,10 +3158,10 @@
         <v>72</v>
       </c>
       <c r="C130" t="n">
-        <v>169</v>
+        <v>358</v>
       </c>
       <c r="D130" t="n">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1767</v>
       </c>
       <c r="C135" t="n">
-        <v>1192</v>
+        <v>1525</v>
       </c>
       <c r="D135" t="n">
-        <v>-575</v>
+        <v>-242</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>1770</v>
+        <v>2399</v>
       </c>
       <c r="D137" t="n">
-        <v>-1505</v>
+        <v>-876</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>40</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D138" t="n">
-        <v>-40</v>
+        <v>-13</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="D144" t="n">
-        <v>-818</v>
+        <v>-584</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D148" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>245</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="D150" t="n">
-        <v>-245</v>
+        <v>-6</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>56</v>
       </c>
       <c r="C151" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D151" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1347</v>
+        <v>1448</v>
       </c>
       <c r="D153" t="n">
-        <v>-115</v>
+        <v>-14</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="D12" t="n">
-        <v>-81</v>
+        <v>-5</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -743,10 +743,10 @@
         <v>102</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D15" t="n">
-        <v>-102</v>
+        <v>-27</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -932,10 +932,10 @@
         <v>854</v>
       </c>
       <c r="C24" t="n">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D24" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>359</v>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D28" t="n">
-        <v>-348</v>
+        <v>-290</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9354</v>
       </c>
       <c r="C35" t="n">
-        <v>8373</v>
+        <v>8374</v>
       </c>
       <c r="D35" t="n">
-        <v>-981</v>
+        <v>-980</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1205,14 +1205,14 @@
         <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D37" t="n">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D43" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1583,14 +1583,14 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1793,10 +1793,10 @@
         <v>299</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D65" t="n">
-        <v>-299</v>
+        <v>-233</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>157</v>
       </c>
       <c r="C66" t="n">
-        <v>418</v>
+        <v>491</v>
       </c>
       <c r="D66" t="n">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>282</v>
       </c>
       <c r="C75" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D75" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>68</v>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D95" t="n">
-        <v>-56</v>
+        <v>-13</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>55</v>
       </c>
       <c r="C97" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D97" t="n">
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3841</v>
       </c>
       <c r="C99" t="n">
-        <v>458</v>
+        <v>1277</v>
       </c>
       <c r="D99" t="n">
-        <v>-3383</v>
+        <v>-2564</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4683</v>
       </c>
       <c r="C100" t="n">
-        <v>842</v>
+        <v>1899</v>
       </c>
       <c r="D100" t="n">
-        <v>-3841</v>
+        <v>-2784</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1058</v>
       </c>
       <c r="C101" t="n">
-        <v>379</v>
+        <v>504</v>
       </c>
       <c r="D101" t="n">
-        <v>-679</v>
+        <v>-554</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>771</v>
       </c>
       <c r="C103" t="n">
-        <v>704</v>
+        <v>760</v>
       </c>
       <c r="D103" t="n">
-        <v>-67</v>
+        <v>-11</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>6708</v>
       </c>
       <c r="C106" t="n">
-        <v>7222</v>
+        <v>8591</v>
       </c>
       <c r="D106" t="n">
-        <v>513</v>
+        <v>1882</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3305,14 +3305,14 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>2399</v>
+        <v>4419</v>
       </c>
       <c r="D137" t="n">
-        <v>-876</v>
+        <v>1143</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D139" t="n">
-        <v>-198</v>
+        <v>-151</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>234</v>
+        <v>573</v>
       </c>
       <c r="D144" t="n">
-        <v>-584</v>
+        <v>-245</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3683,10 +3683,10 @@
         <v>38</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D155" t="n">
-        <v>-38</v>
+        <v>-20</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>359</v>
       </c>
       <c r="C28" t="n">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D28" t="n">
-        <v>-290</v>
+        <v>-265</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9354</v>
       </c>
       <c r="C35" t="n">
-        <v>8374</v>
+        <v>8417</v>
       </c>
       <c r="D35" t="n">
-        <v>-980</v>
+        <v>-937</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1541,10 +1541,10 @@
         <v>56</v>
       </c>
       <c r="C53" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D53" t="n">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>157</v>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D66" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>6708</v>
       </c>
       <c r="C106" t="n">
-        <v>8591</v>
+        <v>8763</v>
       </c>
       <c r="D106" t="n">
-        <v>1882</v>
+        <v>2054</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="D137" t="n">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>40</v>
       </c>
       <c r="C138" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>573</v>
+        <v>629</v>
       </c>
       <c r="D144" t="n">
-        <v>-245</v>
+        <v>-189</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>359</v>
       </c>
       <c r="C28" t="n">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="D28" t="n">
-        <v>-265</v>
+        <v>-215</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1604,14 +1604,14 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1793,10 +1793,10 @@
         <v>299</v>
       </c>
       <c r="C65" t="n">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="D65" t="n">
-        <v>-233</v>
+        <v>-43</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>55</v>
       </c>
       <c r="C97" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D97" t="n">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3841</v>
       </c>
       <c r="C99" t="n">
-        <v>1277</v>
+        <v>1777</v>
       </c>
       <c r="D99" t="n">
-        <v>-2564</v>
+        <v>-2064</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4683</v>
       </c>
       <c r="C100" t="n">
-        <v>1899</v>
+        <v>2458</v>
       </c>
       <c r="D100" t="n">
-        <v>-2784</v>
+        <v>-2225</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1058</v>
       </c>
       <c r="C101" t="n">
-        <v>504</v>
+        <v>633</v>
       </c>
       <c r="D101" t="n">
-        <v>-554</v>
+        <v>-425</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2822,10 +2822,10 @@
         <v>328</v>
       </c>
       <c r="C114" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D114" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2969,14 +2969,14 @@
         <v>51</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D121" t="n">
-        <v>-51</v>
+        <v>67</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3074,10 +3074,10 @@
         <v>2127</v>
       </c>
       <c r="C126" t="n">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="D126" t="n">
-        <v>-684</v>
+        <v>-682</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1767</v>
       </c>
       <c r="C135" t="n">
-        <v>1525</v>
+        <v>1534</v>
       </c>
       <c r="D135" t="n">
-        <v>-242</v>
+        <v>-233</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>4420</v>
+        <v>4441</v>
       </c>
       <c r="D137" t="n">
-        <v>1144</v>
+        <v>1165</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D139" t="n">
-        <v>-151</v>
+        <v>-148</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>818</v>
       </c>
       <c r="C144" t="n">
-        <v>629</v>
+        <v>768</v>
       </c>
       <c r="D144" t="n">
-        <v>-189</v>
+        <v>-50</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D153" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -491,10 +491,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,17 +551,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4397</v>
+        <v>4162</v>
       </c>
       <c r="C6" t="n">
-        <v>2131</v>
+        <v>4422</v>
       </c>
       <c r="D6" t="n">
-        <v>-2266</v>
+        <v>260</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -617,10 +617,10 @@
         <v>63</v>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D9" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="D12" t="n">
-        <v>-5</v>
+        <v>-83</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -743,10 +743,10 @@
         <v>102</v>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-27</v>
+        <v>-102</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-2</v>
+        <v>-62</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -785,10 +785,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -806,10 +806,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C23" t="n">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D23" t="n">
-        <v>-43</v>
+        <v>-10</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -929,17 +929,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C24" t="n">
-        <v>1345</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>490</v>
+        <v>-847</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -974,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-215</v>
+        <v>-357</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1079,10 +1079,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9354</v>
+        <v>9387</v>
       </c>
       <c r="C35" t="n">
-        <v>8417</v>
+        <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>-937</v>
+        <v>-9297</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-13</v>
+        <v>-34</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C41" t="n">
         <v>123</v>
       </c>
       <c r="D41" t="n">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>-3</v>
+        <v>-18</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1457,10 +1457,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1475,17 +1475,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C50" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>125</v>
+        <v>-63</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1520,10 +1520,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1559,17 +1559,17 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1583,14 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1604,14 +1604,14 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1643,17 +1643,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C58" t="n">
-        <v>199</v>
+        <v>360</v>
       </c>
       <c r="D58" t="n">
-        <v>-56</v>
+        <v>117</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1664,17 +1664,17 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>7</v>
+        <v>-42</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C62" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-76</v>
+        <v>-389</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C65" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-43</v>
+        <v>-295</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,17 +1811,17 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C66" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>334</v>
+        <v>-185</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>-11</v>
+        <v>-63</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2003,14 +2003,14 @@
         <v>282</v>
       </c>
       <c r="C75" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>17</v>
+        <v>-282</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2108,14 +2108,14 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2126,13 +2126,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D81" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
         <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2192,10 +2192,10 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2210,13 +2210,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2706</v>
+        <v>2581</v>
       </c>
       <c r="C90" t="n">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="D90" t="n">
-        <v>-525</v>
+        <v>-401</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C95" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-13</v>
+        <v>-66</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D97" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3841</v>
+        <v>3819</v>
       </c>
       <c r="C99" t="n">
-        <v>1777</v>
+        <v>433</v>
       </c>
       <c r="D99" t="n">
-        <v>-2064</v>
+        <v>-3386</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4683</v>
+        <v>4676</v>
       </c>
       <c r="C100" t="n">
-        <v>2458</v>
+        <v>634</v>
       </c>
       <c r="D100" t="n">
-        <v>-2225</v>
+        <v>-4042</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="C101" t="n">
-        <v>633</v>
+        <v>348</v>
       </c>
       <c r="D101" t="n">
-        <v>-425</v>
+        <v>-696</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2588,13 +2588,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C103" t="n">
-        <v>760</v>
+        <v>425</v>
       </c>
       <c r="D103" t="n">
-        <v>-11</v>
+        <v>-345</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2630,17 +2630,17 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2651,17 +2651,17 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6708</v>
+        <v>6995</v>
       </c>
       <c r="C106" t="n">
-        <v>8763</v>
+        <v>2865</v>
       </c>
       <c r="D106" t="n">
-        <v>2054</v>
+        <v>-4130</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2735,17 +2735,17 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C110" t="n">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="D110" t="n">
-        <v>-43</v>
+        <v>71</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2756,13 +2756,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2777,17 +2777,17 @@
         </is>
       </c>
       <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
         <v>2</v>
       </c>
-      <c r="C112" t="n">
-        <v>1</v>
-      </c>
       <c r="D112" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2819,17 +2819,17 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C114" t="n">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="D114" t="n">
-        <v>26</v>
+        <v>-199</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2592</v>
+        <v>2485</v>
       </c>
       <c r="C115" t="n">
-        <v>2445</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-147</v>
+        <v>-2485</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2885,14 +2885,14 @@
         <v>2</v>
       </c>
       <c r="C117" t="n">
+        <v>4</v>
+      </c>
+      <c r="D117" t="n">
         <v>2</v>
       </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2903,13 +2903,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C118" t="n">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="D118" t="n">
-        <v>-62</v>
+        <v>-121</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,14 +2927,14 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2966,17 +2966,17 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>67</v>
+        <v>-53</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3071,13 +3071,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2127</v>
+        <v>2062</v>
       </c>
       <c r="C126" t="n">
-        <v>1445</v>
+        <v>406</v>
       </c>
       <c r="D126" t="n">
-        <v>-682</v>
+        <v>-1656</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3095,14 +3095,14 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3155,17 +3155,17 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C130" t="n">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>285</v>
+        <v>-90</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3179,14 @@
         <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D131" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3260,13 +3260,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1767</v>
+        <v>1742</v>
       </c>
       <c r="C135" t="n">
-        <v>1534</v>
+        <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>-233</v>
+        <v>-1739</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,14 +3305,14 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>4441</v>
+        <v>230</v>
       </c>
       <c r="D137" t="n">
-        <v>1165</v>
+        <v>-3045</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3323,13 +3323,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C138" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-12</v>
+        <v>-39</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>-148</v>
+        <v>-198</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3365,17 +3365,17 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C140" t="n">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D140" t="n">
-        <v>-19</v>
+        <v>9</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D143" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>-50</v>
+        <v>-817</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>53</v>
       </c>
       <c r="C147" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>-8</v>
+        <v>-53</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3557,10 +3557,10 @@
         <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D149" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3575,17 +3575,17 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C150" t="n">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="D150" t="n">
-        <v>-6</v>
+        <v>67</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3599,10 +3599,10 @@
         <v>56</v>
       </c>
       <c r="C151" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D151" t="n">
-        <v>-1</v>
+        <v>-21</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C152" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D152" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3638,13 +3638,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C153" t="n">
-        <v>1449</v>
+        <v>127</v>
       </c>
       <c r="D153" t="n">
-        <v>-13</v>
+        <v>-1334</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3680,13 +3680,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C155" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>-20</v>
+        <v>-42</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -512,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="D12" t="n">
-        <v>-83</v>
+        <v>-26</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -785,10 +785,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>-14</v>
+        <v>-2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1184,14 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D36" t="n">
-        <v>-34</v>
+        <v>4</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1730,14 +1730,14 @@
         <v>389</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="D62" t="n">
-        <v>-389</v>
+        <v>127</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>80</v>
       </c>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D74" t="n">
-        <v>-63</v>
+        <v>-38</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>282</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="D75" t="n">
-        <v>-282</v>
+        <v>-7</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D93" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3819</v>
       </c>
       <c r="C99" t="n">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="D99" t="n">
-        <v>-3386</v>
+        <v>-3365</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4676</v>
       </c>
       <c r="C100" t="n">
-        <v>634</v>
+        <v>738</v>
       </c>
       <c r="D100" t="n">
-        <v>-4042</v>
+        <v>-3938</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>770</v>
       </c>
       <c r="C103" t="n">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="D103" t="n">
-        <v>-345</v>
+        <v>-328</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>6995</v>
       </c>
       <c r="C106" t="n">
-        <v>2865</v>
+        <v>3442</v>
       </c>
       <c r="D106" t="n">
-        <v>-4130</v>
+        <v>-3553</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>267</v>
       </c>
       <c r="C118" t="n">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="D118" t="n">
-        <v>-121</v>
+        <v>-74</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3074,14 +3074,14 @@
         <v>2062</v>
       </c>
       <c r="C126" t="n">
-        <v>406</v>
+        <v>2243</v>
       </c>
       <c r="D126" t="n">
-        <v>-1656</v>
+        <v>180</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3305,10 +3305,10 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="D137" t="n">
-        <v>-3045</v>
+        <v>-2987</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3557,10 +3557,10 @@
         <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D149" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1461</v>
       </c>
       <c r="C153" t="n">
-        <v>127</v>
+        <v>635</v>
       </c>
       <c r="D153" t="n">
-        <v>-1334</v>
+        <v>-826</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4162</v>
       </c>
       <c r="C6" t="n">
-        <v>4422</v>
+        <v>5146</v>
       </c>
       <c r="D6" t="n">
-        <v>260</v>
+        <v>984</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>-26</v>
+        <v>-3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -932,14 +932,14 @@
         <v>847</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1135</v>
       </c>
       <c r="D24" t="n">
-        <v>-847</v>
+        <v>287</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D28" t="n">
-        <v>-357</v>
+        <v>-333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9387</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>678</v>
       </c>
       <c r="D35" t="n">
-        <v>-9297</v>
+        <v>-8709</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1478,14 +1478,14 @@
         <v>63</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D50" t="n">
-        <v>-63</v>
+        <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1604,14 +1604,14 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1646,10 +1646,10 @@
         <v>242</v>
       </c>
       <c r="C58" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D58" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1667,14 +1667,14 @@
         <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D59" t="n">
-        <v>-42</v>
+        <v>12</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1730,10 +1730,10 @@
         <v>389</v>
       </c>
       <c r="C62" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D62" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>80</v>
       </c>
       <c r="C74" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D74" t="n">
-        <v>-38</v>
+        <v>-2</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2129,14 +2129,14 @@
         <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3819</v>
       </c>
       <c r="C99" t="n">
-        <v>454</v>
+        <v>695</v>
       </c>
       <c r="D99" t="n">
-        <v>-3365</v>
+        <v>-3124</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4676</v>
       </c>
       <c r="C100" t="n">
-        <v>738</v>
+        <v>1080</v>
       </c>
       <c r="D100" t="n">
-        <v>-3938</v>
+        <v>-3596</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1044</v>
       </c>
       <c r="C101" t="n">
-        <v>348</v>
+        <v>436</v>
       </c>
       <c r="D101" t="n">
-        <v>-696</v>
+        <v>-608</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>770</v>
       </c>
       <c r="C103" t="n">
-        <v>442</v>
+        <v>712</v>
       </c>
       <c r="D103" t="n">
-        <v>-328</v>
+        <v>-58</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>6995</v>
       </c>
       <c r="C106" t="n">
-        <v>3442</v>
+        <v>6505</v>
       </c>
       <c r="D106" t="n">
-        <v>-3553</v>
+        <v>-490</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,10 +2696,10 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2822,10 +2822,10 @@
         <v>330</v>
       </c>
       <c r="C114" t="n">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="D114" t="n">
-        <v>-199</v>
+        <v>-27</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>2485</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>2479</v>
       </c>
       <c r="D115" t="n">
-        <v>-2485</v>
+        <v>-6</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2927,14 +2927,14 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -3158,10 +3158,10 @@
         <v>90</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D130" t="n">
-        <v>-90</v>
+        <v>-12</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1742</v>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>1679</v>
       </c>
       <c r="D135" t="n">
-        <v>-1739</v>
+        <v>-63</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>288</v>
+        <v>1101</v>
       </c>
       <c r="D137" t="n">
-        <v>-2987</v>
+        <v>-2174</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3326,14 +3326,14 @@
         <v>39</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D138" t="n">
-        <v>-39</v>
+        <v>2</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D139" t="n">
-        <v>-198</v>
+        <v>-94</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D144" t="n">
-        <v>-817</v>
+        <v>-670</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>53</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D147" t="n">
-        <v>-53</v>
+        <v>-8</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D148" t="n">
-        <v>-50</v>
+        <v>-38</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>56</v>
       </c>
       <c r="C151" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D151" t="n">
-        <v>-21</v>
+        <v>-4</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1461</v>
       </c>
       <c r="C153" t="n">
-        <v>635</v>
+        <v>1221</v>
       </c>
       <c r="D153" t="n">
-        <v>-826</v>
+        <v>-240</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D16" t="n">
-        <v>-62</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D28" t="n">
-        <v>-333</v>
+        <v>-313</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9387</v>
       </c>
       <c r="C35" t="n">
-        <v>678</v>
+        <v>8391</v>
       </c>
       <c r="D35" t="n">
-        <v>-8709</v>
+        <v>-996</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1646,10 +1646,10 @@
         <v>242</v>
       </c>
       <c r="C58" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D58" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>185</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D66" t="n">
-        <v>-185</v>
+        <v>-14</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>66</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D95" t="n">
-        <v>-66</v>
+        <v>-44</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>6995</v>
       </c>
       <c r="C106" t="n">
-        <v>6505</v>
+        <v>6915</v>
       </c>
       <c r="D106" t="n">
-        <v>-490</v>
+        <v>-80</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>267</v>
       </c>
       <c r="C118" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D118" t="n">
-        <v>-74</v>
+        <v>-73</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="D144" t="n">
-        <v>-670</v>
+        <v>-582</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3536,14 +3536,14 @@
         <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D148" t="n">
-        <v>-38</v>
+        <v>2</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -743,10 +743,10 @@
         <v>102</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>-102</v>
+        <v>-82</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D28" t="n">
-        <v>-313</v>
+        <v>-295</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9387</v>
       </c>
       <c r="C35" t="n">
-        <v>8391</v>
+        <v>8436</v>
       </c>
       <c r="D35" t="n">
-        <v>-996</v>
+        <v>-951</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>389</v>
       </c>
       <c r="C62" t="n">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="D62" t="n">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>295</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D65" t="n">
-        <v>-295</v>
+        <v>-184</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2171,14 +2171,14 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2423,14 +2423,14 @@
         <v>66</v>
       </c>
       <c r="C95" t="n">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D95" t="n">
-        <v>-44</v>
+        <v>21</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3819</v>
       </c>
       <c r="C99" t="n">
-        <v>695</v>
+        <v>855</v>
       </c>
       <c r="D99" t="n">
-        <v>-3124</v>
+        <v>-2964</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4676</v>
       </c>
       <c r="C100" t="n">
-        <v>1080</v>
+        <v>1585</v>
       </c>
       <c r="D100" t="n">
-        <v>-3596</v>
+        <v>-3091</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>770</v>
       </c>
       <c r="C103" t="n">
-        <v>712</v>
+        <v>765</v>
       </c>
       <c r="D103" t="n">
-        <v>-58</v>
+        <v>-5</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,14 +2654,14 @@
         <v>6995</v>
       </c>
       <c r="C106" t="n">
-        <v>6915</v>
+        <v>7367</v>
       </c>
       <c r="D106" t="n">
-        <v>-80</v>
+        <v>371</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2969,10 +2969,10 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D121" t="n">
-        <v>-53</v>
+        <v>-43</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="D137" t="n">
-        <v>-2174</v>
+        <v>-2169</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="D139" t="n">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="D144" t="n">
-        <v>-582</v>
+        <v>-461</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>237</v>
       </c>
       <c r="C150" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D150" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3641,14 +3641,14 @@
         <v>1461</v>
       </c>
       <c r="C153" t="n">
-        <v>1221</v>
+        <v>1472</v>
       </c>
       <c r="D153" t="n">
-        <v>-240</v>
+        <v>10</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3683,14 +3683,14 @@
         <v>42</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D155" t="n">
-        <v>-42</v>
+        <v>1</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -743,10 +743,10 @@
         <v>102</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D15" t="n">
-        <v>-82</v>
+        <v>-27</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -806,10 +806,10 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -932,10 +932,10 @@
         <v>847</v>
       </c>
       <c r="C24" t="n">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D24" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D28" t="n">
-        <v>-295</v>
+        <v>-246</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9387</v>
       </c>
       <c r="C35" t="n">
-        <v>8436</v>
+        <v>8446</v>
       </c>
       <c r="D35" t="n">
-        <v>-951</v>
+        <v>-941</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1646,10 +1646,10 @@
         <v>242</v>
       </c>
       <c r="C58" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D58" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>389</v>
       </c>
       <c r="C62" t="n">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="D62" t="n">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>295</v>
       </c>
       <c r="C65" t="n">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D65" t="n">
-        <v>-184</v>
+        <v>-167</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2318,10 +2318,10 @@
         <v>2581</v>
       </c>
       <c r="C90" t="n">
-        <v>2180</v>
+        <v>2198</v>
       </c>
       <c r="D90" t="n">
-        <v>-401</v>
+        <v>-383</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D97" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3819</v>
       </c>
       <c r="C99" t="n">
-        <v>855</v>
+        <v>1596</v>
       </c>
       <c r="D99" t="n">
-        <v>-2964</v>
+        <v>-2223</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4676</v>
       </c>
       <c r="C100" t="n">
-        <v>1585</v>
+        <v>2093</v>
       </c>
       <c r="D100" t="n">
-        <v>-3091</v>
+        <v>-2583</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1044</v>
       </c>
       <c r="C101" t="n">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="D101" t="n">
-        <v>-608</v>
+        <v>-486</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>6995</v>
       </c>
       <c r="C106" t="n">
-        <v>7367</v>
+        <v>8292</v>
       </c>
       <c r="D106" t="n">
-        <v>371</v>
+        <v>1296</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2843,14 +2843,14 @@
         <v>2485</v>
       </c>
       <c r="C115" t="n">
-        <v>2479</v>
+        <v>2534</v>
       </c>
       <c r="D115" t="n">
-        <v>-6</v>
+        <v>48</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2969,10 +2969,10 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1742</v>
       </c>
       <c r="C135" t="n">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="D135" t="n">
-        <v>-63</v>
+        <v>-55</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>1106</v>
+        <v>2046</v>
       </c>
       <c r="D137" t="n">
-        <v>-2169</v>
+        <v>-1229</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>356</v>
+        <v>567</v>
       </c>
       <c r="D144" t="n">
-        <v>-461</v>
+        <v>-250</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -659,14 +659,14 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
-        <v>-4</v>
+        <v>72</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D28" t="n">
-        <v>-246</v>
+        <v>-223</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>389</v>
       </c>
       <c r="C62" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D62" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>24</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D86" t="n">
-        <v>-24</v>
+        <v>-15</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>6995</v>
       </c>
       <c r="C106" t="n">
-        <v>8292</v>
+        <v>8740</v>
       </c>
       <c r="D106" t="n">
-        <v>1296</v>
+        <v>1744</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D121" t="n">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3305,14 +3305,14 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>2046</v>
+        <v>4258</v>
       </c>
       <c r="D137" t="n">
-        <v>-1229</v>
+        <v>983</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>567</v>
+        <v>677</v>
       </c>
       <c r="D144" t="n">
-        <v>-250</v>
+        <v>-140</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4162</v>
       </c>
       <c r="C6" t="n">
-        <v>5146</v>
+        <v>5150</v>
       </c>
       <c r="D6" t="n">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D28" t="n">
-        <v>-223</v>
+        <v>-196</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>295</v>
       </c>
       <c r="C65" t="n">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="D65" t="n">
-        <v>-167</v>
+        <v>-33</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D97" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3819</v>
       </c>
       <c r="C99" t="n">
-        <v>1596</v>
+        <v>1991</v>
       </c>
       <c r="D99" t="n">
-        <v>-2223</v>
+        <v>-1828</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4676</v>
       </c>
       <c r="C100" t="n">
-        <v>2093</v>
+        <v>2619</v>
       </c>
       <c r="D100" t="n">
-        <v>-2583</v>
+        <v>-2057</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1044</v>
       </c>
       <c r="C101" t="n">
-        <v>558</v>
+        <v>681</v>
       </c>
       <c r="D101" t="n">
-        <v>-486</v>
+        <v>-363</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>6995</v>
       </c>
       <c r="C106" t="n">
-        <v>8740</v>
+        <v>8756</v>
       </c>
       <c r="D106" t="n">
-        <v>1744</v>
+        <v>1760</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D121" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1742</v>
       </c>
       <c r="C135" t="n">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="D135" t="n">
-        <v>-55</v>
+        <v>-52</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3275</v>
       </c>
       <c r="C137" t="n">
-        <v>4258</v>
+        <v>4756</v>
       </c>
       <c r="D137" t="n">
-        <v>983</v>
+        <v>1481</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>677</v>
+        <v>743</v>
       </c>
       <c r="D144" t="n">
-        <v>-140</v>
+        <v>-74</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>357</v>
       </c>
       <c r="C28" t="n">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="D28" t="n">
-        <v>-196</v>
+        <v>-162</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>9387</v>
       </c>
       <c r="C35" t="n">
-        <v>8446</v>
+        <v>8449</v>
       </c>
       <c r="D35" t="n">
-        <v>-941</v>
+        <v>-938</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3074,10 +3074,10 @@
         <v>2062</v>
       </c>
       <c r="C126" t="n">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="D126" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3452,14 +3452,14 @@
         <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>743</v>
+        <v>823</v>
       </c>
       <c r="D144" t="n">
-        <v>-74</v>
+        <v>5</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -491,14 +491,14 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -512,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,17 +551,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4162</v>
+        <v>4178</v>
       </c>
       <c r="C6" t="n">
-        <v>5150</v>
+        <v>2914</v>
       </c>
       <c r="D6" t="n">
-        <v>988</v>
+        <v>-1264</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-4</v>
+        <v>-64</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -656,17 +656,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>-10</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -743,10 +743,10 @@
         <v>102</v>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-27</v>
+        <v>-102</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>-62</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -782,17 +782,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -908,17 +908,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C23" t="n">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="D23" t="n">
-        <v>-10</v>
+        <v>77</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C24" t="n">
-        <v>1137</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>289</v>
+        <v>-853</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -974,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C28" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-162</v>
+        <v>-356</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1076,17 +1076,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9387</v>
+        <v>8451</v>
       </c>
       <c r="C35" t="n">
-        <v>8449</v>
+        <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>-938</v>
+        <v>-8361</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1202,17 +1202,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C37" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D37" t="n">
-        <v>11</v>
+        <v>-12</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1268,10 +1268,10 @@
         <v>99</v>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1475,17 +1475,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>-62</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1538,17 +1538,17 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D53" t="n">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1601,17 +1601,17 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1643,17 +1643,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="C58" t="n">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>122</v>
+        <v>-268</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1664,17 +1664,17 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C59" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>-39</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1727,17 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C62" t="n">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>179</v>
+        <v>-401</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C65" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-33</v>
+        <v>-292</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C66" t="n">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-14</v>
+        <v>-198</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D74" t="n">
-        <v>-2</v>
+        <v>-56</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2000,13 +2000,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C75" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-7</v>
+        <v>-280</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2108,14 +2108,14 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2129,14 +2129,14 @@
         <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2171,14 +2171,14 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2213,14 +2213,14 @@
         <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2234,10 +2234,10 @@
         <v>24</v>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-15</v>
+        <v>-24</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2252,17 +2252,17 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2581</v>
+        <v>2750</v>
       </c>
       <c r="C90" t="n">
-        <v>2198</v>
+        <v>2188</v>
       </c>
       <c r="D90" t="n">
-        <v>-383</v>
+        <v>-562</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D93" t="n">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2420,17 +2420,17 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>21</v>
+        <v>-67</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3819</v>
+        <v>3839</v>
       </c>
       <c r="C99" t="n">
-        <v>1991</v>
+        <v>485</v>
       </c>
       <c r="D99" t="n">
-        <v>-1828</v>
+        <v>-3354</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4676</v>
+        <v>4702</v>
       </c>
       <c r="C100" t="n">
-        <v>2619</v>
+        <v>705</v>
       </c>
       <c r="D100" t="n">
-        <v>-2057</v>
+        <v>-3997</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C101" t="n">
-        <v>681</v>
+        <v>365</v>
       </c>
       <c r="D101" t="n">
-        <v>-363</v>
+        <v>-676</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>770</v>
       </c>
       <c r="C103" t="n">
-        <v>765</v>
+        <v>589</v>
       </c>
       <c r="D103" t="n">
-        <v>-5</v>
+        <v>-181</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2651,17 +2651,17 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6995</v>
+        <v>7281</v>
       </c>
       <c r="C106" t="n">
-        <v>8756</v>
+        <v>4794</v>
       </c>
       <c r="D106" t="n">
-        <v>1760</v>
+        <v>-2487</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2696,10 +2696,10 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2735,13 +2735,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C110" t="n">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D110" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2801,14 +2801,14 @@
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2819,17 +2819,17 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C114" t="n">
-        <v>303</v>
+        <v>386</v>
       </c>
       <c r="D114" t="n">
-        <v>-27</v>
+        <v>58</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2840,17 +2840,17 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2485</v>
+        <v>2493</v>
       </c>
       <c r="C115" t="n">
-        <v>2534</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>48</v>
+        <v>-2493</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
         </is>
       </c>
       <c r="B116" t="n">
+        <v>8</v>
+      </c>
+      <c r="C116" t="n">
         <v>9</v>
       </c>
-      <c r="C116" t="n">
-        <v>7</v>
-      </c>
       <c r="D116" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2885,14 +2885,14 @@
         <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2903,13 +2903,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C118" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>-73</v>
+        <v>-257</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,14 +2927,14 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2969,10 +2969,10 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-53</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C122" t="n">
         <v>310</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3053,14 +3053,14 @@
         <v>102</v>
       </c>
       <c r="C125" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3071,17 +3071,17 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="C126" t="n">
-        <v>2244</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>181</v>
+        <v>-2065</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C130" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>-12</v>
+        <v>-91</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3179,14 +3179,14 @@
         <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3260,13 +3260,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1742</v>
+        <v>1707</v>
       </c>
       <c r="C135" t="n">
-        <v>1690</v>
+        <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>-52</v>
+        <v>-1704</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3302,17 +3302,17 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3275</v>
+        <v>3326</v>
       </c>
       <c r="C137" t="n">
-        <v>4756</v>
+        <v>259</v>
       </c>
       <c r="D137" t="n">
-        <v>1481</v>
+        <v>-3067</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3323,17 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C138" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>-38</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>-198</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3368,14 +3368,14 @@
         <v>82</v>
       </c>
       <c r="C140" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D140" t="n">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3428,17 +3428,17 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C143" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D143" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3449,17 +3449,17 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C144" t="n">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>5</v>
+        <v>-816</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3512,13 +3512,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C147" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>-8</v>
+        <v>-52</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3533,17 +3533,17 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C148" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>-51</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3557,10 +3557,10 @@
         <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>237</v>
       </c>
       <c r="C150" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D150" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3596,13 +3596,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C151" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D151" t="n">
-        <v>-4</v>
+        <v>-33</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3620,10 +3620,10 @@
         <v>49</v>
       </c>
       <c r="C152" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D152" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3638,17 +3638,17 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1472</v>
+        <v>87</v>
       </c>
       <c r="D153" t="n">
-        <v>10</v>
+        <v>-1375</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3683,14 +3683,14 @@
         <v>42</v>
       </c>
       <c r="C155" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>-42</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -512,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -554,14 +554,14 @@
         <v>4178</v>
       </c>
       <c r="C6" t="n">
-        <v>2914</v>
+        <v>4888</v>
       </c>
       <c r="D6" t="n">
-        <v>-1264</v>
+        <v>709</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1163,10 +1163,10 @@
         <v>8451</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D35" t="n">
-        <v>-8361</v>
+        <v>-8359</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1667,10 +1667,10 @@
         <v>39</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
-        <v>-39</v>
+        <v>-5</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>401</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="D62" t="n">
-        <v>-401</v>
+        <v>-20</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1793,10 +1793,10 @@
         <v>292</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D65" t="n">
-        <v>-292</v>
+        <v>-146</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1982,14 +1982,14 @@
         <v>79</v>
       </c>
       <c r="C74" t="n">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D74" t="n">
-        <v>-56</v>
+        <v>2</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2003,10 +2003,10 @@
         <v>280</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="D75" t="n">
-        <v>-280</v>
+        <v>-5</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D81" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D93" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D97" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3839</v>
       </c>
       <c r="C99" t="n">
-        <v>485</v>
+        <v>586</v>
       </c>
       <c r="D99" t="n">
-        <v>-3354</v>
+        <v>-3253</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4702</v>
       </c>
       <c r="C100" t="n">
-        <v>705</v>
+        <v>952</v>
       </c>
       <c r="D100" t="n">
-        <v>-3997</v>
+        <v>-3750</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1041</v>
       </c>
       <c r="C101" t="n">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="D101" t="n">
-        <v>-676</v>
+        <v>-639</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>770</v>
       </c>
       <c r="C103" t="n">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="D103" t="n">
-        <v>-181</v>
+        <v>-114</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>7281</v>
       </c>
       <c r="C106" t="n">
-        <v>4794</v>
+        <v>6034</v>
       </c>
       <c r="D106" t="n">
-        <v>-2487</v>
+        <v>-1247</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>2493</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D115" t="n">
-        <v>-2493</v>
+        <v>-2399</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>257</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D118" t="n">
-        <v>-257</v>
+        <v>-201</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,14 +2927,14 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -3074,14 +3074,14 @@
         <v>2065</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>2187</v>
       </c>
       <c r="D126" t="n">
-        <v>-2065</v>
+        <v>121</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3158,10 +3158,10 @@
         <v>91</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D130" t="n">
-        <v>-91</v>
+        <v>-14</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3326</v>
       </c>
       <c r="C137" t="n">
-        <v>259</v>
+        <v>401</v>
       </c>
       <c r="D137" t="n">
-        <v>-3067</v>
+        <v>-2925</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>52</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D147" t="n">
-        <v>-52</v>
+        <v>-7</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3557,10 +3557,10 @@
         <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D149" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>55</v>
       </c>
       <c r="C151" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D151" t="n">
-        <v>-33</v>
+        <v>-2</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>87</v>
+        <v>686</v>
       </c>
       <c r="D153" t="n">
-        <v>-1375</v>
+        <v>-776</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -617,10 +617,10 @@
         <v>64</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>-64</v>
+        <v>-11</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -932,14 +932,14 @@
         <v>853</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1135</v>
       </c>
       <c r="D24" t="n">
-        <v>-853</v>
+        <v>281</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1478,14 +1478,14 @@
         <v>62</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D50" t="n">
-        <v>-62</v>
+        <v>2</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1667,14 +1667,14 @@
         <v>39</v>
       </c>
       <c r="C59" t="n">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="D59" t="n">
-        <v>-5</v>
+        <v>47</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1793,10 +1793,10 @@
         <v>292</v>
       </c>
       <c r="C65" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D65" t="n">
-        <v>-146</v>
+        <v>-139</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>280</v>
       </c>
       <c r="C75" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D75" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3839</v>
       </c>
       <c r="C99" t="n">
-        <v>586</v>
+        <v>732</v>
       </c>
       <c r="D99" t="n">
-        <v>-3253</v>
+        <v>-3107</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4702</v>
       </c>
       <c r="C100" t="n">
-        <v>952</v>
+        <v>1154</v>
       </c>
       <c r="D100" t="n">
-        <v>-3750</v>
+        <v>-3548</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>770</v>
       </c>
       <c r="C103" t="n">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="D103" t="n">
-        <v>-114</v>
+        <v>-35</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>7281</v>
       </c>
       <c r="C106" t="n">
-        <v>6034</v>
+        <v>6505</v>
       </c>
       <c r="D106" t="n">
-        <v>-1247</v>
+        <v>-776</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2843,10 +2843,10 @@
         <v>2493</v>
       </c>
       <c r="C115" t="n">
-        <v>94</v>
+        <v>2449</v>
       </c>
       <c r="D115" t="n">
-        <v>-2399</v>
+        <v>-44</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>257</v>
       </c>
       <c r="C118" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D118" t="n">
-        <v>-201</v>
+        <v>-193</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1707</v>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D135" t="n">
-        <v>-1704</v>
+        <v>-1639</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3326</v>
       </c>
       <c r="C137" t="n">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="D137" t="n">
-        <v>-2925</v>
+        <v>-2873</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>38</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D138" t="n">
-        <v>-38</v>
+        <v>-8</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="D139" t="n">
-        <v>-198</v>
+        <v>-1</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>816</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D144" t="n">
-        <v>-816</v>
+        <v>-741</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>51</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>-51</v>
+        <v>-49</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>686</v>
+        <v>974</v>
       </c>
       <c r="D153" t="n">
-        <v>-776</v>
+        <v>-488</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -743,10 +743,10 @@
         <v>102</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D15" t="n">
-        <v>-102</v>
+        <v>-27</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D16" t="n">
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>356</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D28" t="n">
-        <v>-356</v>
+        <v>-332</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>8451</v>
       </c>
       <c r="C35" t="n">
-        <v>92</v>
+        <v>8423</v>
       </c>
       <c r="D35" t="n">
-        <v>-8359</v>
+        <v>-28</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>-26</v>
+        <v>-24</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1646,10 +1646,10 @@
         <v>268</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>-268</v>
+        <v>-265</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>292</v>
       </c>
       <c r="C65" t="n">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D65" t="n">
-        <v>-139</v>
+        <v>-122</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1982,10 +1982,10 @@
         <v>79</v>
       </c>
       <c r="C74" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>24</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D86" t="n">
-        <v>-24</v>
+        <v>-14</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D95" t="n">
-        <v>-67</v>
+        <v>-5</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>770</v>
       </c>
       <c r="C103" t="n">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="D103" t="n">
-        <v>-35</v>
+        <v>-8</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2633,14 +2633,14 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2654,14 +2654,14 @@
         <v>7281</v>
       </c>
       <c r="C106" t="n">
-        <v>6505</v>
+        <v>7436</v>
       </c>
       <c r="D106" t="n">
-        <v>-776</v>
+        <v>154</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2906,10 +2906,10 @@
         <v>257</v>
       </c>
       <c r="C118" t="n">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="D118" t="n">
-        <v>-193</v>
+        <v>-156</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D121" t="n">
-        <v>-53</v>
+        <v>-36</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3326</v>
       </c>
       <c r="C137" t="n">
-        <v>453</v>
+        <v>1497</v>
       </c>
       <c r="D137" t="n">
-        <v>-2873</v>
+        <v>-1829</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>816</v>
       </c>
       <c r="C144" t="n">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="D144" t="n">
-        <v>-741</v>
+        <v>-459</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3536,14 +3536,14 @@
         <v>51</v>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D148" t="n">
-        <v>-49</v>
+        <v>1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3578,10 +3578,10 @@
         <v>237</v>
       </c>
       <c r="C150" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D150" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3683,14 +3683,14 @@
         <v>42</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D155" t="n">
-        <v>-42</v>
+        <v>8</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4178</v>
       </c>
       <c r="C6" t="n">
-        <v>4888</v>
+        <v>4889</v>
       </c>
       <c r="D6" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -806,10 +806,10 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>356</v>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D28" t="n">
-        <v>-332</v>
+        <v>-311</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1583,14 +1583,14 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1793,10 +1793,10 @@
         <v>292</v>
       </c>
       <c r="C65" t="n">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="D65" t="n">
-        <v>-122</v>
+        <v>-34</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D95" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D97" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3839</v>
       </c>
       <c r="C99" t="n">
-        <v>732</v>
+        <v>1381</v>
       </c>
       <c r="D99" t="n">
-        <v>-3107</v>
+        <v>-2458</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4702</v>
       </c>
       <c r="C100" t="n">
-        <v>1154</v>
+        <v>1927</v>
       </c>
       <c r="D100" t="n">
-        <v>-3548</v>
+        <v>-2775</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1041</v>
       </c>
       <c r="C101" t="n">
-        <v>402</v>
+        <v>539</v>
       </c>
       <c r="D101" t="n">
-        <v>-639</v>
+        <v>-502</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>7281</v>
       </c>
       <c r="C106" t="n">
-        <v>7436</v>
+        <v>7889</v>
       </c>
       <c r="D106" t="n">
-        <v>154</v>
+        <v>607</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D121" t="n">
-        <v>-36</v>
+        <v>-7</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3326</v>
       </c>
       <c r="C137" t="n">
-        <v>1497</v>
+        <v>1555</v>
       </c>
       <c r="D137" t="n">
-        <v>-1829</v>
+        <v>-1771</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>816</v>
       </c>
       <c r="C144" t="n">
-        <v>357</v>
+        <v>442</v>
       </c>
       <c r="D144" t="n">
-        <v>-459</v>
+        <v>-374</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3641,14 +3641,14 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>974</v>
+        <v>1469</v>
       </c>
       <c r="D153" t="n">
-        <v>-488</v>
+        <v>6</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>356</v>
       </c>
       <c r="C28" t="n">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D28" t="n">
-        <v>-311</v>
+        <v>-253</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>292</v>
       </c>
       <c r="C65" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D65" t="n">
-        <v>-34</v>
+        <v>-27</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         <v>198</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="D66" t="n">
-        <v>-198</v>
+        <v>-1</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3839</v>
       </c>
       <c r="C99" t="n">
-        <v>1381</v>
+        <v>1642</v>
       </c>
       <c r="D99" t="n">
-        <v>-2458</v>
+        <v>-2197</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4702</v>
       </c>
       <c r="C100" t="n">
-        <v>1927</v>
+        <v>2367</v>
       </c>
       <c r="D100" t="n">
-        <v>-2775</v>
+        <v>-2335</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1041</v>
       </c>
       <c r="C101" t="n">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="D101" t="n">
-        <v>-502</v>
+        <v>-471</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>7281</v>
       </c>
       <c r="C106" t="n">
-        <v>7889</v>
+        <v>8756</v>
       </c>
       <c r="D106" t="n">
-        <v>607</v>
+        <v>1474</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>257</v>
       </c>
       <c r="C118" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D118" t="n">
-        <v>-156</v>
+        <v>-149</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D121" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3263,10 +3263,10 @@
         <v>1707</v>
       </c>
       <c r="C135" t="n">
-        <v>68</v>
+        <v>901</v>
       </c>
       <c r="D135" t="n">
-        <v>-1639</v>
+        <v>-806</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3326</v>
       </c>
       <c r="C137" t="n">
-        <v>1555</v>
+        <v>2413</v>
       </c>
       <c r="D137" t="n">
-        <v>-1771</v>
+        <v>-913</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>816</v>
       </c>
       <c r="C144" t="n">
-        <v>442</v>
+        <v>627</v>
       </c>
       <c r="D144" t="n">
-        <v>-374</v>
+        <v>-189</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D153" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4178</v>
       </c>
       <c r="C6" t="n">
-        <v>4889</v>
+        <v>4891</v>
       </c>
       <c r="D6" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>356</v>
       </c>
       <c r="C28" t="n">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="D28" t="n">
-        <v>-253</v>
+        <v>-175</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>-16</v>
+        <v>-1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1352,14 +1352,14 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D93" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D97" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3839</v>
       </c>
       <c r="C99" t="n">
-        <v>1642</v>
+        <v>2528</v>
       </c>
       <c r="D99" t="n">
-        <v>-2197</v>
+        <v>-1311</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4702</v>
       </c>
       <c r="C100" t="n">
-        <v>2367</v>
+        <v>3489</v>
       </c>
       <c r="D100" t="n">
-        <v>-2335</v>
+        <v>-1213</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1041</v>
       </c>
       <c r="C101" t="n">
-        <v>570</v>
+        <v>770</v>
       </c>
       <c r="D101" t="n">
-        <v>-471</v>
+        <v>-271</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2822,10 +2822,10 @@
         <v>327</v>
       </c>
       <c r="C114" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D114" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2906,14 +2906,14 @@
         <v>257</v>
       </c>
       <c r="C118" t="n">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="D118" t="n">
-        <v>-149</v>
+        <v>60</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2969,10 +2969,10 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D121" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3263,14 +3263,14 @@
         <v>1707</v>
       </c>
       <c r="C135" t="n">
-        <v>901</v>
+        <v>1933</v>
       </c>
       <c r="D135" t="n">
-        <v>-806</v>
+        <v>225</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3305,14 +3305,14 @@
         <v>3326</v>
       </c>
       <c r="C137" t="n">
-        <v>2413</v>
+        <v>4759</v>
       </c>
       <c r="D137" t="n">
-        <v>-913</v>
+        <v>1432</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3452,10 +3452,10 @@
         <v>816</v>
       </c>
       <c r="C144" t="n">
-        <v>627</v>
+        <v>798</v>
       </c>
       <c r="D144" t="n">
-        <v>-189</v>
+        <v>-18</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>55</v>
       </c>
       <c r="C151" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D151" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D153" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -512,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="C6" t="n">
-        <v>4891</v>
+        <v>4535</v>
       </c>
       <c r="D6" t="n">
-        <v>712</v>
+        <v>355</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -575,14 +575,14 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D9" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -659,14 +659,14 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>-10</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C12" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" t="n">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-27</v>
+        <v>-90</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -782,17 +782,17 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>14</v>
       </c>
-      <c r="C17" t="n">
-        <v>18</v>
-      </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
         <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -908,17 +908,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C23" t="n">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>-12</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C24" t="n">
-        <v>1135</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>281</v>
+        <v>-857</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>356</v>
       </c>
       <c r="C28" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-175</v>
+        <v>-356</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1076,17 +1076,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8451</v>
+        <v>8455</v>
       </c>
       <c r="C35" t="n">
-        <v>8423</v>
+        <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>-28</v>
+        <v>-8365</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         <v>49</v>
       </c>
       <c r="C37" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D37" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
         <v>99</v>
       </c>
       <c r="C40" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C41" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" t="n">
-        <v>-33</v>
+        <v>-30</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>-26</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1349,17 +1349,17 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D49" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1475,17 +1475,17 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>-63</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C53" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1562,14 +1562,14 @@
         <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1583,14 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1601,13 +1601,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1643,17 +1643,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>362</v>
       </c>
       <c r="D58" t="n">
-        <v>-265</v>
+        <v>121</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1664,17 +1664,17 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>47</v>
+        <v>-42</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1709,10 +1709,10 @@
         <v>6</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>401</v>
       </c>
       <c r="C62" t="n">
-        <v>381</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>-20</v>
+        <v>-400</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C65" t="n">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>-27</v>
+        <v>-278</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C66" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-1</v>
+        <v>-181</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1979,17 +1979,17 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" t="n">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>-52</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2000,13 +2000,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C75" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-4</v>
+        <v>-278</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>-1</v>
@@ -2108,14 +2108,14 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2129,10 +2129,10 @@
         <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2150,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2213,14 +2213,14 @@
         <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-14</v>
+        <v>-22</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2750</v>
+        <v>2305</v>
       </c>
       <c r="C90" t="n">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="D90" t="n">
-        <v>-562</v>
+        <v>-113</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D93" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2423,10 +2423,10 @@
         <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-4</v>
+        <v>-67</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D97" t="n">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3839</v>
+        <v>3862</v>
       </c>
       <c r="C99" t="n">
-        <v>2528</v>
+        <v>257</v>
       </c>
       <c r="D99" t="n">
-        <v>-1311</v>
+        <v>-3605</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4702</v>
+        <v>4666</v>
       </c>
       <c r="C100" t="n">
-        <v>3489</v>
+        <v>85</v>
       </c>
       <c r="D100" t="n">
-        <v>-1213</v>
+        <v>-4581</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C101" t="n">
-        <v>770</v>
+        <v>345</v>
       </c>
       <c r="D101" t="n">
-        <v>-271</v>
+        <v>-692</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,14 +2570,14 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2588,13 +2588,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C103" t="n">
-        <v>762</v>
+        <v>361</v>
       </c>
       <c r="D103" t="n">
-        <v>-8</v>
+        <v>-408</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2633,14 +2633,14 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2651,17 +2651,17 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>7281</v>
+        <v>7567</v>
       </c>
       <c r="C106" t="n">
-        <v>8756</v>
+        <v>2090</v>
       </c>
       <c r="D106" t="n">
-        <v>1474</v>
+        <v>-5477</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2696,14 +2696,14 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2735,17 +2735,17 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C110" t="n">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="D110" t="n">
-        <v>48</v>
+        <v>-49</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2759,10 +2759,10 @@
         <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2801,14 +2801,14 @@
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2819,13 +2819,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C114" t="n">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="D114" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2493</v>
+        <v>2488</v>
       </c>
       <c r="C115" t="n">
-        <v>2449</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-44</v>
+        <v>-2488</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2861,17 +2861,17 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2906,14 +2906,14 @@
         <v>257</v>
       </c>
       <c r="C118" t="n">
-        <v>318</v>
+        <v>140</v>
       </c>
       <c r="D118" t="n">
-        <v>60</v>
+        <v>-117</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2927,14 +2927,14 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2969,10 +2969,10 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-53</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C122" t="n">
         <v>310</v>
       </c>
       <c r="D122" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3071,13 +3071,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="C126" t="n">
-        <v>2187</v>
+        <v>2101</v>
       </c>
       <c r="D126" t="n">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C130" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>-14</v>
+        <v>-85</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3179,14 +3179,14 @@
         <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3260,17 +3260,17 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1707</v>
+        <v>1694</v>
       </c>
       <c r="C135" t="n">
-        <v>1933</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>225</v>
+        <v>-1692</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3302,17 +3302,17 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="C137" t="n">
-        <v>4759</v>
+        <v>2103</v>
       </c>
       <c r="D137" t="n">
-        <v>1432</v>
+        <v>-1220</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3326,10 +3326,10 @@
         <v>38</v>
       </c>
       <c r="C138" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-8</v>
+        <v>-38</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>-1</v>
+        <v>-198</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3365,17 +3365,17 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C140" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D140" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3428,17 +3428,17 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>798</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>-18</v>
+        <v>-817</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3515,10 +3515,10 @@
         <v>52</v>
       </c>
       <c r="C147" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>-7</v>
+        <v>-52</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3536,14 +3536,14 @@
         <v>51</v>
       </c>
       <c r="C148" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>-51</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3554,13 +3554,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C149" t="n">
         <v>37</v>
       </c>
       <c r="D149" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C150" t="n">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D150" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>55</v>
       </c>
       <c r="C151" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D151" t="n">
-        <v>-1</v>
+        <v>-33</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C152" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D152" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3641,14 +3641,14 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1471</v>
+        <v>131</v>
       </c>
       <c r="D153" t="n">
-        <v>8</v>
+        <v>-1331</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3680,17 +3680,17 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C155" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>8</v>
+        <v>-43</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -512,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -554,10 +554,10 @@
         <v>4179</v>
       </c>
       <c r="C6" t="n">
-        <v>4535</v>
+        <v>4834</v>
       </c>
       <c r="D6" t="n">
-        <v>355</v>
+        <v>654</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -659,10 +659,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>135</v>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1289,10 +1289,10 @@
         <v>154</v>
       </c>
       <c r="C41" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" t="n">
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1646,10 +1646,10 @@
         <v>240</v>
       </c>
       <c r="C58" t="n">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D58" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1667,10 +1667,10 @@
         <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D59" t="n">
-        <v>-42</v>
+        <v>-4</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>401</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>375</v>
       </c>
       <c r="D62" t="n">
-        <v>-400</v>
+        <v>-26</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1751,14 +1751,14 @@
         <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D63" t="n">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1793,10 +1793,10 @@
         <v>288</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>-278</v>
+        <v>-269</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1856,14 +1856,14 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1982,10 +1982,10 @@
         <v>80</v>
       </c>
       <c r="C74" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="D74" t="n">
-        <v>-52</v>
+        <v>-1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>278</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="D75" t="n">
-        <v>-278</v>
+        <v>-4</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2024,14 +2024,14 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -2129,10 +2129,10 @@
         <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2192,14 +2192,14 @@
         <v>11</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3862</v>
       </c>
       <c r="C99" t="n">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="D99" t="n">
-        <v>-3605</v>
+        <v>-3504</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4666</v>
       </c>
       <c r="C100" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D100" t="n">
-        <v>-4581</v>
+        <v>-4577</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1037</v>
       </c>
       <c r="C101" t="n">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="D101" t="n">
-        <v>-692</v>
+        <v>-656</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>769</v>
       </c>
       <c r="C103" t="n">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="D103" t="n">
-        <v>-408</v>
+        <v>-343</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>7567</v>
       </c>
       <c r="C106" t="n">
-        <v>2090</v>
+        <v>4007</v>
       </c>
       <c r="D106" t="n">
-        <v>-5477</v>
+        <v>-3560</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>2488</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>2416</v>
       </c>
       <c r="D115" t="n">
-        <v>-2488</v>
+        <v>-72</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>257</v>
       </c>
       <c r="C118" t="n">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="D118" t="n">
-        <v>-117</v>
+        <v>-25</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,14 +2927,14 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -3158,10 +3158,10 @@
         <v>85</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D130" t="n">
-        <v>-85</v>
+        <v>-12</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3305,14 +3305,14 @@
         <v>3323</v>
       </c>
       <c r="C137" t="n">
-        <v>2103</v>
+        <v>3712</v>
       </c>
       <c r="D137" t="n">
-        <v>-1220</v>
+        <v>388</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3515,14 +3515,14 @@
         <v>52</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D147" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -3557,10 +3557,10 @@
         <v>28</v>
       </c>
       <c r="C149" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>55</v>
       </c>
       <c r="C151" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D151" t="n">
-        <v>-33</v>
+        <v>-1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>131</v>
+        <v>752</v>
       </c>
       <c r="D153" t="n">
-        <v>-1331</v>
+        <v>-710</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -659,14 +659,14 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -932,14 +932,14 @@
         <v>857</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="D24" t="n">
-        <v>-857</v>
+        <v>234</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1016,10 +1016,10 @@
         <v>356</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>-356</v>
+        <v>-353</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>8455</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>2862</v>
       </c>
       <c r="D35" t="n">
-        <v>-8365</v>
+        <v>-5593</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1352,14 +1352,14 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1478,10 +1478,10 @@
         <v>63</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D50" t="n">
-        <v>-63</v>
+        <v>-8</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1604,14 +1604,14 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1667,10 +1667,10 @@
         <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D59" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>288</v>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D65" t="n">
-        <v>-269</v>
+        <v>-252</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3862</v>
       </c>
       <c r="C99" t="n">
-        <v>358</v>
+        <v>542</v>
       </c>
       <c r="D99" t="n">
-        <v>-3504</v>
+        <v>-3320</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4666</v>
       </c>
       <c r="C100" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D100" t="n">
-        <v>-4577</v>
+        <v>-4572</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1037</v>
       </c>
       <c r="C101" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D101" t="n">
-        <v>-656</v>
+        <v>-649</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>769</v>
       </c>
       <c r="C103" t="n">
-        <v>426</v>
+        <v>725</v>
       </c>
       <c r="D103" t="n">
-        <v>-343</v>
+        <v>-44</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>7567</v>
       </c>
       <c r="C106" t="n">
-        <v>4007</v>
+        <v>4491</v>
       </c>
       <c r="D106" t="n">
-        <v>-3560</v>
+        <v>-3076</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,10 +2696,10 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2759,14 +2759,14 @@
         <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D111" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2843,10 +2843,10 @@
         <v>2488</v>
       </c>
       <c r="C115" t="n">
-        <v>2416</v>
+        <v>2462</v>
       </c>
       <c r="D115" t="n">
-        <v>-72</v>
+        <v>-26</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3323</v>
       </c>
       <c r="C137" t="n">
-        <v>3712</v>
+        <v>4456</v>
       </c>
       <c r="D137" t="n">
-        <v>388</v>
+        <v>1132</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3326,10 +3326,10 @@
         <v>38</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D138" t="n">
-        <v>-38</v>
+        <v>-6</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D144" t="n">
-        <v>-817</v>
+        <v>-677</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>238</v>
       </c>
       <c r="C150" t="n">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D150" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>752</v>
+        <v>1025</v>
       </c>
       <c r="D153" t="n">
-        <v>-710</v>
+        <v>-437</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4179</v>
       </c>
       <c r="C6" t="n">
-        <v>4834</v>
+        <v>4838</v>
       </c>
       <c r="D6" t="n">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -659,10 +659,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>135</v>
       </c>
       <c r="C12" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -743,10 +743,10 @@
         <v>90</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D15" t="n">
-        <v>-90</v>
+        <v>-12</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D16" t="n">
-        <v>-62</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
         <v>356</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="D28" t="n">
-        <v>-353</v>
+        <v>-255</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1163,10 +1163,10 @@
         <v>8455</v>
       </c>
       <c r="C35" t="n">
-        <v>2862</v>
+        <v>8391</v>
       </c>
       <c r="D35" t="n">
-        <v>-5593</v>
+        <v>-64</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>-26</v>
+        <v>-17</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1352,14 +1352,14 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1646,10 +1646,10 @@
         <v>240</v>
       </c>
       <c r="C58" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D58" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1667,14 +1667,14 @@
         <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D59" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1793,10 +1793,10 @@
         <v>288</v>
       </c>
       <c r="C65" t="n">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D65" t="n">
-        <v>-252</v>
+        <v>-192</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1814,14 +1814,14 @@
         <v>181</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D66" t="n">
-        <v>-181</v>
+        <v>33</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2234,14 +2234,14 @@
         <v>22</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D86" t="n">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2423,14 +2423,14 @@
         <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D95" t="n">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D97" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3862</v>
       </c>
       <c r="C99" t="n">
-        <v>542</v>
+        <v>1379</v>
       </c>
       <c r="D99" t="n">
-        <v>-3320</v>
+        <v>-2483</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4666</v>
       </c>
       <c r="C100" t="n">
-        <v>94</v>
+        <v>780</v>
       </c>
       <c r="D100" t="n">
-        <v>-4572</v>
+        <v>-3886</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1037</v>
       </c>
       <c r="C101" t="n">
-        <v>388</v>
+        <v>564</v>
       </c>
       <c r="D101" t="n">
-        <v>-649</v>
+        <v>-473</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2591,14 +2591,14 @@
         <v>769</v>
       </c>
       <c r="C103" t="n">
-        <v>725</v>
+        <v>1318</v>
       </c>
       <c r="D103" t="n">
-        <v>-44</v>
+        <v>548</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2654,14 +2654,14 @@
         <v>7567</v>
       </c>
       <c r="C106" t="n">
-        <v>4491</v>
+        <v>7936</v>
       </c>
       <c r="D106" t="n">
-        <v>-3076</v>
+        <v>368</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2822,10 +2822,10 @@
         <v>330</v>
       </c>
       <c r="C114" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D114" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>257</v>
       </c>
       <c r="C118" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D118" t="n">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D121" t="n">
-        <v>-53</v>
+        <v>-4</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3263,14 +3263,14 @@
         <v>1694</v>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>2133</v>
       </c>
       <c r="D135" t="n">
-        <v>-1692</v>
+        <v>438</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3305,10 +3305,10 @@
         <v>3323</v>
       </c>
       <c r="C137" t="n">
-        <v>4456</v>
+        <v>4498</v>
       </c>
       <c r="D137" t="n">
-        <v>1132</v>
+        <v>1174</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D139" t="n">
-        <v>-198</v>
+        <v>-166</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>140</v>
+        <v>482</v>
       </c>
       <c r="D144" t="n">
-        <v>-677</v>
+        <v>-335</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         <v>51</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D148" t="n">
-        <v>-51</v>
+        <v>-1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3641,14 +3641,14 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1025</v>
+        <v>1471</v>
       </c>
       <c r="D153" t="n">
-        <v>-437</v>
+        <v>9</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3683,14 +3683,14 @@
         <v>43</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D155" t="n">
-        <v>-43</v>
+        <v>5</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1016,10 +1016,10 @@
         <v>356</v>
       </c>
       <c r="C28" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D28" t="n">
-        <v>-255</v>
+        <v>-251</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>-17</v>
+        <v>-1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1541,10 +1541,10 @@
         <v>49</v>
       </c>
       <c r="C53" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D53" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1667,10 +1667,10 @@
         <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>288</v>
       </c>
       <c r="C65" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D65" t="n">
-        <v>-192</v>
+        <v>-191</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         <v>22</v>
       </c>
       <c r="C86" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3862</v>
       </c>
       <c r="C99" t="n">
-        <v>1379</v>
+        <v>1841</v>
       </c>
       <c r="D99" t="n">
-        <v>-2483</v>
+        <v>-2021</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4666</v>
       </c>
       <c r="C100" t="n">
-        <v>780</v>
+        <v>1364</v>
       </c>
       <c r="D100" t="n">
-        <v>-3886</v>
+        <v>-3302</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1037</v>
       </c>
       <c r="C101" t="n">
-        <v>564</v>
+        <v>686</v>
       </c>
       <c r="D101" t="n">
-        <v>-473</v>
+        <v>-351</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>769</v>
       </c>
       <c r="C103" t="n">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="D103" t="n">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>7567</v>
       </c>
       <c r="C106" t="n">
-        <v>7936</v>
+        <v>8794</v>
       </c>
       <c r="D106" t="n">
-        <v>368</v>
+        <v>1226</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>2488</v>
       </c>
       <c r="C115" t="n">
-        <v>2462</v>
+        <v>2472</v>
       </c>
       <c r="D115" t="n">
-        <v>-26</v>
+        <v>-16</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2969,14 +2969,14 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D121" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3305,10 +3305,10 @@
         <v>3323</v>
       </c>
       <c r="C137" t="n">
-        <v>4498</v>
+        <v>5382</v>
       </c>
       <c r="D137" t="n">
-        <v>1174</v>
+        <v>2058</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3347,10 +3347,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D139" t="n">
-        <v>-166</v>
+        <v>-125</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3452,10 +3452,10 @@
         <v>817</v>
       </c>
       <c r="C144" t="n">
-        <v>482</v>
+        <v>628</v>
       </c>
       <c r="D144" t="n">
-        <v>-335</v>
+        <v>-189</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -491,14 +491,14 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -512,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4179</v>
+        <v>4174</v>
       </c>
       <c r="C6" t="n">
-        <v>4838</v>
+        <v>4638</v>
       </c>
       <c r="D6" t="n">
-        <v>658</v>
+        <v>463</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -575,10 +575,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -614,17 +614,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D9" t="n">
-        <v>-15</v>
+        <v>33</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -635,17 +635,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
         <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>-11</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -680,10 +680,10 @@
         <v>135</v>
       </c>
       <c r="C12" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" t="n">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C15" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-12</v>
+        <v>-78</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -761,13 +761,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>-61</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -785,10 +785,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -806,14 +806,14 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
+        <v>71</v>
+      </c>
+      <c r="D18" t="n">
         <v>34</v>
       </c>
-      <c r="D18" t="n">
-        <v>-2</v>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -911,10 +911,10 @@
         <v>162</v>
       </c>
       <c r="C23" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D23" t="n">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -929,17 +929,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="C24" t="n">
-        <v>1092</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>234</v>
+        <v>-835</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C28" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-251</v>
+        <v>-337</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1079,14 +1079,14 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8455</v>
+        <v>8453</v>
       </c>
       <c r="C35" t="n">
-        <v>8391</v>
+        <v>91</v>
       </c>
       <c r="D35" t="n">
-        <v>-64</v>
+        <v>-8362</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         <v>33</v>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1202,13 +1202,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1268,10 +1268,10 @@
         <v>99</v>
       </c>
       <c r="C40" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C41" t="n">
         <v>125</v>
       </c>
       <c r="D41" t="n">
-        <v>-29</v>
+        <v>-33</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1349,17 +1349,17 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1457,10 +1457,10 @@
         <v>55</v>
       </c>
       <c r="C49" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D49" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1478,10 +1478,10 @@
         <v>63</v>
       </c>
       <c r="C50" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-8</v>
+        <v>-63</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D53" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1562,14 +1562,14 @@
         <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D54" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1604,14 +1604,14 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1643,17 +1643,17 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C58" t="n">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>133</v>
+        <v>-241</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1667,14 +1667,14 @@
         <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>-42</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C62" t="n">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="D62" t="n">
-        <v>-26</v>
+        <v>-48</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1748,17 +1748,17 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C63" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C65" t="n">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D65" t="n">
-        <v>-191</v>
+        <v>-139</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,17 +1811,17 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C66" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>33</v>
+        <v>-184</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1877,14 +1877,14 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2000,13 +2000,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C75" t="n">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>-4</v>
+        <v>-275</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2108,14 +2108,14 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2129,10 +2129,10 @@
         <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2150,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2213,10 +2213,10 @@
         <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D85" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2234,14 +2234,14 @@
         <v>22</v>
       </c>
       <c r="C86" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>13</v>
+        <v>-22</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2255,10 +2255,10 @@
         <v>10</v>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2315,17 +2315,17 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2305</v>
+        <v>2180</v>
       </c>
       <c r="C90" t="n">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D90" t="n">
-        <v>-113</v>
+        <v>9</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D93" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2423,14 +2423,14 @@
         <v>67</v>
       </c>
       <c r="C95" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2465,10 +2465,10 @@
         <v>54</v>
       </c>
       <c r="C97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D97" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3862</v>
+        <v>3855</v>
       </c>
       <c r="C99" t="n">
-        <v>1841</v>
+        <v>473</v>
       </c>
       <c r="D99" t="n">
-        <v>-2021</v>
+        <v>-3382</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4666</v>
+        <v>4559</v>
       </c>
       <c r="C100" t="n">
-        <v>1364</v>
+        <v>692</v>
       </c>
       <c r="D100" t="n">
-        <v>-3302</v>
+        <v>-3867</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C101" t="n">
-        <v>686</v>
+        <v>379</v>
       </c>
       <c r="D101" t="n">
-        <v>-351</v>
+        <v>-660</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,14 +2570,14 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2588,17 +2588,17 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>769</v>
+        <v>815</v>
       </c>
       <c r="C103" t="n">
-        <v>1324</v>
+        <v>172</v>
       </c>
       <c r="D103" t="n">
-        <v>554</v>
+        <v>-643</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2651,17 +2651,17 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>7567</v>
+        <v>7856</v>
       </c>
       <c r="C106" t="n">
-        <v>8794</v>
+        <v>6019</v>
       </c>
       <c r="D106" t="n">
-        <v>1226</v>
+        <v>-1837</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2696,10 +2696,10 @@
         <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2735,13 +2735,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C110" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D110" t="n">
-        <v>-49</v>
+        <v>-58</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2756,17 +2756,17 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C111" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D111" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2780,14 +2780,14 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2819,13 +2819,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C114" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D114" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2488</v>
+        <v>2626</v>
       </c>
       <c r="C115" t="n">
-        <v>2472</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-16</v>
+        <v>-2626</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2861,13 +2861,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2903,13 +2903,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C118" t="n">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="D118" t="n">
-        <v>-24</v>
+        <v>-71</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,14 +2927,14 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2969,14 +2969,14 @@
         <v>53</v>
       </c>
       <c r="C121" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>-53</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -2990,14 +2990,14 @@
         <v>310</v>
       </c>
       <c r="C122" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3053,14 +3053,14 @@
         <v>102</v>
       </c>
       <c r="C125" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3071,17 +3071,17 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="C126" t="n">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>32</v>
+        <v>-2065</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3155,13 +3155,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C130" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>-12</v>
+        <v>-82</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3176,17 +3176,17 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C131" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3260,17 +3260,17 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1694</v>
+        <v>1737</v>
       </c>
       <c r="C135" t="n">
-        <v>2133</v>
+        <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>438</v>
+        <v>-1734</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3302,17 +3302,17 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3323</v>
+        <v>3358</v>
       </c>
       <c r="C137" t="n">
-        <v>5382</v>
+        <v>1893</v>
       </c>
       <c r="D137" t="n">
-        <v>2058</v>
+        <v>-1465</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3323,13 +3323,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C138" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-6</v>
+        <v>-37</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C139" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>-125</v>
+        <v>-197</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3365,13 +3365,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C140" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D140" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="C143" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D143" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="C144" t="n">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>-189</v>
+        <v>-806</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3512,17 +3512,17 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C147" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3536,10 +3536,10 @@
         <v>51</v>
       </c>
       <c r="C148" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>-1</v>
+        <v>-51</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3557,10 +3557,10 @@
         <v>28</v>
       </c>
       <c r="C149" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D149" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3575,13 +3575,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C150" t="n">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D150" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>55</v>
       </c>
       <c r="C151" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D151" t="n">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3617,17 +3617,17 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C152" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D152" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3641,14 +3641,14 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>1471</v>
+        <v>308</v>
       </c>
       <c r="D153" t="n">
-        <v>9</v>
+        <v>-1154</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
@@ -3683,14 +3683,14 @@
         <v>43</v>
       </c>
       <c r="C155" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>-43</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -554,10 +554,10 @@
         <v>4174</v>
       </c>
       <c r="C6" t="n">
-        <v>4638</v>
+        <v>4863</v>
       </c>
       <c r="D6" t="n">
-        <v>463</v>
+        <v>688</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         <v>135</v>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1520,14 +1520,14 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1667,14 +1667,14 @@
         <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D59" t="n">
-        <v>-42</v>
+        <v>8</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1730,10 +1730,10 @@
         <v>402</v>
       </c>
       <c r="C62" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D62" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1982,10 +1982,10 @@
         <v>79</v>
       </c>
       <c r="C74" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D74" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         <v>276</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="D75" t="n">
-        <v>-275</v>
+        <v>-25</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2129,14 +2129,14 @@
         <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D81" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>3855</v>
       </c>
       <c r="C99" t="n">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="D99" t="n">
-        <v>-3382</v>
+        <v>-3325</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>4559</v>
       </c>
       <c r="C100" t="n">
-        <v>692</v>
+        <v>924</v>
       </c>
       <c r="D100" t="n">
-        <v>-3867</v>
+        <v>-3635</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>1039</v>
       </c>
       <c r="C101" t="n">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="D101" t="n">
-        <v>-660</v>
+        <v>-623</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         <v>815</v>
       </c>
       <c r="C103" t="n">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="D103" t="n">
-        <v>-643</v>
+        <v>-593</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>7856</v>
       </c>
       <c r="C106" t="n">
-        <v>6019</v>
+        <v>6274</v>
       </c>
       <c r="D106" t="n">
-        <v>-1837</v>
+        <v>-1582</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>2626</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="D115" t="n">
-        <v>-2626</v>
+        <v>-1647</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>272</v>
       </c>
       <c r="C118" t="n">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="D118" t="n">
-        <v>-71</v>
+        <v>-25</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2927,14 +2927,14 @@
         <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
@@ -3158,10 +3158,10 @@
         <v>82</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D130" t="n">
-        <v>-82</v>
+        <v>-14</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         <v>3358</v>
       </c>
       <c r="C137" t="n">
-        <v>1893</v>
+        <v>3004</v>
       </c>
       <c r="D137" t="n">
-        <v>-1465</v>
+        <v>-354</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>55</v>
       </c>
       <c r="C151" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D151" t="n">
-        <v>-14</v>
+        <v>-2</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         <v>1462</v>
       </c>
       <c r="C153" t="n">
-        <v>308</v>
+        <v>643</v>
       </c>
       <c r="D153" t="n">
-        <v>-1154</v>
+        <v>-819</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,14 +659,14 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BMGCARD</t>
+          <t>BLACKHAWK</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -841,7 +841,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>BMGCARD</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -862,80 +862,80 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BOA ALIMENTAÇÃO</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BOLETOBB</t>
+          <t>BOA ALIMENTAÇÃO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BONUSCRED</t>
+          <t>BOLETOBB</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BRASILCARD</t>
+          <t>BONUSCRED</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>835</v>
+        <v>162</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D24" t="n">
-        <v>-835</v>
+        <v>-16</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -946,112 +946,112 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BRASILCARDNET</t>
+          <t>BRASILCARD</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BRASILCONVENIO</t>
+          <t>BRASILCARDNET</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BRASILCONVENIOS</t>
+          <t>BRASILCONVENIO</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CABAL</t>
+          <t>BRASILCONVENIOS</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-337</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CABOSESOLDADOS</t>
+          <t>CABAL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-337</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CALCARD</t>
+          <t>CABOSESOLDADOS</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1072,56 +1072,56 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CARTAO PRE-DATADO</t>
+          <t>CALCARD</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CARTAOPREDATADO</t>
+          <t>CARTAO PRE-DATADO</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CDCCARD</t>
+          <t>CARTAOPREDATADO</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1135,14 +1135,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CETELEM</t>
+          <t>CDCCARD</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1156,98 +1156,98 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CIELO</t>
+          <t>CETELEM</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8453</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-8362</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>COMPROCARD</t>
+          <t>CIELO</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
+        <v>8453</v>
       </c>
       <c r="C36" t="n">
-        <v>36</v>
+        <v>2342</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>-6111</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CONVCARD</t>
+          <t>COMPROCARD</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CONVENIOSCARD</t>
+          <t>CONVCARD</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COOPELIFE</t>
+          <t>CONVENIOSCARD</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1261,38 +1261,38 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>COOPERCARD</t>
+          <t>COOPELIFE</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CREDISHOP</t>
+          <t>COOPERCARD</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="C41" t="n">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D41" t="n">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1303,59 +1303,59 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CREDNOSSO</t>
+          <t>CREDISHOP</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CREDSYSTEM</t>
+          <t>CREDNOSSO</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CREDZ</t>
+          <t>CREDSYSTEM</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1366,28 +1366,28 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CROSCARD</t>
+          <t>CREDZ</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CSF</t>
+          <t>CROSCARD</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1408,7 +1408,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DESCONHECIDO</t>
+          <t>CSF</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1429,7 +1429,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DIGIMODAS</t>
+          <t>DESCONHECIDO</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1450,38 +1450,38 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DMCARD</t>
+          <t>DIGIMODAS</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ECXCARD</t>
+          <t>DMCARD</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D50" t="n">
-        <v>-63</v>
+        <v>-2</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1492,59 +1492,59 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ELAVON</t>
+          <t>ECXCARD</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ER CARD</t>
+          <t>ELAVON</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EUCARD</t>
+          <t>ER CARD</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1555,17 +1555,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FACECARD</t>
+          <t>EUCARD</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1576,38 +1576,38 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FAMILLYCARD</t>
+          <t>FACECARD</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>FANCARD</t>
+          <t>FAMILLYCARD</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1618,122 +1618,122 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FIRSTDATA</t>
+          <t>FANCARD</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>954</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>FITCARD</t>
+          <t>FIRSTDATA</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>241</v>
+        <v>954</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="D58" t="n">
-        <v>-241</v>
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FORTBRASIL</t>
+          <t>FITCARD</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="C59" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>-241</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>FORTBRASIL</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GOLDENFARMA</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GOODCARD</t>
+          <t>GOLDENFARMA</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>402</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
-        <v>355</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>-47</v>
+        <v>-1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1744,35 +1744,35 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GRANDCARD</t>
+          <t>GOODCARD</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>22</v>
+        <v>402</v>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>356</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GRANITO</t>
+          <t>GRANDCARD</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1786,77 +1786,77 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>GRANITO</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>-139</v>
+        <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="D66" t="n">
-        <v>-184</v>
+        <v>122</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>-184</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HTNCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1870,49 +1870,49 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IBICARTOES</t>
+          <t>HTNCARD</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>IBICARTOES</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1933,7 +1933,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1954,7 +1954,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1975,38 +1975,38 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>LECARD</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LIBERCARD</t>
+          <t>LECARD</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="C75" t="n">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="D75" t="n">
-        <v>-25</v>
+        <v>-3</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2017,35 +2017,35 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LINXPAY</t>
+          <t>LIBERCARD</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>LINXPAY</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2080,7 +2080,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2101,77 +2101,77 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MAXXCARD</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MEGAVALE</t>
+          <t>MAXXCARD</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C81" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MGCARD</t>
+          <t>MEGAVALE</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MURY</t>
+          <t>MGCARD</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -2185,59 +2185,59 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NEUSFESTECARD</t>
+          <t>MURY</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NUTRICARD</t>
+          <t>NEUSFESTECARD</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>NUTRICARD</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D86" t="n">
-        <v>-22</v>
+        <v>-5</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2248,17 +2248,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-1</v>
+        <v>-22</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2269,28 +2269,28 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2311,49 +2311,49 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PAGSEGURO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2180</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>2190</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGSEGURO</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>2192</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2374,164 +2374,164 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PAYPAL</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PAYPAL</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PIX BB</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>PIX BB</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PIXBRADESCO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3855</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>-3325</v>
+        <v>0</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PIXITAU</t>
+          <t>PIXBRADESCO</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4559</v>
+        <v>3855</v>
       </c>
       <c r="C100" t="n">
-        <v>924</v>
+        <v>695</v>
       </c>
       <c r="D100" t="n">
-        <v>-3635</v>
+        <v>-3160</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2542,17 +2542,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PIXSANTANDER</t>
+          <t>PIXITAU</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1039</v>
+        <v>4559</v>
       </c>
       <c r="C101" t="n">
-        <v>416</v>
+        <v>1114</v>
       </c>
       <c r="D101" t="n">
-        <v>-623</v>
+        <v>-3445</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2563,17 +2563,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PLANVALE</t>
+          <t>PIXSANTANDER</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>1039</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>464</v>
       </c>
       <c r="D102" t="n">
-        <v>-1</v>
+        <v>-575</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2584,17 +2584,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>POLICARD</t>
+          <t>PLANVALE</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>815</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>-593</v>
+        <v>-1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2605,28 +2605,28 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>POLICARD</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>-499</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2640,24 +2640,24 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>REDE</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>7856</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>6274</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>-1582</v>
+        <v>0</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2668,101 +2668,101 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDE</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>7856</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>6751</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>-1105</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>REDEUZE</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>-58</v>
+        <v>0</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ROMCARD</t>
+          <t>REDEUZE</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="C111" t="n">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D111" t="n">
-        <v>-5</v>
+        <v>-58</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2773,17 +2773,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RVCARDS</t>
+          <t>ROMCARD</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2794,14 +2794,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SAFECARD</t>
+          <t>RVCARDS</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -2815,59 +2815,59 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SAFRAPAY</t>
+          <t>SAFECARD</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>331</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>334</v>
+        <v>3</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>SAFRAPAY</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2626</v>
+        <v>331</v>
       </c>
       <c r="C115" t="n">
-        <v>979</v>
+        <v>334</v>
       </c>
       <c r="D115" t="n">
-        <v>-1647</v>
+        <v>2</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SEICON</t>
+          <t>SANTANDER</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>8</v>
+        <v>2626</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>2452</v>
       </c>
       <c r="D116" t="n">
-        <v>-8</v>
+        <v>-174</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2878,17 +2878,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SEM PARA</t>
+          <t>SEICON</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2899,17 +2899,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SENFF</t>
+          <t>SEM PARA</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2920,35 +2920,35 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SERTAOCARD</t>
+          <t>SENFF</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>247</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SERTAOCARD</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2962,70 +2962,70 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SICRED</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>310</v>
+        <v>53</v>
       </c>
       <c r="C122" t="n">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>-53</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SICRED</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3046,38 +3046,38 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SIPAG</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>SIPAG</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2065</v>
+        <v>102</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D126" t="n">
-        <v>-2065</v>
+        <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3088,17 +3088,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SODEXO</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>2065</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>-2065</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3123,14 +3123,14 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3151,38 +3151,38 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TAPAGO</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C131" t="n">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D131" t="n">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3193,28 +3193,28 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TAPAGO</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3235,7 +3235,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3256,80 +3256,80 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1737</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>-1734</v>
+        <v>0</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1737</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>-1734</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TRICARD</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3358</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>3004</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>-354</v>
+        <v>0</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>TRICARD</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>37</v>
+        <v>3358</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>3113</v>
       </c>
       <c r="D138" t="n">
-        <v>-37</v>
+        <v>-245</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3340,17 +3340,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>TRIOCARD</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D139" t="n">
-        <v>-197</v>
+        <v>-5</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3361,49 +3361,49 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TRUCKPAG</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="C140" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>-197</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>TRUCKPAG</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3424,38 +3424,38 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>USECRED</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>VALECARD</t>
+          <t>USECRED</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>806</v>
+        <v>27</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D144" t="n">
-        <v>-806</v>
+        <v>-5</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3466,28 +3466,28 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALECARD</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>-676</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3508,38 +3508,38 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>VALESHOP</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>VEGASCARD</t>
+          <t>VALESHOP</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>51</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D148" t="n">
-        <v>-51</v>
+        <v>-3</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3550,38 +3550,38 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>VERDECARD</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C149" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>11</v>
+        <v>-50</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>VERO</t>
+          <t>VERDECARD</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="C150" t="n">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="D150" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3592,103 +3592,124 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>VEROCHEQUE</t>
+          <t>VERO</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="C151" t="n">
-        <v>53</v>
+        <v>315</v>
       </c>
       <c r="D151" t="n">
-        <v>-2</v>
+        <v>78</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>VOLUS</t>
+          <t>VEROCHEQUE</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C152" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>VRBENEFICIOS</t>
+          <t>VOLUS</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1462</v>
+        <v>47</v>
       </c>
       <c r="C153" t="n">
-        <v>643</v>
+        <v>49</v>
       </c>
       <c r="D153" t="n">
-        <v>-819</v>
+        <v>1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>WEBCARD</t>
+          <t>VRBENEFICIOS</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1462</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>-569</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>IGUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
           <t>WIZEO</t>
         </is>
       </c>
-      <c r="B155" t="n">
+      <c r="B156" t="n">
         <v>43</v>
       </c>
-      <c r="C155" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" t="n">
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
         <v>-43</v>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>ABAIXO</t>
         </is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,10 +659,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
-        <v>-61</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         <v>8453</v>
       </c>
       <c r="C36" t="n">
-        <v>2342</v>
+        <v>8389</v>
       </c>
       <c r="D36" t="n">
-        <v>-6111</v>
+        <v>-64</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>GETNET</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1723,38 +1723,38 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GOLDENFARMA</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GOODCARD</t>
+          <t>GOLDENFARMA</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>402</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
-        <v>356</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>-46</v>
+        <v>-1</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1765,35 +1765,35 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GRANDCARD</t>
+          <t>GOODCARD</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>22</v>
+        <v>402</v>
       </c>
       <c r="C64" t="n">
-        <v>22</v>
+        <v>356</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GRANITO</t>
+          <t>GRANDCARD</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1807,77 +1807,77 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>GRANITO</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>395</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="D67" t="n">
-        <v>-184</v>
+        <v>122</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HTNCARD</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1891,49 +1891,49 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IBICARTOES</t>
+          <t>HTNCARD</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>IBICARTOES</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1954,7 +1954,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1975,7 +1975,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1996,38 +1996,38 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LECARD</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LIBERCARD</t>
+          <t>LECARD</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="C76" t="n">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="D76" t="n">
-        <v>-25</v>
+        <v>-3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2038,35 +2038,35 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LINXPAY</t>
+          <t>LIBERCARD</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>LINXPAY</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2101,7 +2101,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2122,77 +2122,77 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MAXXCARD</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MEGAVALE</t>
+          <t>MAXXCARD</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MGCARD</t>
+          <t>MEGAVALE</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MURY</t>
+          <t>MGCARD</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -2206,59 +2206,59 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NEUSFESTECARD</t>
+          <t>MURY</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NUTRICARD</t>
+          <t>NEUSFESTECARD</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C86" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>NUTRICARD</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D87" t="n">
-        <v>-22</v>
+        <v>-5</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2269,49 +2269,49 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C88" t="n">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="D88" t="n">
-        <v>-1</v>
+        <v>126</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2332,49 +2332,49 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PAGSEGURO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2180</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>2192</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGSEGURO</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>2192</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2395,164 +2395,164 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PAYPAL</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PAYPAL</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PIX BB</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>PIX BB</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PIXBRADESCO</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3855</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>-3160</v>
+        <v>0</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PIXITAU</t>
+          <t>PIXBRADESCO</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4559</v>
+        <v>3855</v>
       </c>
       <c r="C101" t="n">
-        <v>1114</v>
+        <v>695</v>
       </c>
       <c r="D101" t="n">
-        <v>-3445</v>
+        <v>-3160</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2563,17 +2563,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PIXSANTANDER</t>
+          <t>PIXITAU</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1039</v>
+        <v>4559</v>
       </c>
       <c r="C102" t="n">
-        <v>464</v>
+        <v>1114</v>
       </c>
       <c r="D102" t="n">
-        <v>-575</v>
+        <v>-3445</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2584,17 +2584,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PLANVALE</t>
+          <t>PIXSANTANDER</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>1039</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>464</v>
       </c>
       <c r="D103" t="n">
-        <v>-1</v>
+        <v>-575</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2605,17 +2605,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>POLICARD</t>
+          <t>PLANVALE</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>815</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>-499</v>
+        <v>-1</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2626,28 +2626,28 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>POLICARD</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-499</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2661,24 +2661,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>REDE</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>7856</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>6751</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>-1105</v>
+        <v>0</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2689,101 +2689,101 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDE</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>7856</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>7171</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-685</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>REDEUZE</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>-58</v>
+        <v>0</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ROMCARD</t>
+          <t>REDEUZE</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="C112" t="n">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D112" t="n">
-        <v>-5</v>
+        <v>-58</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2794,17 +2794,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>RVCARDS</t>
+          <t>ROMCARD</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2815,14 +2815,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SAFECARD</t>
+          <t>RVCARDS</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2836,59 +2836,59 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SAFRAPAY</t>
+          <t>SAFECARD</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>331</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>334</v>
+        <v>3</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>SAFRAPAY</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2626</v>
+        <v>331</v>
       </c>
       <c r="C116" t="n">
-        <v>2452</v>
+        <v>334</v>
       </c>
       <c r="D116" t="n">
-        <v>-174</v>
+        <v>2</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SEICON</t>
+          <t>SANTANDER</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>8</v>
+        <v>2626</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>2452</v>
       </c>
       <c r="D117" t="n">
-        <v>-8</v>
+        <v>-174</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2899,17 +2899,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SEM PARA</t>
+          <t>SEICON</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2920,17 +2920,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SENFF</t>
+          <t>SEM PARA</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2941,35 +2941,35 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SERTAOCARD</t>
+          <t>SENFF</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>247</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SERTAOCARD</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2983,70 +2983,70 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SICRED</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>310</v>
+        <v>53</v>
       </c>
       <c r="C123" t="n">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>-53</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SICRED</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3067,38 +3067,38 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SIPAG</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>SIPAG</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2065</v>
+        <v>102</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D127" t="n">
-        <v>-2065</v>
+        <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3109,17 +3109,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SODEXO</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>2065</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-1889</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3144,14 +3144,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3172,38 +3172,38 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TAPAGO</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C132" t="n">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D132" t="n">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3214,28 +3214,28 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TAPAGO</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3256,7 +3256,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3277,80 +3277,80 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1737</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>-1734</v>
+        <v>0</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1737</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>-1734</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TRICARD</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3358</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>3113</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>-245</v>
+        <v>0</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>TRICARD</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>37</v>
+        <v>3358</v>
       </c>
       <c r="C139" t="n">
-        <v>32</v>
+        <v>3113</v>
       </c>
       <c r="D139" t="n">
-        <v>-5</v>
+        <v>-245</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3361,17 +3361,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>TRIOCARD</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D140" t="n">
-        <v>-197</v>
+        <v>-5</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3382,49 +3382,49 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TRUCKPAG</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="C141" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>-197</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>TRUCKPAG</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3445,38 +3445,38 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>USECRED</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>VALECARD</t>
+          <t>USECRED</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>806</v>
+        <v>27</v>
       </c>
       <c r="C145" t="n">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="D145" t="n">
-        <v>-676</v>
+        <v>-5</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3487,28 +3487,28 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALECARD</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>-576</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3529,38 +3529,38 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>VALESHOP</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>VEGASCARD</t>
+          <t>VALESHOP</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>51</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D149" t="n">
-        <v>-50</v>
+        <v>-3</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3571,17 +3571,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>VERDECARD</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C150" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D150" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3592,17 +3592,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>VERO</t>
+          <t>VERDECARD</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="C151" t="n">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="D151" t="n">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3613,103 +3613,124 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>VEROCHEQUE</t>
+          <t>VERO</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="C152" t="n">
-        <v>54</v>
+        <v>315</v>
       </c>
       <c r="D152" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>VOLUS</t>
+          <t>VEROCHEQUE</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C153" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>VRBENEFICIOS</t>
+          <t>VOLUS</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1462</v>
+        <v>47</v>
       </c>
       <c r="C154" t="n">
-        <v>893</v>
+        <v>49</v>
       </c>
       <c r="D154" t="n">
-        <v>-569</v>
+        <v>1</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>WEBCARD</t>
+          <t>VRBENEFICIOS</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1462</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>-569</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t>WEBCARD</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>IGUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
           <t>WIZEO</t>
         </is>
       </c>
-      <c r="B156" t="n">
+      <c r="B157" t="n">
         <v>43</v>
       </c>
-      <c r="C156" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" t="n">
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
         <v>-43</v>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>ABAIXO</t>
         </is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,10 +743,10 @@
         <v>78</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D15" t="n">
-        <v>-78</v>
+        <v>-3</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1184,10 +1184,10 @@
         <v>8453</v>
       </c>
       <c r="C36" t="n">
-        <v>8389</v>
+        <v>8392</v>
       </c>
       <c r="D36" t="n">
-        <v>-64</v>
+        <v>-61</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1373,10 +1373,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GETNET</t>
+          <t>GLOBAL PAYMENTS</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1723,38 +1723,38 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GLOBAL PAYMENTS</t>
+          <t>GOLDENFARMA</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GOLDENFARMA</t>
+          <t>GOODCARD</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>356</v>
       </c>
       <c r="D63" t="n">
-        <v>-1</v>
+        <v>-46</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1765,35 +1765,35 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GOODCARD</t>
+          <t>GRANDCARD</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>402</v>
+        <v>22</v>
       </c>
       <c r="C64" t="n">
-        <v>356</v>
+        <v>22</v>
       </c>
       <c r="D64" t="n">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GRANDCARD</t>
+          <t>GRANITO</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1807,38 +1807,38 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GRANITO</t>
+          <t>GREENCARD</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GREENCARD</t>
+          <t>HAGANA</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="C67" t="n">
-        <v>395</v>
+        <v>242</v>
       </c>
       <c r="D67" t="n">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1849,35 +1849,35 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HAGANA</t>
+          <t>HELLOTICKET</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HELLOTICKET</t>
+          <t>HTNCARD</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1891,49 +1891,49 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HTNCARD</t>
+          <t>IBICARTOES</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IBICARTOES</t>
+          <t>INOVEPAY</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INOVEPAY</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1954,7 +1954,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>KOIN</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1975,7 +1975,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>KOIN</t>
+          <t>LAGOACRED</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1996,38 +1996,38 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LAGOACRED</t>
+          <t>LECARD</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LECARD</t>
+          <t>LIBERCARD</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="C76" t="n">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="D76" t="n">
-        <v>-3</v>
+        <v>-25</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2038,35 +2038,35 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LIBERCARD</t>
+          <t>LINXPAY</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>276</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LINXPAY</t>
+          <t>LOSANGO</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>LOSANGO</t>
+          <t>MAISFACIL</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2101,7 +2101,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MAISFACIL</t>
+          <t>MAXI CARTÃO</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2122,77 +2122,77 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MAXI CARTÃO</t>
+          <t>MAXXCARD</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MAXXCARD</t>
+          <t>MEGAVALE</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D82" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MEGAVALE</t>
+          <t>MGCARD</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MGCARD</t>
+          <t>MURY</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -2206,112 +2206,112 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MURY</t>
+          <t>NEUSFESTECARD</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NEUSFESTECARD</t>
+          <t>NUTRICARD</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NUTRICARD</t>
+          <t>NUTRICASH</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="D87" t="n">
-        <v>-5</v>
+        <v>126</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NUTRICASH</t>
+          <t>ONECARD</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>126</v>
+        <v>-1</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ONECARD</t>
+          <t>OPERADORA TESTE CODIGO</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>OPERADORA TESTE CODIGO</t>
+          <t>PAGOLIVRE</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2332,49 +2332,49 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PAGOLIVRE</t>
+          <t>PAGSEGURO</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>2192</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PAGSEGURO</t>
+          <t>PAGSIMPLES</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2180</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>2192</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PAGSIMPLES</t>
+          <t>PAGUELOGO</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2395,164 +2395,164 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PAGUELOGO</t>
+          <t>PAYPAL</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PAYPAL</t>
+          <t>PEDEPRONTO</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PEDEPRONTO</t>
+          <t>PERSONALCARD</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PERSONALCARD</t>
+          <t>PITCARD</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PITCARD</t>
+          <t>PIX BB</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PIX BB</t>
+          <t>PIXBB</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PIXBB</t>
+          <t>PIXBRADESCO</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>3855</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1091</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>-2764</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PIXBRADESCO</t>
+          <t>PIXITAU</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3855</v>
+        <v>4559</v>
       </c>
       <c r="C101" t="n">
-        <v>695</v>
+        <v>1679</v>
       </c>
       <c r="D101" t="n">
-        <v>-3160</v>
+        <v>-2880</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2563,17 +2563,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PIXITAU</t>
+          <t>PIXSANTANDER</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4559</v>
+        <v>1039</v>
       </c>
       <c r="C102" t="n">
-        <v>1114</v>
+        <v>553</v>
       </c>
       <c r="D102" t="n">
-        <v>-3445</v>
+        <v>-486</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2584,17 +2584,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PIXSANTANDER</t>
+          <t>PLANVALE</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1039</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>-575</v>
+        <v>-1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2605,49 +2605,49 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PLANVALE</t>
+          <t>POLICARD</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>815</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>819</v>
       </c>
       <c r="D104" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>POLICARD</t>
+          <t>RAPPI</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>815</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-499</v>
+        <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RAPPI</t>
+          <t>RAPPI FARMACIA</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2661,24 +2661,24 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RAPPI FARMACIA</t>
+          <t>REDE</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>7856</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>7654</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>-202</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2689,101 +2689,101 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>REDE</t>
+          <t>REDEMED</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>7856</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>7171</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>-685</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>REDEMED</t>
+          <t>REDETENDENCIA</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>REDETENDENCIA</t>
+          <t>REDETREL</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>REDETREL</t>
+          <t>REDEUZE</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>REDEUZE</t>
+          <t>ROMCARD</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="C112" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D112" t="n">
-        <v>-58</v>
+        <v>-5</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2794,17 +2794,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ROMCARD</t>
+          <t>RVCARDS</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2815,14 +2815,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RVCARDS</t>
+          <t>SAFECARD</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -2836,80 +2836,80 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SAFECARD</t>
+          <t>SAFRAPAY</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>334</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SAFRAPAY</t>
+          <t>SANTANDER</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>331</v>
+        <v>2626</v>
       </c>
       <c r="C116" t="n">
-        <v>334</v>
+        <v>2452</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>-174</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SANTANDER</t>
+          <t>SEICON</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2626</v>
+        <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>2452</v>
+        <v>9</v>
       </c>
       <c r="D117" t="n">
-        <v>-174</v>
+        <v>0</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SEICON</t>
+          <t>SEM PARA</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2920,17 +2920,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SEM PARA</t>
+          <t>SENFF</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>247</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2941,35 +2941,35 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SENFF</t>
+          <t>SERTAOCARD</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="D120" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SERTAOCARD</t>
+          <t>SESIMAX</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2983,70 +2983,70 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SESIMAX</t>
+          <t>SHELLBOX</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SHELLBOX</t>
+          <t>SICRED</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>53</v>
+        <v>310</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="D123" t="n">
-        <v>-53</v>
+        <v>1</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SICRED</t>
+          <t>SICREDI</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SICREDI</t>
+          <t>SINDPLUS</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3067,38 +3067,38 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SINDPLUS</t>
+          <t>SIPAG</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SIPAG</t>
+          <t>SODEXO</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>102</v>
+        <v>2065</v>
       </c>
       <c r="C127" t="n">
-        <v>102</v>
+        <v>1225</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>-840</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3109,17 +3109,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SODEXO</t>
+          <t>SOLUCARD</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2065</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>-1889</v>
+        <v>0</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOLUCARD</t>
+          <t>SOMA CONTA DIGITAL</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3144,14 +3144,14 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOMA CONTA DIGITAL</t>
+          <t>SOROCRED</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3172,38 +3172,38 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SOROCRED</t>
+          <t>SYSPROCARD</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SYSPROCARD</t>
+          <t>TAPAGO</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C132" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D132" t="n">
-        <v>-14</v>
+        <v>-3</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3214,28 +3214,28 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TAPAGO</t>
+          <t>TEGYNBTEN</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TEGYNBTEN</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3256,7 +3256,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TESTE</t>
+          <t>TESTE32</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3277,80 +3277,80 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TESTE32</t>
+          <t>TICKET</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1737</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>-1734</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TICKET</t>
+          <t>TODOCARTOES</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1737</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>-1734</v>
+        <v>0</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TODOCARTOES</t>
+          <t>TRICARD</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>3358</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>3113</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>-245</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TRICARD</t>
+          <t>TRIOCARD</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3358</v>
+        <v>37</v>
       </c>
       <c r="C139" t="n">
-        <v>3113</v>
+        <v>32</v>
       </c>
       <c r="D139" t="n">
-        <v>-245</v>
+        <v>-5</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3361,17 +3361,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TRIOCARD</t>
+          <t>TRIPAG</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="C140" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>-5</v>
+        <v>-197</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3382,49 +3382,49 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TRIPAG</t>
+          <t>TRUCKPAG</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D141" t="n">
-        <v>-197</v>
+        <v>2</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TRUCKPAG</t>
+          <t>UBEREATS</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>UBEREATS</t>
+          <t>USACARD</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3445,38 +3445,38 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>USACARD</t>
+          <t>USECRED</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>USECRED</t>
+          <t>VALECARD</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>27</v>
+        <v>806</v>
       </c>
       <c r="C145" t="n">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="D145" t="n">
-        <v>-5</v>
+        <v>-494</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3487,28 +3487,28 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>VALECARD</t>
+          <t>VALECON</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>806</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>-576</v>
+        <v>0</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>VALECON</t>
+          <t>VALEMAIS</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3529,59 +3529,59 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>VALEMAIS</t>
+          <t>VALESHOP</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>IGUAL</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>VALESHOP</t>
+          <t>VEGASCARD</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>51</v>
       </c>
       <c r="C149" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D149" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>VEGASCARD</t>
+          <t>VERDECARD</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C150" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3592,17 +3592,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>VERDECARD</t>
+          <t>VERO</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="C151" t="n">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="D151" t="n">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3613,124 +3613,103 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>VERO</t>
+          <t>VEROCHEQUE</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="C152" t="n">
-        <v>315</v>
+        <v>54</v>
       </c>
       <c r="D152" t="n">
-        <v>78</v>
+        <v>-1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>VEROCHEQUE</t>
+          <t>VOLUS</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C153" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D153" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>VOLUS</t>
+          <t>VRBENEFICIOS</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>47</v>
+        <v>1462</v>
       </c>
       <c r="C154" t="n">
-        <v>49</v>
+        <v>1381</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>-81</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ACIMA</t>
+          <t>ABAIXO</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>VRBENEFICIOS</t>
+          <t>WEBCARD</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1462</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>893</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>-569</v>
+        <v>0</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>IGUAL</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>WEBCARD</t>
+          <t>WIZEO</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="E156" t="inlineStr">
-        <is>
-          <t>IGUAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>WIZEO</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>43</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0</v>
-      </c>
-      <c r="D157" t="n">
-        <v>-43</v>
-      </c>
-      <c r="E157" t="inlineStr">
         <is>
           <t>ABAIXO</t>
         </is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1184,10 +1184,10 @@
         <v>8453</v>
       </c>
       <c r="C36" t="n">
-        <v>8392</v>
+        <v>8431</v>
       </c>
       <c r="D36" t="n">
-        <v>-61</v>
+        <v>-22</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1373,14 +1373,14 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
         <v>1</v>
       </c>
-      <c r="D45" t="n">
-        <v>-1</v>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -1604,10 +1604,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>4559</v>
       </c>
       <c r="C101" t="n">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="D101" t="n">
-        <v>-2880</v>
+        <v>-2878</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2612,10 +2612,10 @@
         <v>815</v>
       </c>
       <c r="C104" t="n">
-        <v>819</v>
+        <v>915</v>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2675,14 +2675,14 @@
         <v>7856</v>
       </c>
       <c r="C107" t="n">
-        <v>7654</v>
+        <v>8091</v>
       </c>
       <c r="D107" t="n">
-        <v>-202</v>
+        <v>234</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -2990,10 +2990,10 @@
         <v>53</v>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D122" t="n">
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3095,10 +3095,10 @@
         <v>2065</v>
       </c>
       <c r="C127" t="n">
-        <v>1225</v>
+        <v>2024</v>
       </c>
       <c r="D127" t="n">
-        <v>-840</v>
+        <v>-41</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3284,10 +3284,10 @@
         <v>1737</v>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>1669</v>
       </c>
       <c r="D136" t="n">
-        <v>-1734</v>
+        <v>-68</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3473,10 +3473,10 @@
         <v>806</v>
       </c>
       <c r="C145" t="n">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="D145" t="n">
-        <v>-494</v>
+        <v>-381</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3662,14 +3662,14 @@
         <v>1462</v>
       </c>
       <c r="C154" t="n">
-        <v>1381</v>
+        <v>1468</v>
       </c>
       <c r="D154" t="n">
-        <v>-81</v>
+        <v>5</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3704,10 +3704,10 @@
         <v>43</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D156" t="n">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1037,10 +1037,10 @@
         <v>337</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>-337</v>
+        <v>-331</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>48</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D38" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1373,10 +1373,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2486,10 +2486,10 @@
         <v>54</v>
       </c>
       <c r="C98" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D98" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>3855</v>
       </c>
       <c r="C100" t="n">
-        <v>1091</v>
+        <v>1575</v>
       </c>
       <c r="D100" t="n">
-        <v>-2764</v>
+        <v>-2280</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>4559</v>
       </c>
       <c r="C101" t="n">
-        <v>1681</v>
+        <v>2264</v>
       </c>
       <c r="D101" t="n">
-        <v>-2878</v>
+        <v>-2295</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>1039</v>
       </c>
       <c r="C102" t="n">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="D102" t="n">
-        <v>-486</v>
+        <v>-424</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2675,10 +2675,10 @@
         <v>7856</v>
       </c>
       <c r="C107" t="n">
-        <v>8091</v>
+        <v>9006</v>
       </c>
       <c r="D107" t="n">
-        <v>234</v>
+        <v>1149</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3284,14 +3284,14 @@
         <v>1737</v>
       </c>
       <c r="C136" t="n">
-        <v>1669</v>
+        <v>2036</v>
       </c>
       <c r="D136" t="n">
-        <v>-68</v>
+        <v>298</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3473,10 +3473,10 @@
         <v>806</v>
       </c>
       <c r="C145" t="n">
-        <v>425</v>
+        <v>588</v>
       </c>
       <c r="D145" t="n">
-        <v>-381</v>
+        <v>-218</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3599,10 +3599,10 @@
         <v>236</v>
       </c>
       <c r="C151" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D151" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>

--- a/media_arquivos_operadoras.xlsx
+++ b/media_arquivos_operadoras.xlsx
@@ -1037,10 +1037,10 @@
         <v>337</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D29" t="n">
-        <v>-331</v>
+        <v>-280</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1751,10 +1751,10 @@
         <v>402</v>
       </c>
       <c r="C63" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D63" t="n">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2486,10 +2486,10 @@
         <v>54</v>
       </c>
       <c r="C98" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D98" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2528,10 +2528,10 @@
         <v>3855</v>
       </c>
       <c r="C100" t="n">
-        <v>1575</v>
+        <v>2021</v>
       </c>
       <c r="D100" t="n">
-        <v>-2280</v>
+        <v>-1834</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2549,10 +2549,10 @@
         <v>4559</v>
       </c>
       <c r="C101" t="n">
-        <v>2264</v>
+        <v>2831</v>
       </c>
       <c r="D101" t="n">
-        <v>-2295</v>
+        <v>-1728</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         <v>1039</v>
       </c>
       <c r="C102" t="n">
-        <v>615</v>
+        <v>764</v>
       </c>
       <c r="D102" t="n">
-        <v>-424</v>
+        <v>-275</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2675,10 +2675,10 @@
         <v>7856</v>
       </c>
       <c r="C107" t="n">
-        <v>9006</v>
+        <v>9010</v>
       </c>
       <c r="D107" t="n">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2843,10 +2843,10 @@
         <v>331</v>
       </c>
       <c r="C115" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2927,10 +2927,10 @@
         <v>272</v>
       </c>
       <c r="C119" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D119" t="n">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2990,14 +2990,14 @@
         <v>53</v>
       </c>
       <c r="C122" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D122" t="n">
-        <v>-41</v>
+        <v>6</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ABAIXO</t>
+          <t>ACIMA</t>
         </is>
       </c>
     </row>
@@ -3095,10 +3095,10 @@
         <v>2065</v>
       </c>
       <c r="C127" t="n">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="D127" t="n">
-        <v>-41</v>
+        <v>-38</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3473,10 +3473,10 @@
         <v>806</v>
       </c>
       <c r="C145" t="n">
-        <v>588</v>
+        <v>666</v>
       </c>
       <c r="D145" t="n">
-        <v>-218</v>
+        <v>-140</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3620,10 +3620,10 @@
         <v>55</v>
       </c>
       <c r="C152" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D152" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
